--- a/Emissão/Layouts/LAYOUT 3.0 MDFe.xlsx
+++ b/Emissão/Layouts/LAYOUT 3.0 MDFe.xlsx
@@ -2401,7 +2401,7 @@
     <t xml:space="preserve">D27</t>
   </si>
   <si>
-    <t xml:space="preserve">      ProdPerigosos</t>
+    <t xml:space="preserve">      ProdutosPerigosos</t>
   </si>
   <si>
     <t xml:space="preserve">Grupo de Informações dos Produtos Perigosos</t>
@@ -2410,7 +2410,7 @@
     <t xml:space="preserve">D28</t>
   </si>
   <si>
-    <t xml:space="preserve">       ProdPerigososItem</t>
+    <t xml:space="preserve">       ProdutosPerigososItem</t>
   </si>
   <si>
     <t xml:space="preserve">D29</t>
@@ -3470,176 +3470,176 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="112">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3647,287 +3647,275 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4005,19 +3993,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:S363"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B176" activeCellId="0" sqref="B176"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A262" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D267" activeCellId="0" sqref="D267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="6.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="28.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="36.84"/>
@@ -4025,9 +4013,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="6.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="15.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="4" width="6.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="6.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="6.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="74.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="9.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="9.52"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="12" style="2" width="9.16"/>
   </cols>
   <sheetData>
@@ -7772,40 +7760,40 @@
       </c>
     </row>
     <row r="103" s="7" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="76" t="n">
+      <c r="A103" s="39" t="n">
         <f aca="false">A102+1</f>
         <v>77</v>
       </c>
-      <c r="B103" s="77" t="str">
+      <c r="B103" s="40" t="str">
         <f aca="false">CONCATENATE("Ca",TEXT(A103-$A$73, "00"))</f>
         <v>Ca27</v>
       </c>
-      <c r="C103" s="78" t="s">
+      <c r="C103" s="41" t="s">
         <v>305</v>
       </c>
-      <c r="D103" s="78" t="s">
+      <c r="D103" s="41" t="s">
         <v>306</v>
       </c>
-      <c r="E103" s="76" t="s">
+      <c r="E103" s="39" t="s">
         <v>23</v>
       </c>
       <c r="F103" s="44" t="str">
         <f aca="false">$B$95</f>
         <v>Ca19</v>
       </c>
-      <c r="G103" s="76" t="s">
+      <c r="G103" s="39" t="s">
         <v>307</v>
       </c>
-      <c r="H103" s="79" t="s">
+      <c r="H103" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="I103" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="J103" s="80" t="s">
+      <c r="I103" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="J103" s="76" t="s">
         <v>308</v>
       </c>
-      <c r="K103" s="77" t="s">
+      <c r="K103" s="40" t="s">
         <v>309</v>
       </c>
     </row>
@@ -7838,7 +7826,7 @@
       <c r="I104" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="J104" s="81" t="s">
+      <c r="J104" s="77" t="s">
         <v>314</v>
       </c>
       <c r="K104" s="68" t="s">
@@ -7875,7 +7863,7 @@
       <c r="I105" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="J105" s="82"/>
+      <c r="J105" s="78"/>
       <c r="K105" s="63" t="s">
         <v>76</v>
       </c>
@@ -7908,7 +7896,7 @@
       <c r="I106" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="J106" s="83" t="s">
+      <c r="J106" s="79" t="s">
         <v>132</v>
       </c>
       <c r="K106" s="45" t="s">
@@ -8052,7 +8040,7 @@
       <c r="I110" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="J110" s="82" t="s">
+      <c r="J110" s="78" t="s">
         <v>331</v>
       </c>
       <c r="K110" s="63" t="s">
@@ -8087,7 +8075,7 @@
       <c r="I111" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="J111" s="83" t="s">
+      <c r="J111" s="79" t="s">
         <v>132</v>
       </c>
       <c r="K111" s="45" t="s">
@@ -8095,76 +8083,76 @@
       </c>
     </row>
     <row r="112" s="7" customFormat="true" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="76" t="n">
+      <c r="A112" s="39" t="n">
         <f aca="false">A111+1</f>
         <v>85</v>
       </c>
-      <c r="B112" s="77" t="str">
+      <c r="B112" s="40" t="str">
         <f aca="false">CONCATENATE("Ca",TEXT(A112-$A$73, "00"))</f>
         <v>Ca35</v>
       </c>
-      <c r="C112" s="78" t="s">
+      <c r="C112" s="41" t="s">
         <v>334</v>
       </c>
-      <c r="D112" s="78" t="s">
+      <c r="D112" s="41" t="s">
         <v>335</v>
       </c>
-      <c r="E112" s="76" t="s">
-        <v>23</v>
-      </c>
-      <c r="F112" s="76" t="s">
+      <c r="E112" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="F112" s="39" t="s">
         <v>336</v>
       </c>
-      <c r="G112" s="76" t="s">
+      <c r="G112" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="H112" s="79" t="s">
+      <c r="H112" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="I112" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="J112" s="80" t="s">
+      <c r="I112" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="J112" s="76" t="s">
         <v>337</v>
       </c>
-      <c r="K112" s="77" t="s">
+      <c r="K112" s="40" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="113" s="7" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="76" t="n">
+      <c r="A113" s="39" t="n">
         <f aca="false">A112+1</f>
         <v>86</v>
       </c>
-      <c r="B113" s="77" t="str">
+      <c r="B113" s="40" t="str">
         <f aca="false">CONCATENATE("Ca",TEXT(A113-$A$73, "00"))</f>
         <v>Ca36</v>
       </c>
-      <c r="C113" s="78" t="s">
+      <c r="C113" s="41" t="s">
         <v>338</v>
       </c>
-      <c r="D113" s="78" t="s">
+      <c r="D113" s="41" t="s">
         <v>339</v>
       </c>
-      <c r="E113" s="76" t="s">
-        <v>23</v>
-      </c>
-      <c r="F113" s="76" t="s">
+      <c r="E113" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="F113" s="39" t="s">
         <v>336</v>
       </c>
-      <c r="G113" s="76" t="s">
+      <c r="G113" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="H113" s="79" t="s">
+      <c r="H113" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="I113" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="J113" s="77" t="s">
+      <c r="I113" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="J113" s="40" t="s">
         <v>340</v>
       </c>
-      <c r="K113" s="77" t="s">
+      <c r="K113" s="40" t="s">
         <v>309</v>
       </c>
     </row>
@@ -8233,7 +8221,7 @@
       <c r="I115" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="J115" s="82"/>
+      <c r="J115" s="78"/>
       <c r="K115" s="63" t="s">
         <v>76</v>
       </c>
@@ -8268,7 +8256,7 @@
       <c r="I116" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="J116" s="84" t="s">
+      <c r="J116" s="80" t="s">
         <v>349</v>
       </c>
       <c r="K116" s="45" t="s">
@@ -8305,7 +8293,7 @@
       <c r="I117" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="J117" s="84"/>
+      <c r="J117" s="80"/>
       <c r="K117" s="45" t="s">
         <v>76</v>
       </c>
@@ -8340,7 +8328,7 @@
       <c r="I118" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="J118" s="85" t="s">
+      <c r="J118" s="81" t="s">
         <v>354</v>
       </c>
       <c r="K118" s="45" t="s">
@@ -8377,7 +8365,7 @@
       <c r="I119" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="J119" s="85" t="s">
+      <c r="J119" s="81" t="s">
         <v>357</v>
       </c>
       <c r="K119" s="45" t="s">
@@ -8410,7 +8398,7 @@
         <v>34</v>
       </c>
       <c r="I120" s="67"/>
-      <c r="J120" s="86" t="s">
+      <c r="J120" s="82" t="s">
         <v>362</v>
       </c>
       <c r="K120" s="68" t="s">
@@ -8877,7 +8865,7 @@
       <c r="I131" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="J131" s="87" t="s">
+      <c r="J131" s="83" t="s">
         <v>396</v>
       </c>
       <c r="K131" s="63" t="s">
@@ -9833,7 +9821,7 @@
       <c r="R152" s="7"/>
       <c r="S152" s="7"/>
     </row>
-    <row r="153" s="88" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" s="84" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="61" t="n">
         <f aca="false">A152+1</f>
         <v>123</v>
@@ -9908,7 +9896,7 @@
       <c r="I154" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="J154" s="89" t="s">
+      <c r="J154" s="85" t="s">
         <v>400</v>
       </c>
       <c r="K154" s="40" t="s">
@@ -9953,7 +9941,7 @@
       <c r="I155" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="J155" s="89"/>
+      <c r="J155" s="85"/>
       <c r="K155" s="40" t="s">
         <v>20</v>
       </c>
@@ -13234,7 +13222,7 @@
       <c r="I239" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="J239" s="90" t="s">
+      <c r="J239" s="86" t="s">
         <v>132</v>
       </c>
       <c r="K239" s="45" t="s">
@@ -14235,7 +14223,7 @@
       <c r="R262" s="7"/>
       <c r="S262" s="7"/>
     </row>
-    <row r="263" s="7" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" s="7" customFormat="true" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="61" t="n">
         <f aca="false">A262+1</f>
         <v>221</v>
@@ -14296,7 +14284,7 @@
       <c r="I264" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="J264" s="90" t="s">
+      <c r="J264" s="86" t="s">
         <v>132</v>
       </c>
       <c r="K264" s="45" t="s">
@@ -14693,19 +14681,19 @@
       <c r="S275" s="7"/>
     </row>
     <row r="276" s="7" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="91" t="s">
+      <c r="A276" s="87" t="s">
         <v>810</v>
       </c>
-      <c r="B276" s="91"/>
-      <c r="C276" s="91"/>
-      <c r="D276" s="91"/>
-      <c r="E276" s="91"/>
-      <c r="F276" s="91"/>
-      <c r="G276" s="91"/>
-      <c r="H276" s="91"/>
-      <c r="I276" s="91"/>
-      <c r="J276" s="91"/>
-      <c r="K276" s="91"/>
+      <c r="B276" s="87"/>
+      <c r="C276" s="87"/>
+      <c r="D276" s="87"/>
+      <c r="E276" s="87"/>
+      <c r="F276" s="87"/>
+      <c r="G276" s="87"/>
+      <c r="H276" s="87"/>
+      <c r="I276" s="87"/>
+      <c r="J276" s="87"/>
+      <c r="K276" s="87"/>
     </row>
     <row r="277" s="7" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="44" t="n">
@@ -15012,7 +15000,7 @@
       <c r="I285" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="J285" s="92" t="s">
+      <c r="J285" s="88" t="s">
         <v>164</v>
       </c>
       <c r="K285" s="45" t="s">
@@ -15048,7 +15036,7 @@
       <c r="I286" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="J286" s="92"/>
+      <c r="J286" s="88"/>
       <c r="K286" s="45" t="s">
         <v>76</v>
       </c>
@@ -15082,7 +15070,7 @@
       <c r="I287" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="J287" s="82" t="s">
+      <c r="J287" s="78" t="s">
         <v>844</v>
       </c>
       <c r="K287" s="63" t="s">
@@ -15159,16 +15147,16 @@
     </row>
     <row r="290" s="7" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="9"/>
-      <c r="B290" s="93"/>
-      <c r="C290" s="94"/>
-      <c r="D290" s="94"/>
+      <c r="B290" s="89"/>
+      <c r="C290" s="90"/>
+      <c r="D290" s="90"/>
       <c r="E290" s="9"/>
       <c r="F290" s="9"/>
       <c r="G290" s="9"/>
-      <c r="H290" s="95"/>
+      <c r="H290" s="91"/>
       <c r="I290" s="9"/>
-      <c r="J290" s="93"/>
-      <c r="K290" s="93"/>
+      <c r="J290" s="89"/>
+      <c r="K290" s="89"/>
     </row>
     <row r="291" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="12" t="s">
@@ -15214,19 +15202,19 @@
       <c r="S291" s="7"/>
     </row>
     <row r="292" s="7" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="91" t="s">
+      <c r="A292" s="87" t="s">
         <v>852</v>
       </c>
-      <c r="B292" s="91"/>
-      <c r="C292" s="91"/>
-      <c r="D292" s="91"/>
-      <c r="E292" s="91"/>
-      <c r="F292" s="91"/>
-      <c r="G292" s="91"/>
-      <c r="H292" s="91"/>
-      <c r="I292" s="91"/>
-      <c r="J292" s="91"/>
-      <c r="K292" s="91"/>
+      <c r="B292" s="87"/>
+      <c r="C292" s="87"/>
+      <c r="D292" s="87"/>
+      <c r="E292" s="87"/>
+      <c r="F292" s="87"/>
+      <c r="G292" s="87"/>
+      <c r="H292" s="87"/>
+      <c r="I292" s="87"/>
+      <c r="J292" s="87"/>
+      <c r="K292" s="87"/>
     </row>
     <row r="293" s="7" customFormat="true" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="44" t="n">
@@ -15503,7 +15491,7 @@
       <c r="I300" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="J300" s="85" t="s">
+      <c r="J300" s="81" t="s">
         <v>882</v>
       </c>
       <c r="K300" s="45" t="s">
@@ -15539,7 +15527,7 @@
       <c r="I301" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="J301" s="96" t="s">
+      <c r="J301" s="92" t="s">
         <v>886</v>
       </c>
       <c r="K301" s="45" t="s">
@@ -15575,7 +15563,7 @@
       <c r="I302" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="J302" s="96"/>
+      <c r="J302" s="92"/>
       <c r="K302" s="45" t="s">
         <v>76</v>
       </c>
@@ -15643,7 +15631,7 @@
       <c r="I304" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="J304" s="85" t="s">
+      <c r="J304" s="81" t="s">
         <v>896</v>
       </c>
       <c r="K304" s="45" t="s">
@@ -15679,7 +15667,7 @@
       <c r="I305" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="J305" s="96" t="s">
+      <c r="J305" s="92" t="s">
         <v>886</v>
       </c>
       <c r="K305" s="45" t="s">
@@ -15715,23 +15703,23 @@
       <c r="I306" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="J306" s="96"/>
+      <c r="J306" s="92"/>
       <c r="K306" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="307" s="7" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="9"/>
-      <c r="B307" s="93"/>
-      <c r="C307" s="94"/>
-      <c r="D307" s="94"/>
+      <c r="B307" s="89"/>
+      <c r="C307" s="90"/>
+      <c r="D307" s="90"/>
       <c r="E307" s="9"/>
       <c r="F307" s="9"/>
       <c r="G307" s="9"/>
-      <c r="H307" s="95"/>
+      <c r="H307" s="91"/>
       <c r="I307" s="9"/>
-      <c r="J307" s="93"/>
-      <c r="K307" s="93"/>
+      <c r="J307" s="89"/>
+      <c r="K307" s="89"/>
     </row>
     <row r="308" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="12" t="s">
@@ -16809,19 +16797,19 @@
       <c r="S336" s="7"/>
     </row>
     <row r="337" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A337" s="91" t="s">
+      <c r="A337" s="87" t="s">
         <v>969</v>
       </c>
-      <c r="B337" s="91"/>
-      <c r="C337" s="91"/>
-      <c r="D337" s="91"/>
-      <c r="E337" s="91"/>
-      <c r="F337" s="91"/>
-      <c r="G337" s="91"/>
-      <c r="H337" s="91"/>
-      <c r="I337" s="91"/>
-      <c r="J337" s="91"/>
-      <c r="K337" s="91"/>
+      <c r="B337" s="87"/>
+      <c r="C337" s="87"/>
+      <c r="D337" s="87"/>
+      <c r="E337" s="87"/>
+      <c r="F337" s="87"/>
+      <c r="G337" s="87"/>
+      <c r="H337" s="87"/>
+      <c r="I337" s="87"/>
+      <c r="J337" s="87"/>
+      <c r="K337" s="87"/>
       <c r="L337" s="7"/>
       <c r="M337" s="7"/>
       <c r="N337" s="7"/>
@@ -16959,19 +16947,19 @@
       <c r="S340" s="7"/>
     </row>
     <row r="341" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A341" s="91" t="s">
+      <c r="A341" s="87" t="s">
         <v>977</v>
       </c>
-      <c r="B341" s="91"/>
-      <c r="C341" s="91"/>
-      <c r="D341" s="91"/>
-      <c r="E341" s="91"/>
-      <c r="F341" s="91"/>
-      <c r="G341" s="91"/>
-      <c r="H341" s="91"/>
-      <c r="I341" s="91"/>
-      <c r="J341" s="91"/>
-      <c r="K341" s="91"/>
+      <c r="B341" s="87"/>
+      <c r="C341" s="87"/>
+      <c r="D341" s="87"/>
+      <c r="E341" s="87"/>
+      <c r="F341" s="87"/>
+      <c r="G341" s="87"/>
+      <c r="H341" s="87"/>
+      <c r="I341" s="87"/>
+      <c r="J341" s="87"/>
+      <c r="K341" s="87"/>
       <c r="L341" s="7"/>
       <c r="M341" s="7"/>
       <c r="N341" s="7"/>
@@ -17280,15 +17268,15 @@
       <c r="S348" s="7"/>
     </row>
     <row r="349" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A349" s="97"/>
+      <c r="A349" s="93"/>
       <c r="B349" s="7"/>
-      <c r="C349" s="98"/>
-      <c r="D349" s="98"/>
-      <c r="E349" s="97"/>
-      <c r="F349" s="97"/>
-      <c r="G349" s="97"/>
-      <c r="H349" s="99"/>
-      <c r="I349" s="97"/>
+      <c r="C349" s="94"/>
+      <c r="D349" s="94"/>
+      <c r="E349" s="93"/>
+      <c r="F349" s="93"/>
+      <c r="G349" s="93"/>
+      <c r="H349" s="95"/>
+      <c r="I349" s="93"/>
       <c r="J349" s="7"/>
       <c r="K349" s="7"/>
       <c r="L349" s="7"/>
@@ -17301,15 +17289,15 @@
       <c r="S349" s="7"/>
     </row>
     <row r="350" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A350" s="97"/>
+      <c r="A350" s="93"/>
       <c r="B350" s="7"/>
-      <c r="C350" s="98"/>
-      <c r="D350" s="98"/>
-      <c r="E350" s="97"/>
-      <c r="F350" s="97"/>
-      <c r="G350" s="97"/>
-      <c r="H350" s="99"/>
-      <c r="I350" s="97"/>
+      <c r="C350" s="94"/>
+      <c r="D350" s="94"/>
+      <c r="E350" s="93"/>
+      <c r="F350" s="93"/>
+      <c r="G350" s="93"/>
+      <c r="H350" s="95"/>
+      <c r="I350" s="93"/>
       <c r="J350" s="7"/>
       <c r="K350" s="7"/>
       <c r="L350" s="7"/>
@@ -17322,15 +17310,15 @@
       <c r="S350" s="7"/>
     </row>
     <row r="351" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A351" s="97"/>
+      <c r="A351" s="93"/>
       <c r="B351" s="7"/>
-      <c r="C351" s="98"/>
-      <c r="D351" s="98"/>
-      <c r="E351" s="97"/>
-      <c r="F351" s="97"/>
-      <c r="G351" s="97"/>
-      <c r="H351" s="99"/>
-      <c r="I351" s="97"/>
+      <c r="C351" s="94"/>
+      <c r="D351" s="94"/>
+      <c r="E351" s="93"/>
+      <c r="F351" s="93"/>
+      <c r="G351" s="93"/>
+      <c r="H351" s="95"/>
+      <c r="I351" s="93"/>
       <c r="J351" s="7"/>
       <c r="K351" s="7"/>
       <c r="L351" s="7"/>
@@ -17343,15 +17331,15 @@
       <c r="S351" s="7"/>
     </row>
     <row r="352" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A352" s="97"/>
+      <c r="A352" s="93"/>
       <c r="B352" s="7"/>
-      <c r="C352" s="98"/>
-      <c r="D352" s="98"/>
-      <c r="E352" s="97"/>
-      <c r="F352" s="97"/>
-      <c r="G352" s="97"/>
-      <c r="H352" s="99"/>
-      <c r="I352" s="97"/>
+      <c r="C352" s="94"/>
+      <c r="D352" s="94"/>
+      <c r="E352" s="93"/>
+      <c r="F352" s="93"/>
+      <c r="G352" s="93"/>
+      <c r="H352" s="95"/>
+      <c r="I352" s="93"/>
       <c r="J352" s="7"/>
       <c r="K352" s="7"/>
       <c r="L352" s="7"/>
@@ -17364,15 +17352,15 @@
       <c r="S352" s="7"/>
     </row>
     <row r="353" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A353" s="97"/>
+      <c r="A353" s="93"/>
       <c r="B353" s="7"/>
-      <c r="C353" s="98"/>
-      <c r="D353" s="98"/>
-      <c r="E353" s="97"/>
-      <c r="F353" s="97"/>
-      <c r="G353" s="97"/>
-      <c r="H353" s="99"/>
-      <c r="I353" s="97"/>
+      <c r="C353" s="94"/>
+      <c r="D353" s="94"/>
+      <c r="E353" s="93"/>
+      <c r="F353" s="93"/>
+      <c r="G353" s="93"/>
+      <c r="H353" s="95"/>
+      <c r="I353" s="93"/>
       <c r="J353" s="7"/>
       <c r="K353" s="7"/>
       <c r="L353" s="7"/>
@@ -17385,15 +17373,15 @@
       <c r="S353" s="7"/>
     </row>
     <row r="354" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A354" s="97"/>
+      <c r="A354" s="93"/>
       <c r="B354" s="7"/>
-      <c r="C354" s="98"/>
-      <c r="D354" s="98"/>
-      <c r="E354" s="97"/>
-      <c r="F354" s="97"/>
-      <c r="G354" s="97"/>
-      <c r="H354" s="99"/>
-      <c r="I354" s="97"/>
+      <c r="C354" s="94"/>
+      <c r="D354" s="94"/>
+      <c r="E354" s="93"/>
+      <c r="F354" s="93"/>
+      <c r="G354" s="93"/>
+      <c r="H354" s="95"/>
+      <c r="I354" s="93"/>
       <c r="J354" s="7"/>
       <c r="K354" s="7"/>
       <c r="L354" s="7"/>
@@ -17406,15 +17394,15 @@
       <c r="S354" s="7"/>
     </row>
     <row r="355" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A355" s="97"/>
+      <c r="A355" s="93"/>
       <c r="B355" s="7"/>
-      <c r="C355" s="98"/>
-      <c r="D355" s="98"/>
-      <c r="E355" s="97"/>
-      <c r="F355" s="97"/>
-      <c r="G355" s="97"/>
-      <c r="H355" s="99"/>
-      <c r="I355" s="97"/>
+      <c r="C355" s="94"/>
+      <c r="D355" s="94"/>
+      <c r="E355" s="93"/>
+      <c r="F355" s="93"/>
+      <c r="G355" s="93"/>
+      <c r="H355" s="95"/>
+      <c r="I355" s="93"/>
       <c r="J355" s="7"/>
       <c r="K355" s="7"/>
       <c r="L355" s="7"/>
@@ -17427,15 +17415,15 @@
       <c r="S355" s="7"/>
     </row>
     <row r="356" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A356" s="97"/>
+      <c r="A356" s="93"/>
       <c r="B356" s="7"/>
-      <c r="C356" s="98"/>
-      <c r="D356" s="98"/>
-      <c r="E356" s="97"/>
-      <c r="F356" s="97"/>
-      <c r="G356" s="97"/>
-      <c r="H356" s="99"/>
-      <c r="I356" s="97"/>
+      <c r="C356" s="94"/>
+      <c r="D356" s="94"/>
+      <c r="E356" s="93"/>
+      <c r="F356" s="93"/>
+      <c r="G356" s="93"/>
+      <c r="H356" s="95"/>
+      <c r="I356" s="93"/>
       <c r="J356" s="7"/>
       <c r="K356" s="7"/>
       <c r="L356" s="7"/>
@@ -17448,15 +17436,15 @@
       <c r="S356" s="7"/>
     </row>
     <row r="357" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A357" s="97"/>
+      <c r="A357" s="93"/>
       <c r="B357" s="7"/>
-      <c r="C357" s="98"/>
-      <c r="D357" s="98"/>
-      <c r="E357" s="97"/>
-      <c r="F357" s="97"/>
-      <c r="G357" s="97"/>
-      <c r="H357" s="99"/>
-      <c r="I357" s="97"/>
+      <c r="C357" s="94"/>
+      <c r="D357" s="94"/>
+      <c r="E357" s="93"/>
+      <c r="F357" s="93"/>
+      <c r="G357" s="93"/>
+      <c r="H357" s="95"/>
+      <c r="I357" s="93"/>
       <c r="J357" s="7"/>
       <c r="K357" s="7"/>
       <c r="L357" s="7"/>
@@ -17469,15 +17457,15 @@
       <c r="S357" s="7"/>
     </row>
     <row r="358" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A358" s="97"/>
+      <c r="A358" s="93"/>
       <c r="B358" s="7"/>
-      <c r="C358" s="98"/>
-      <c r="D358" s="98"/>
-      <c r="E358" s="97"/>
-      <c r="F358" s="97"/>
-      <c r="G358" s="97"/>
-      <c r="H358" s="99"/>
-      <c r="I358" s="97"/>
+      <c r="C358" s="94"/>
+      <c r="D358" s="94"/>
+      <c r="E358" s="93"/>
+      <c r="F358" s="93"/>
+      <c r="G358" s="93"/>
+      <c r="H358" s="95"/>
+      <c r="I358" s="93"/>
       <c r="J358" s="7"/>
       <c r="K358" s="7"/>
       <c r="L358" s="7"/>
@@ -17490,15 +17478,15 @@
       <c r="S358" s="7"/>
     </row>
     <row r="359" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A359" s="97"/>
+      <c r="A359" s="93"/>
       <c r="B359" s="7"/>
-      <c r="C359" s="98"/>
-      <c r="D359" s="98"/>
-      <c r="E359" s="97"/>
-      <c r="F359" s="97"/>
-      <c r="G359" s="97"/>
-      <c r="H359" s="99"/>
-      <c r="I359" s="97"/>
+      <c r="C359" s="94"/>
+      <c r="D359" s="94"/>
+      <c r="E359" s="93"/>
+      <c r="F359" s="93"/>
+      <c r="G359" s="93"/>
+      <c r="H359" s="95"/>
+      <c r="I359" s="93"/>
       <c r="J359" s="7"/>
       <c r="K359" s="7"/>
       <c r="L359" s="7"/>
@@ -17511,15 +17499,15 @@
       <c r="S359" s="7"/>
     </row>
     <row r="360" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A360" s="97"/>
+      <c r="A360" s="93"/>
       <c r="B360" s="7"/>
-      <c r="C360" s="98"/>
-      <c r="D360" s="98"/>
-      <c r="E360" s="97"/>
-      <c r="F360" s="97"/>
-      <c r="G360" s="97"/>
-      <c r="H360" s="99"/>
-      <c r="I360" s="97"/>
+      <c r="C360" s="94"/>
+      <c r="D360" s="94"/>
+      <c r="E360" s="93"/>
+      <c r="F360" s="93"/>
+      <c r="G360" s="93"/>
+      <c r="H360" s="95"/>
+      <c r="I360" s="93"/>
       <c r="J360" s="7"/>
       <c r="K360" s="7"/>
       <c r="L360" s="7"/>
@@ -17532,15 +17520,15 @@
       <c r="S360" s="7"/>
     </row>
     <row r="361" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A361" s="97"/>
+      <c r="A361" s="93"/>
       <c r="B361" s="7"/>
-      <c r="C361" s="98"/>
-      <c r="D361" s="98"/>
-      <c r="E361" s="97"/>
-      <c r="F361" s="97"/>
-      <c r="G361" s="97"/>
-      <c r="H361" s="99"/>
-      <c r="I361" s="97"/>
+      <c r="C361" s="94"/>
+      <c r="D361" s="94"/>
+      <c r="E361" s="93"/>
+      <c r="F361" s="93"/>
+      <c r="G361" s="93"/>
+      <c r="H361" s="95"/>
+      <c r="I361" s="93"/>
       <c r="J361" s="7"/>
       <c r="K361" s="7"/>
       <c r="L361" s="7"/>
@@ -17553,15 +17541,15 @@
       <c r="S361" s="7"/>
     </row>
     <row r="362" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A362" s="97"/>
+      <c r="A362" s="93"/>
       <c r="B362" s="7"/>
-      <c r="C362" s="98"/>
-      <c r="D362" s="98"/>
-      <c r="E362" s="97"/>
-      <c r="F362" s="97"/>
-      <c r="G362" s="97"/>
-      <c r="H362" s="99"/>
-      <c r="I362" s="97"/>
+      <c r="C362" s="94"/>
+      <c r="D362" s="94"/>
+      <c r="E362" s="93"/>
+      <c r="F362" s="93"/>
+      <c r="G362" s="93"/>
+      <c r="H362" s="95"/>
+      <c r="I362" s="93"/>
       <c r="J362" s="7"/>
       <c r="K362" s="7"/>
       <c r="L362" s="7"/>
@@ -17626,7 +17614,7 @@
     <hyperlink ref="J240" r:id="rId4" display="Consulte nosso artigo para mais informações."/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -17636,7 +17624,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -17648,11 +17636,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="40.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="36.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="7.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="96" width="6.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="96" width="17.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="96" width="40.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="96" width="36.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="96" width="7.49"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17699,28 +17687,28 @@
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="100"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="97"/>
+      <c r="J5" s="97"/>
+      <c r="K5" s="97"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="12" t="s">
@@ -17758,19 +17746,19 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="98" t="s">
         <v>1003</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="98"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="98"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="18" t="n">
@@ -17779,7 +17767,7 @@
       <c r="B8" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="102" t="s">
+      <c r="C8" s="99" t="s">
         <v>1004</v>
       </c>
       <c r="D8" s="20" t="s">
@@ -17815,7 +17803,7 @@
       <c r="B9" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="103" t="s">
+      <c r="C9" s="100" t="s">
         <v>1006</v>
       </c>
       <c r="D9" s="25" t="s">
@@ -17851,7 +17839,7 @@
       <c r="B10" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="102" t="s">
+      <c r="C10" s="99" t="s">
         <v>1008</v>
       </c>
       <c r="D10" s="20" t="s">
@@ -17887,10 +17875,10 @@
       <c r="B11" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="104" t="s">
+      <c r="C11" s="101" t="s">
         <v>1010</v>
       </c>
-      <c r="D11" s="105" t="s">
+      <c r="D11" s="102" t="s">
         <v>1011</v>
       </c>
       <c r="E11" s="24" t="s">
@@ -17899,7 +17887,7 @@
       <c r="F11" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="106" t="s">
+      <c r="G11" s="103" t="s">
         <v>997</v>
       </c>
       <c r="H11" s="21" t="s">
@@ -17908,7 +17896,7 @@
       <c r="I11" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="105" t="s">
+      <c r="J11" s="102" t="s">
         <v>1011</v>
       </c>
       <c r="K11" s="19" t="s">
@@ -17923,10 +17911,10 @@
       <c r="B12" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="104" t="s">
+      <c r="C12" s="101" t="s">
         <v>1012</v>
       </c>
-      <c r="D12" s="105" t="s">
+      <c r="D12" s="102" t="s">
         <v>1013</v>
       </c>
       <c r="E12" s="24" t="s">
@@ -17935,7 +17923,7 @@
       <c r="F12" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="106" t="s">
+      <c r="G12" s="103" t="s">
         <v>711</v>
       </c>
       <c r="H12" s="21" t="s">
@@ -17944,7 +17932,7 @@
       <c r="I12" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="105" t="s">
+      <c r="J12" s="102" t="s">
         <v>1013</v>
       </c>
       <c r="K12" s="19" t="s">
@@ -17959,10 +17947,10 @@
       <c r="B13" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="104" t="s">
+      <c r="C13" s="101" t="s">
         <v>1014</v>
       </c>
-      <c r="D13" s="105" t="s">
+      <c r="D13" s="102" t="s">
         <v>1015</v>
       </c>
       <c r="E13" s="24" t="s">
@@ -17971,7 +17959,7 @@
       <c r="F13" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="106" t="s">
+      <c r="G13" s="103" t="s">
         <v>267</v>
       </c>
       <c r="H13" s="21" t="s">
@@ -17980,7 +17968,7 @@
       <c r="I13" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="105" t="s">
+      <c r="J13" s="102" t="s">
         <v>1015</v>
       </c>
       <c r="K13" s="19" t="s">
@@ -17995,10 +17983,10 @@
       <c r="B14" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="104" t="s">
+      <c r="C14" s="101" t="s">
         <v>1016</v>
       </c>
-      <c r="D14" s="105" t="s">
+      <c r="D14" s="102" t="s">
         <v>1017</v>
       </c>
       <c r="E14" s="24" t="s">
@@ -18007,7 +17995,7 @@
       <c r="F14" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="106" t="s">
+      <c r="G14" s="103" t="s">
         <v>61</v>
       </c>
       <c r="H14" s="21" t="s">
@@ -18016,7 +18004,7 @@
       <c r="I14" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J14" s="105" t="s">
+      <c r="J14" s="102" t="s">
         <v>1017</v>
       </c>
       <c r="K14" s="19" t="s">
@@ -18031,10 +18019,10 @@
       <c r="B15" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="104" t="s">
+      <c r="C15" s="101" t="s">
         <v>1018</v>
       </c>
-      <c r="D15" s="105" t="s">
+      <c r="D15" s="102" t="s">
         <v>1019</v>
       </c>
       <c r="E15" s="24" t="s">
@@ -18043,7 +18031,7 @@
       <c r="F15" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="106" t="s">
+      <c r="G15" s="103" t="s">
         <v>375</v>
       </c>
       <c r="H15" s="21" t="s">
@@ -18052,7 +18040,7 @@
       <c r="I15" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="105" t="s">
+      <c r="J15" s="102" t="s">
         <v>1020</v>
       </c>
       <c r="K15" s="19" t="s">
@@ -18067,10 +18055,10 @@
       <c r="B16" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="104" t="s">
+      <c r="C16" s="101" t="s">
         <v>1021</v>
       </c>
-      <c r="D16" s="105" t="s">
+      <c r="D16" s="102" t="s">
         <v>1022</v>
       </c>
       <c r="E16" s="24" t="s">
@@ -18079,7 +18067,7 @@
       <c r="F16" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="106" t="s">
+      <c r="G16" s="103" t="s">
         <v>1023</v>
       </c>
       <c r="H16" s="21" t="s">
@@ -18088,7 +18076,7 @@
       <c r="I16" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J16" s="105" t="s">
+      <c r="J16" s="102" t="s">
         <v>1024</v>
       </c>
       <c r="K16" s="19" t="s">
@@ -18103,10 +18091,10 @@
       <c r="B17" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="104" t="s">
+      <c r="C17" s="101" t="s">
         <v>1025</v>
       </c>
-      <c r="D17" s="105" t="s">
+      <c r="D17" s="102" t="s">
         <v>1026</v>
       </c>
       <c r="E17" s="24" t="s">
@@ -18115,7 +18103,7 @@
       <c r="F17" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="106" t="s">
+      <c r="G17" s="103" t="s">
         <v>1027</v>
       </c>
       <c r="H17" s="21" t="s">
@@ -18124,7 +18112,7 @@
       <c r="I17" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J17" s="105" t="s">
+      <c r="J17" s="102" t="s">
         <v>1028</v>
       </c>
       <c r="K17" s="19" t="s">
@@ -18139,10 +18127,10 @@
       <c r="B18" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="C18" s="104" t="s">
+      <c r="C18" s="101" t="s">
         <v>1029</v>
       </c>
-      <c r="D18" s="105" t="s">
+      <c r="D18" s="102" t="s">
         <v>1030</v>
       </c>
       <c r="E18" s="24" t="s">
@@ -18151,7 +18139,7 @@
       <c r="F18" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="106" t="s">
+      <c r="G18" s="103" t="s">
         <v>1027</v>
       </c>
       <c r="H18" s="21" t="s">
@@ -18160,7 +18148,7 @@
       <c r="I18" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="105" t="s">
+      <c r="J18" s="102" t="s">
         <v>1031</v>
       </c>
       <c r="K18" s="19" t="s">
@@ -18175,10 +18163,10 @@
       <c r="B19" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="C19" s="104" t="s">
+      <c r="C19" s="101" t="s">
         <v>1032</v>
       </c>
-      <c r="D19" s="105" t="s">
+      <c r="D19" s="102" t="s">
         <v>1033</v>
       </c>
       <c r="E19" s="24" t="s">
@@ -18187,7 +18175,7 @@
       <c r="F19" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="106" t="s">
+      <c r="G19" s="103" t="s">
         <v>1027</v>
       </c>
       <c r="H19" s="21" t="s">
@@ -18196,7 +18184,7 @@
       <c r="I19" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J19" s="105" t="s">
+      <c r="J19" s="102" t="s">
         <v>1034</v>
       </c>
       <c r="K19" s="19" t="s">
@@ -18211,10 +18199,10 @@
       <c r="B20" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="C20" s="104" t="s">
+      <c r="C20" s="101" t="s">
         <v>1035</v>
       </c>
-      <c r="D20" s="105" t="s">
+      <c r="D20" s="102" t="s">
         <v>1036</v>
       </c>
       <c r="E20" s="24" t="s">
@@ -18223,7 +18211,7 @@
       <c r="F20" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G20" s="106" t="s">
+      <c r="G20" s="103" t="s">
         <v>1027</v>
       </c>
       <c r="H20" s="21" t="s">
@@ -18232,7 +18220,7 @@
       <c r="I20" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J20" s="105" t="s">
+      <c r="J20" s="102" t="s">
         <v>1036</v>
       </c>
       <c r="K20" s="19" t="s">
@@ -18247,10 +18235,10 @@
       <c r="B21" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="104" t="s">
+      <c r="C21" s="101" t="s">
         <v>1037</v>
       </c>
-      <c r="D21" s="105" t="s">
+      <c r="D21" s="102" t="s">
         <v>1038</v>
       </c>
       <c r="E21" s="24" t="s">
@@ -18259,7 +18247,7 @@
       <c r="F21" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="106" t="s">
+      <c r="G21" s="103" t="s">
         <v>1027</v>
       </c>
       <c r="H21" s="21" t="s">
@@ -18268,7 +18256,7 @@
       <c r="I21" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J21" s="105" t="s">
+      <c r="J21" s="102" t="s">
         <v>1038</v>
       </c>
       <c r="K21" s="19" t="s">
@@ -18283,10 +18271,10 @@
       <c r="B22" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="C22" s="104" t="s">
+      <c r="C22" s="101" t="s">
         <v>1039</v>
       </c>
-      <c r="D22" s="105" t="s">
+      <c r="D22" s="102" t="s">
         <v>1040</v>
       </c>
       <c r="E22" s="24" t="s">
@@ -18295,7 +18283,7 @@
       <c r="F22" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G22" s="106" t="s">
+      <c r="G22" s="103" t="s">
         <v>1041</v>
       </c>
       <c r="H22" s="21" t="s">
@@ -18304,7 +18292,7 @@
       <c r="I22" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J22" s="105" t="s">
+      <c r="J22" s="102" t="s">
         <v>1042</v>
       </c>
       <c r="K22" s="19" t="s">
@@ -18316,13 +18304,13 @@
         <f aca="false">A22+1</f>
         <v>16</v>
       </c>
-      <c r="B23" s="107" t="s">
+      <c r="B23" s="104" t="s">
         <v>125</v>
       </c>
-      <c r="C23" s="104" t="s">
+      <c r="C23" s="101" t="s">
         <v>1043</v>
       </c>
-      <c r="D23" s="105" t="s">
+      <c r="D23" s="102" t="s">
         <v>1044</v>
       </c>
       <c r="E23" s="18" t="s">
@@ -18331,7 +18319,7 @@
       <c r="F23" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G23" s="106" t="s">
+      <c r="G23" s="103" t="s">
         <v>17</v>
       </c>
       <c r="H23" s="21" t="s">
@@ -18340,7 +18328,7 @@
       <c r="I23" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J23" s="105" t="s">
+      <c r="J23" s="102" t="s">
         <v>1044</v>
       </c>
       <c r="K23" s="19" t="s">
@@ -18352,22 +18340,22 @@
         <f aca="false">A23+1</f>
         <v>17</v>
       </c>
-      <c r="B24" s="107" t="s">
+      <c r="B24" s="104" t="s">
         <v>128</v>
       </c>
-      <c r="C24" s="104" t="s">
+      <c r="C24" s="101" t="s">
         <v>1045</v>
       </c>
-      <c r="D24" s="105" t="s">
+      <c r="D24" s="102" t="s">
         <v>1046</v>
       </c>
       <c r="E24" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="106" t="s">
+      <c r="F24" s="103" t="s">
         <v>125</v>
       </c>
-      <c r="G24" s="106" t="s">
+      <c r="G24" s="103" t="s">
         <v>56</v>
       </c>
       <c r="H24" s="21" t="s">
@@ -18376,7 +18364,7 @@
       <c r="I24" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J24" s="105" t="s">
+      <c r="J24" s="102" t="s">
         <v>1046</v>
       </c>
       <c r="K24" s="19" t="s">
@@ -18388,22 +18376,22 @@
         <f aca="false">A24+1</f>
         <v>18</v>
       </c>
-      <c r="B25" s="107" t="s">
+      <c r="B25" s="104" t="s">
         <v>133</v>
       </c>
-      <c r="C25" s="104" t="s">
+      <c r="C25" s="101" t="s">
         <v>1047</v>
       </c>
-      <c r="D25" s="105" t="s">
+      <c r="D25" s="102" t="s">
         <v>1048</v>
       </c>
       <c r="E25" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="106" t="s">
+      <c r="F25" s="103" t="s">
         <v>125</v>
       </c>
-      <c r="G25" s="106" t="s">
+      <c r="G25" s="103" t="s">
         <v>1049</v>
       </c>
       <c r="H25" s="21" t="s">
@@ -18412,7 +18400,7 @@
       <c r="I25" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J25" s="105" t="s">
+      <c r="J25" s="102" t="s">
         <v>1048</v>
       </c>
       <c r="K25" s="19" t="s">
@@ -18424,13 +18412,13 @@
         <f aca="false">A25+1</f>
         <v>19</v>
       </c>
-      <c r="B26" s="108" t="s">
+      <c r="B26" s="105" t="s">
         <v>143</v>
       </c>
-      <c r="C26" s="109" t="s">
+      <c r="C26" s="106" t="s">
         <v>1050</v>
       </c>
-      <c r="D26" s="110" t="s">
+      <c r="D26" s="107" t="s">
         <v>1051</v>
       </c>
       <c r="E26" s="29" t="s">
@@ -18439,7 +18427,7 @@
       <c r="F26" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="G26" s="111" t="s">
+      <c r="G26" s="108" t="s">
         <v>17</v>
       </c>
       <c r="H26" s="32" t="s">
@@ -18448,7 +18436,7 @@
       <c r="I26" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="J26" s="110" t="s">
+      <c r="J26" s="107" t="s">
         <v>1051</v>
       </c>
       <c r="K26" s="30" t="s">
@@ -18460,31 +18448,31 @@
         <f aca="false">A26+1</f>
         <v>20</v>
       </c>
-      <c r="B27" s="112" t="s">
+      <c r="B27" s="109" t="s">
         <v>146</v>
       </c>
-      <c r="C27" s="112" t="s">
+      <c r="C27" s="109" t="s">
         <v>1052</v>
       </c>
-      <c r="D27" s="113" t="s">
+      <c r="D27" s="110" t="s">
         <v>1053</v>
       </c>
-      <c r="E27" s="114" t="s">
-        <v>23</v>
-      </c>
-      <c r="F27" s="111" t="s">
+      <c r="E27" s="111" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="108" t="s">
         <v>143</v>
       </c>
-      <c r="G27" s="114" t="s">
+      <c r="G27" s="111" t="s">
         <v>1054</v>
       </c>
-      <c r="H27" s="114" t="s">
+      <c r="H27" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="I27" s="114" t="s">
+      <c r="I27" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="J27" s="113" t="s">
+      <c r="J27" s="110" t="s">
         <v>1055</v>
       </c>
       <c r="K27" s="30" t="s">
@@ -18496,31 +18484,31 @@
         <f aca="false">A27+1</f>
         <v>21</v>
       </c>
-      <c r="B28" s="112" t="s">
+      <c r="B28" s="109" t="s">
         <v>150</v>
       </c>
-      <c r="C28" s="112" t="s">
+      <c r="C28" s="109" t="s">
         <v>1056</v>
       </c>
-      <c r="D28" s="113" t="s">
+      <c r="D28" s="110" t="s">
         <v>1057</v>
       </c>
-      <c r="E28" s="114" t="s">
-        <v>23</v>
-      </c>
-      <c r="F28" s="111" t="s">
+      <c r="E28" s="111" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="108" t="s">
         <v>143</v>
       </c>
-      <c r="G28" s="114" t="s">
+      <c r="G28" s="111" t="s">
         <v>1054</v>
       </c>
-      <c r="H28" s="114" t="s">
+      <c r="H28" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="I28" s="114" t="s">
+      <c r="I28" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="J28" s="113" t="s">
+      <c r="J28" s="110" t="s">
         <v>1058</v>
       </c>
       <c r="K28" s="30" t="s">
@@ -18537,7 +18525,7 @@
     <mergeCell ref="A7:K7"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>

--- a/Emissão/Layouts/LAYOUT 3.0 MDFe.xlsx
+++ b/Emissão/Layouts/LAYOUT 3.0 MDFe.xlsx
@@ -21,6 +21,30 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author> </author>
+  </authors>
+  <commentList>
+    <comment ref="J245" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">A cahve de acesso do documento (NF-e ou CT-e) é obrigatorio</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3470,7 +3494,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="113">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3819,6 +3843,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3999,8 +4027,8 @@
   </sheetPr>
   <dimension ref="A1:S363"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A262" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D267" activeCellId="0" sqref="D267"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J234" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J244" activeCellId="0" sqref="J244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13446,38 +13474,38 @@
       <c r="S244" s="7"/>
     </row>
     <row r="245" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="39" t="n">
+      <c r="A245" s="87" t="n">
         <f aca="false">A244+1</f>
         <v>203</v>
       </c>
-      <c r="B245" s="40" t="s">
+      <c r="B245" s="68" t="s">
         <v>708</v>
       </c>
-      <c r="C245" s="41" t="s">
+      <c r="C245" s="69" t="s">
         <v>709</v>
       </c>
-      <c r="D245" s="41" t="s">
+      <c r="D245" s="69" t="s">
         <v>710</v>
       </c>
-      <c r="E245" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="F245" s="39" t="s">
+      <c r="E245" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="F245" s="87" t="s">
         <v>701</v>
       </c>
-      <c r="G245" s="39" t="s">
+      <c r="G245" s="87" t="s">
         <v>711</v>
       </c>
-      <c r="H245" s="42" t="s">
+      <c r="H245" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="I245" s="39" t="s">
+      <c r="I245" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="J245" s="41" t="s">
+      <c r="J245" s="69" t="s">
         <v>712</v>
       </c>
-      <c r="K245" s="40" t="s">
+      <c r="K245" s="68" t="s">
         <v>20</v>
       </c>
       <c r="L245" s="7"/>
@@ -14681,19 +14709,19 @@
       <c r="S275" s="7"/>
     </row>
     <row r="276" s="7" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="87" t="s">
+      <c r="A276" s="88" t="s">
         <v>810</v>
       </c>
-      <c r="B276" s="87"/>
-      <c r="C276" s="87"/>
-      <c r="D276" s="87"/>
-      <c r="E276" s="87"/>
-      <c r="F276" s="87"/>
-      <c r="G276" s="87"/>
-      <c r="H276" s="87"/>
-      <c r="I276" s="87"/>
-      <c r="J276" s="87"/>
-      <c r="K276" s="87"/>
+      <c r="B276" s="88"/>
+      <c r="C276" s="88"/>
+      <c r="D276" s="88"/>
+      <c r="E276" s="88"/>
+      <c r="F276" s="88"/>
+      <c r="G276" s="88"/>
+      <c r="H276" s="88"/>
+      <c r="I276" s="88"/>
+      <c r="J276" s="88"/>
+      <c r="K276" s="88"/>
     </row>
     <row r="277" s="7" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="44" t="n">
@@ -15000,7 +15028,7 @@
       <c r="I285" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="J285" s="88" t="s">
+      <c r="J285" s="89" t="s">
         <v>164</v>
       </c>
       <c r="K285" s="45" t="s">
@@ -15036,7 +15064,7 @@
       <c r="I286" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="J286" s="88"/>
+      <c r="J286" s="89"/>
       <c r="K286" s="45" t="s">
         <v>76</v>
       </c>
@@ -15147,16 +15175,16 @@
     </row>
     <row r="290" s="7" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="9"/>
-      <c r="B290" s="89"/>
-      <c r="C290" s="90"/>
-      <c r="D290" s="90"/>
+      <c r="B290" s="90"/>
+      <c r="C290" s="91"/>
+      <c r="D290" s="91"/>
       <c r="E290" s="9"/>
       <c r="F290" s="9"/>
       <c r="G290" s="9"/>
-      <c r="H290" s="91"/>
+      <c r="H290" s="92"/>
       <c r="I290" s="9"/>
-      <c r="J290" s="89"/>
-      <c r="K290" s="89"/>
+      <c r="J290" s="90"/>
+      <c r="K290" s="90"/>
     </row>
     <row r="291" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="12" t="s">
@@ -15202,19 +15230,19 @@
       <c r="S291" s="7"/>
     </row>
     <row r="292" s="7" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="87" t="s">
+      <c r="A292" s="88" t="s">
         <v>852</v>
       </c>
-      <c r="B292" s="87"/>
-      <c r="C292" s="87"/>
-      <c r="D292" s="87"/>
-      <c r="E292" s="87"/>
-      <c r="F292" s="87"/>
-      <c r="G292" s="87"/>
-      <c r="H292" s="87"/>
-      <c r="I292" s="87"/>
-      <c r="J292" s="87"/>
-      <c r="K292" s="87"/>
+      <c r="B292" s="88"/>
+      <c r="C292" s="88"/>
+      <c r="D292" s="88"/>
+      <c r="E292" s="88"/>
+      <c r="F292" s="88"/>
+      <c r="G292" s="88"/>
+      <c r="H292" s="88"/>
+      <c r="I292" s="88"/>
+      <c r="J292" s="88"/>
+      <c r="K292" s="88"/>
     </row>
     <row r="293" s="7" customFormat="true" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="44" t="n">
@@ -15527,7 +15555,7 @@
       <c r="I301" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="J301" s="92" t="s">
+      <c r="J301" s="93" t="s">
         <v>886</v>
       </c>
       <c r="K301" s="45" t="s">
@@ -15563,7 +15591,7 @@
       <c r="I302" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="J302" s="92"/>
+      <c r="J302" s="93"/>
       <c r="K302" s="45" t="s">
         <v>76</v>
       </c>
@@ -15667,7 +15695,7 @@
       <c r="I305" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="J305" s="92" t="s">
+      <c r="J305" s="93" t="s">
         <v>886</v>
       </c>
       <c r="K305" s="45" t="s">
@@ -15703,23 +15731,23 @@
       <c r="I306" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="J306" s="92"/>
+      <c r="J306" s="93"/>
       <c r="K306" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="307" s="7" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="9"/>
-      <c r="B307" s="89"/>
-      <c r="C307" s="90"/>
-      <c r="D307" s="90"/>
+      <c r="B307" s="90"/>
+      <c r="C307" s="91"/>
+      <c r="D307" s="91"/>
       <c r="E307" s="9"/>
       <c r="F307" s="9"/>
       <c r="G307" s="9"/>
-      <c r="H307" s="91"/>
+      <c r="H307" s="92"/>
       <c r="I307" s="9"/>
-      <c r="J307" s="89"/>
-      <c r="K307" s="89"/>
+      <c r="J307" s="90"/>
+      <c r="K307" s="90"/>
     </row>
     <row r="308" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="12" t="s">
@@ -16797,19 +16825,19 @@
       <c r="S336" s="7"/>
     </row>
     <row r="337" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A337" s="87" t="s">
+      <c r="A337" s="88" t="s">
         <v>969</v>
       </c>
-      <c r="B337" s="87"/>
-      <c r="C337" s="87"/>
-      <c r="D337" s="87"/>
-      <c r="E337" s="87"/>
-      <c r="F337" s="87"/>
-      <c r="G337" s="87"/>
-      <c r="H337" s="87"/>
-      <c r="I337" s="87"/>
-      <c r="J337" s="87"/>
-      <c r="K337" s="87"/>
+      <c r="B337" s="88"/>
+      <c r="C337" s="88"/>
+      <c r="D337" s="88"/>
+      <c r="E337" s="88"/>
+      <c r="F337" s="88"/>
+      <c r="G337" s="88"/>
+      <c r="H337" s="88"/>
+      <c r="I337" s="88"/>
+      <c r="J337" s="88"/>
+      <c r="K337" s="88"/>
       <c r="L337" s="7"/>
       <c r="M337" s="7"/>
       <c r="N337" s="7"/>
@@ -16947,19 +16975,19 @@
       <c r="S340" s="7"/>
     </row>
     <row r="341" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A341" s="87" t="s">
+      <c r="A341" s="88" t="s">
         <v>977</v>
       </c>
-      <c r="B341" s="87"/>
-      <c r="C341" s="87"/>
-      <c r="D341" s="87"/>
-      <c r="E341" s="87"/>
-      <c r="F341" s="87"/>
-      <c r="G341" s="87"/>
-      <c r="H341" s="87"/>
-      <c r="I341" s="87"/>
-      <c r="J341" s="87"/>
-      <c r="K341" s="87"/>
+      <c r="B341" s="88"/>
+      <c r="C341" s="88"/>
+      <c r="D341" s="88"/>
+      <c r="E341" s="88"/>
+      <c r="F341" s="88"/>
+      <c r="G341" s="88"/>
+      <c r="H341" s="88"/>
+      <c r="I341" s="88"/>
+      <c r="J341" s="88"/>
+      <c r="K341" s="88"/>
       <c r="L341" s="7"/>
       <c r="M341" s="7"/>
       <c r="N341" s="7"/>
@@ -17268,15 +17296,15 @@
       <c r="S348" s="7"/>
     </row>
     <row r="349" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A349" s="93"/>
+      <c r="A349" s="94"/>
       <c r="B349" s="7"/>
-      <c r="C349" s="94"/>
-      <c r="D349" s="94"/>
-      <c r="E349" s="93"/>
-      <c r="F349" s="93"/>
-      <c r="G349" s="93"/>
-      <c r="H349" s="95"/>
-      <c r="I349" s="93"/>
+      <c r="C349" s="95"/>
+      <c r="D349" s="95"/>
+      <c r="E349" s="94"/>
+      <c r="F349" s="94"/>
+      <c r="G349" s="94"/>
+      <c r="H349" s="96"/>
+      <c r="I349" s="94"/>
       <c r="J349" s="7"/>
       <c r="K349" s="7"/>
       <c r="L349" s="7"/>
@@ -17289,15 +17317,15 @@
       <c r="S349" s="7"/>
     </row>
     <row r="350" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A350" s="93"/>
+      <c r="A350" s="94"/>
       <c r="B350" s="7"/>
-      <c r="C350" s="94"/>
-      <c r="D350" s="94"/>
-      <c r="E350" s="93"/>
-      <c r="F350" s="93"/>
-      <c r="G350" s="93"/>
-      <c r="H350" s="95"/>
-      <c r="I350" s="93"/>
+      <c r="C350" s="95"/>
+      <c r="D350" s="95"/>
+      <c r="E350" s="94"/>
+      <c r="F350" s="94"/>
+      <c r="G350" s="94"/>
+      <c r="H350" s="96"/>
+      <c r="I350" s="94"/>
       <c r="J350" s="7"/>
       <c r="K350" s="7"/>
       <c r="L350" s="7"/>
@@ -17310,15 +17338,15 @@
       <c r="S350" s="7"/>
     </row>
     <row r="351" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A351" s="93"/>
+      <c r="A351" s="94"/>
       <c r="B351" s="7"/>
-      <c r="C351" s="94"/>
-      <c r="D351" s="94"/>
-      <c r="E351" s="93"/>
-      <c r="F351" s="93"/>
-      <c r="G351" s="93"/>
-      <c r="H351" s="95"/>
-      <c r="I351" s="93"/>
+      <c r="C351" s="95"/>
+      <c r="D351" s="95"/>
+      <c r="E351" s="94"/>
+      <c r="F351" s="94"/>
+      <c r="G351" s="94"/>
+      <c r="H351" s="96"/>
+      <c r="I351" s="94"/>
       <c r="J351" s="7"/>
       <c r="K351" s="7"/>
       <c r="L351" s="7"/>
@@ -17331,15 +17359,15 @@
       <c r="S351" s="7"/>
     </row>
     <row r="352" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A352" s="93"/>
+      <c r="A352" s="94"/>
       <c r="B352" s="7"/>
-      <c r="C352" s="94"/>
-      <c r="D352" s="94"/>
-      <c r="E352" s="93"/>
-      <c r="F352" s="93"/>
-      <c r="G352" s="93"/>
-      <c r="H352" s="95"/>
-      <c r="I352" s="93"/>
+      <c r="C352" s="95"/>
+      <c r="D352" s="95"/>
+      <c r="E352" s="94"/>
+      <c r="F352" s="94"/>
+      <c r="G352" s="94"/>
+      <c r="H352" s="96"/>
+      <c r="I352" s="94"/>
       <c r="J352" s="7"/>
       <c r="K352" s="7"/>
       <c r="L352" s="7"/>
@@ -17352,15 +17380,15 @@
       <c r="S352" s="7"/>
     </row>
     <row r="353" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A353" s="93"/>
+      <c r="A353" s="94"/>
       <c r="B353" s="7"/>
-      <c r="C353" s="94"/>
-      <c r="D353" s="94"/>
-      <c r="E353" s="93"/>
-      <c r="F353" s="93"/>
-      <c r="G353" s="93"/>
-      <c r="H353" s="95"/>
-      <c r="I353" s="93"/>
+      <c r="C353" s="95"/>
+      <c r="D353" s="95"/>
+      <c r="E353" s="94"/>
+      <c r="F353" s="94"/>
+      <c r="G353" s="94"/>
+      <c r="H353" s="96"/>
+      <c r="I353" s="94"/>
       <c r="J353" s="7"/>
       <c r="K353" s="7"/>
       <c r="L353" s="7"/>
@@ -17373,15 +17401,15 @@
       <c r="S353" s="7"/>
     </row>
     <row r="354" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A354" s="93"/>
+      <c r="A354" s="94"/>
       <c r="B354" s="7"/>
-      <c r="C354" s="94"/>
-      <c r="D354" s="94"/>
-      <c r="E354" s="93"/>
-      <c r="F354" s="93"/>
-      <c r="G354" s="93"/>
-      <c r="H354" s="95"/>
-      <c r="I354" s="93"/>
+      <c r="C354" s="95"/>
+      <c r="D354" s="95"/>
+      <c r="E354" s="94"/>
+      <c r="F354" s="94"/>
+      <c r="G354" s="94"/>
+      <c r="H354" s="96"/>
+      <c r="I354" s="94"/>
       <c r="J354" s="7"/>
       <c r="K354" s="7"/>
       <c r="L354" s="7"/>
@@ -17394,15 +17422,15 @@
       <c r="S354" s="7"/>
     </row>
     <row r="355" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A355" s="93"/>
+      <c r="A355" s="94"/>
       <c r="B355" s="7"/>
-      <c r="C355" s="94"/>
-      <c r="D355" s="94"/>
-      <c r="E355" s="93"/>
-      <c r="F355" s="93"/>
-      <c r="G355" s="93"/>
-      <c r="H355" s="95"/>
-      <c r="I355" s="93"/>
+      <c r="C355" s="95"/>
+      <c r="D355" s="95"/>
+      <c r="E355" s="94"/>
+      <c r="F355" s="94"/>
+      <c r="G355" s="94"/>
+      <c r="H355" s="96"/>
+      <c r="I355" s="94"/>
       <c r="J355" s="7"/>
       <c r="K355" s="7"/>
       <c r="L355" s="7"/>
@@ -17415,15 +17443,15 @@
       <c r="S355" s="7"/>
     </row>
     <row r="356" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A356" s="93"/>
+      <c r="A356" s="94"/>
       <c r="B356" s="7"/>
-      <c r="C356" s="94"/>
-      <c r="D356" s="94"/>
-      <c r="E356" s="93"/>
-      <c r="F356" s="93"/>
-      <c r="G356" s="93"/>
-      <c r="H356" s="95"/>
-      <c r="I356" s="93"/>
+      <c r="C356" s="95"/>
+      <c r="D356" s="95"/>
+      <c r="E356" s="94"/>
+      <c r="F356" s="94"/>
+      <c r="G356" s="94"/>
+      <c r="H356" s="96"/>
+      <c r="I356" s="94"/>
       <c r="J356" s="7"/>
       <c r="K356" s="7"/>
       <c r="L356" s="7"/>
@@ -17436,15 +17464,15 @@
       <c r="S356" s="7"/>
     </row>
     <row r="357" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A357" s="93"/>
+      <c r="A357" s="94"/>
       <c r="B357" s="7"/>
-      <c r="C357" s="94"/>
-      <c r="D357" s="94"/>
-      <c r="E357" s="93"/>
-      <c r="F357" s="93"/>
-      <c r="G357" s="93"/>
-      <c r="H357" s="95"/>
-      <c r="I357" s="93"/>
+      <c r="C357" s="95"/>
+      <c r="D357" s="95"/>
+      <c r="E357" s="94"/>
+      <c r="F357" s="94"/>
+      <c r="G357" s="94"/>
+      <c r="H357" s="96"/>
+      <c r="I357" s="94"/>
       <c r="J357" s="7"/>
       <c r="K357" s="7"/>
       <c r="L357" s="7"/>
@@ -17457,15 +17485,15 @@
       <c r="S357" s="7"/>
     </row>
     <row r="358" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A358" s="93"/>
+      <c r="A358" s="94"/>
       <c r="B358" s="7"/>
-      <c r="C358" s="94"/>
-      <c r="D358" s="94"/>
-      <c r="E358" s="93"/>
-      <c r="F358" s="93"/>
-      <c r="G358" s="93"/>
-      <c r="H358" s="95"/>
-      <c r="I358" s="93"/>
+      <c r="C358" s="95"/>
+      <c r="D358" s="95"/>
+      <c r="E358" s="94"/>
+      <c r="F358" s="94"/>
+      <c r="G358" s="94"/>
+      <c r="H358" s="96"/>
+      <c r="I358" s="94"/>
       <c r="J358" s="7"/>
       <c r="K358" s="7"/>
       <c r="L358" s="7"/>
@@ -17478,15 +17506,15 @@
       <c r="S358" s="7"/>
     </row>
     <row r="359" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A359" s="93"/>
+      <c r="A359" s="94"/>
       <c r="B359" s="7"/>
-      <c r="C359" s="94"/>
-      <c r="D359" s="94"/>
-      <c r="E359" s="93"/>
-      <c r="F359" s="93"/>
-      <c r="G359" s="93"/>
-      <c r="H359" s="95"/>
-      <c r="I359" s="93"/>
+      <c r="C359" s="95"/>
+      <c r="D359" s="95"/>
+      <c r="E359" s="94"/>
+      <c r="F359" s="94"/>
+      <c r="G359" s="94"/>
+      <c r="H359" s="96"/>
+      <c r="I359" s="94"/>
       <c r="J359" s="7"/>
       <c r="K359" s="7"/>
       <c r="L359" s="7"/>
@@ -17499,15 +17527,15 @@
       <c r="S359" s="7"/>
     </row>
     <row r="360" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A360" s="93"/>
+      <c r="A360" s="94"/>
       <c r="B360" s="7"/>
-      <c r="C360" s="94"/>
-      <c r="D360" s="94"/>
-      <c r="E360" s="93"/>
-      <c r="F360" s="93"/>
-      <c r="G360" s="93"/>
-      <c r="H360" s="95"/>
-      <c r="I360" s="93"/>
+      <c r="C360" s="95"/>
+      <c r="D360" s="95"/>
+      <c r="E360" s="94"/>
+      <c r="F360" s="94"/>
+      <c r="G360" s="94"/>
+      <c r="H360" s="96"/>
+      <c r="I360" s="94"/>
       <c r="J360" s="7"/>
       <c r="K360" s="7"/>
       <c r="L360" s="7"/>
@@ -17520,15 +17548,15 @@
       <c r="S360" s="7"/>
     </row>
     <row r="361" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A361" s="93"/>
+      <c r="A361" s="94"/>
       <c r="B361" s="7"/>
-      <c r="C361" s="94"/>
-      <c r="D361" s="94"/>
-      <c r="E361" s="93"/>
-      <c r="F361" s="93"/>
-      <c r="G361" s="93"/>
-      <c r="H361" s="95"/>
-      <c r="I361" s="93"/>
+      <c r="C361" s="95"/>
+      <c r="D361" s="95"/>
+      <c r="E361" s="94"/>
+      <c r="F361" s="94"/>
+      <c r="G361" s="94"/>
+      <c r="H361" s="96"/>
+      <c r="I361" s="94"/>
       <c r="J361" s="7"/>
       <c r="K361" s="7"/>
       <c r="L361" s="7"/>
@@ -17541,15 +17569,15 @@
       <c r="S361" s="7"/>
     </row>
     <row r="362" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A362" s="93"/>
+      <c r="A362" s="94"/>
       <c r="B362" s="7"/>
-      <c r="C362" s="94"/>
-      <c r="D362" s="94"/>
-      <c r="E362" s="93"/>
-      <c r="F362" s="93"/>
-      <c r="G362" s="93"/>
-      <c r="H362" s="95"/>
-      <c r="I362" s="93"/>
+      <c r="C362" s="95"/>
+      <c r="D362" s="95"/>
+      <c r="E362" s="94"/>
+      <c r="F362" s="94"/>
+      <c r="G362" s="94"/>
+      <c r="H362" s="96"/>
+      <c r="I362" s="94"/>
       <c r="J362" s="7"/>
       <c r="K362" s="7"/>
       <c r="L362" s="7"/>
@@ -17608,10 +17636,10 @@
     <mergeCell ref="A341:K341"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="J21" r:id="rId1" display="Consulte nosso artigo para mais informações."/>
-    <hyperlink ref="J41" r:id="rId2" display="Consulte nosso artigo para mais informações."/>
-    <hyperlink ref="J63" r:id="rId3" display="Consulte nosso artigo para mais informações."/>
-    <hyperlink ref="J240" r:id="rId4" display="Consulte nosso artigo para mais informações."/>
+    <hyperlink ref="J21" r:id="rId2" display="Consulte nosso artigo para mais informações."/>
+    <hyperlink ref="J41" r:id="rId3" display="Consulte nosso artigo para mais informações."/>
+    <hyperlink ref="J63" r:id="rId4" display="Consulte nosso artigo para mais informações."/>
+    <hyperlink ref="J240" r:id="rId5" display="Consulte nosso artigo para mais informações."/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
@@ -17620,6 +17648,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <legacyDrawing r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -17636,11 +17665,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="96" width="6.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="96" width="17.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="96" width="40.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="96" width="36.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="96" width="7.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="97" width="6.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="97" width="17.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="97" width="40.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="97" width="36.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="97" width="7.49"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17687,28 +17716,28 @@
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="98"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="97"/>
-      <c r="I5" s="97"/>
-      <c r="J5" s="97"/>
-      <c r="K5" s="97"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="98"/>
+      <c r="I5" s="98"/>
+      <c r="J5" s="98"/>
+      <c r="K5" s="98"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="12" t="s">
@@ -17746,19 +17775,19 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="98" t="s">
+      <c r="A7" s="99" t="s">
         <v>1003</v>
       </c>
-      <c r="B7" s="98"/>
-      <c r="C7" s="98"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="98"/>
-      <c r="J7" s="98"/>
-      <c r="K7" s="98"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="18" t="n">
@@ -17767,7 +17796,7 @@
       <c r="B8" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="99" t="s">
+      <c r="C8" s="100" t="s">
         <v>1004</v>
       </c>
       <c r="D8" s="20" t="s">
@@ -17803,7 +17832,7 @@
       <c r="B9" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="100" t="s">
+      <c r="C9" s="101" t="s">
         <v>1006</v>
       </c>
       <c r="D9" s="25" t="s">
@@ -17839,7 +17868,7 @@
       <c r="B10" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="99" t="s">
+      <c r="C10" s="100" t="s">
         <v>1008</v>
       </c>
       <c r="D10" s="20" t="s">
@@ -17875,10 +17904,10 @@
       <c r="B11" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="101" t="s">
+      <c r="C11" s="102" t="s">
         <v>1010</v>
       </c>
-      <c r="D11" s="102" t="s">
+      <c r="D11" s="103" t="s">
         <v>1011</v>
       </c>
       <c r="E11" s="24" t="s">
@@ -17887,7 +17916,7 @@
       <c r="F11" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="103" t="s">
+      <c r="G11" s="104" t="s">
         <v>997</v>
       </c>
       <c r="H11" s="21" t="s">
@@ -17896,7 +17925,7 @@
       <c r="I11" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="102" t="s">
+      <c r="J11" s="103" t="s">
         <v>1011</v>
       </c>
       <c r="K11" s="19" t="s">
@@ -17911,10 +17940,10 @@
       <c r="B12" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="101" t="s">
+      <c r="C12" s="102" t="s">
         <v>1012</v>
       </c>
-      <c r="D12" s="102" t="s">
+      <c r="D12" s="103" t="s">
         <v>1013</v>
       </c>
       <c r="E12" s="24" t="s">
@@ -17923,7 +17952,7 @@
       <c r="F12" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="103" t="s">
+      <c r="G12" s="104" t="s">
         <v>711</v>
       </c>
       <c r="H12" s="21" t="s">
@@ -17932,7 +17961,7 @@
       <c r="I12" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="102" t="s">
+      <c r="J12" s="103" t="s">
         <v>1013</v>
       </c>
       <c r="K12" s="19" t="s">
@@ -17947,10 +17976,10 @@
       <c r="B13" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="101" t="s">
+      <c r="C13" s="102" t="s">
         <v>1014</v>
       </c>
-      <c r="D13" s="102" t="s">
+      <c r="D13" s="103" t="s">
         <v>1015</v>
       </c>
       <c r="E13" s="24" t="s">
@@ -17959,7 +17988,7 @@
       <c r="F13" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="103" t="s">
+      <c r="G13" s="104" t="s">
         <v>267</v>
       </c>
       <c r="H13" s="21" t="s">
@@ -17968,7 +17997,7 @@
       <c r="I13" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="102" t="s">
+      <c r="J13" s="103" t="s">
         <v>1015</v>
       </c>
       <c r="K13" s="19" t="s">
@@ -17983,10 +18012,10 @@
       <c r="B14" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="101" t="s">
+      <c r="C14" s="102" t="s">
         <v>1016</v>
       </c>
-      <c r="D14" s="102" t="s">
+      <c r="D14" s="103" t="s">
         <v>1017</v>
       </c>
       <c r="E14" s="24" t="s">
@@ -17995,7 +18024,7 @@
       <c r="F14" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="103" t="s">
+      <c r="G14" s="104" t="s">
         <v>61</v>
       </c>
       <c r="H14" s="21" t="s">
@@ -18004,7 +18033,7 @@
       <c r="I14" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J14" s="102" t="s">
+      <c r="J14" s="103" t="s">
         <v>1017</v>
       </c>
       <c r="K14" s="19" t="s">
@@ -18019,10 +18048,10 @@
       <c r="B15" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="101" t="s">
+      <c r="C15" s="102" t="s">
         <v>1018</v>
       </c>
-      <c r="D15" s="102" t="s">
+      <c r="D15" s="103" t="s">
         <v>1019</v>
       </c>
       <c r="E15" s="24" t="s">
@@ -18031,7 +18060,7 @@
       <c r="F15" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="103" t="s">
+      <c r="G15" s="104" t="s">
         <v>375</v>
       </c>
       <c r="H15" s="21" t="s">
@@ -18040,7 +18069,7 @@
       <c r="I15" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="102" t="s">
+      <c r="J15" s="103" t="s">
         <v>1020</v>
       </c>
       <c r="K15" s="19" t="s">
@@ -18055,10 +18084,10 @@
       <c r="B16" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="101" t="s">
+      <c r="C16" s="102" t="s">
         <v>1021</v>
       </c>
-      <c r="D16" s="102" t="s">
+      <c r="D16" s="103" t="s">
         <v>1022</v>
       </c>
       <c r="E16" s="24" t="s">
@@ -18067,7 +18096,7 @@
       <c r="F16" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="103" t="s">
+      <c r="G16" s="104" t="s">
         <v>1023</v>
       </c>
       <c r="H16" s="21" t="s">
@@ -18076,7 +18105,7 @@
       <c r="I16" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J16" s="102" t="s">
+      <c r="J16" s="103" t="s">
         <v>1024</v>
       </c>
       <c r="K16" s="19" t="s">
@@ -18091,10 +18120,10 @@
       <c r="B17" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="101" t="s">
+      <c r="C17" s="102" t="s">
         <v>1025</v>
       </c>
-      <c r="D17" s="102" t="s">
+      <c r="D17" s="103" t="s">
         <v>1026</v>
       </c>
       <c r="E17" s="24" t="s">
@@ -18103,7 +18132,7 @@
       <c r="F17" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="103" t="s">
+      <c r="G17" s="104" t="s">
         <v>1027</v>
       </c>
       <c r="H17" s="21" t="s">
@@ -18112,7 +18141,7 @@
       <c r="I17" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J17" s="102" t="s">
+      <c r="J17" s="103" t="s">
         <v>1028</v>
       </c>
       <c r="K17" s="19" t="s">
@@ -18127,10 +18156,10 @@
       <c r="B18" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="C18" s="101" t="s">
+      <c r="C18" s="102" t="s">
         <v>1029</v>
       </c>
-      <c r="D18" s="102" t="s">
+      <c r="D18" s="103" t="s">
         <v>1030</v>
       </c>
       <c r="E18" s="24" t="s">
@@ -18139,7 +18168,7 @@
       <c r="F18" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="103" t="s">
+      <c r="G18" s="104" t="s">
         <v>1027</v>
       </c>
       <c r="H18" s="21" t="s">
@@ -18148,7 +18177,7 @@
       <c r="I18" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="102" t="s">
+      <c r="J18" s="103" t="s">
         <v>1031</v>
       </c>
       <c r="K18" s="19" t="s">
@@ -18163,10 +18192,10 @@
       <c r="B19" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="C19" s="101" t="s">
+      <c r="C19" s="102" t="s">
         <v>1032</v>
       </c>
-      <c r="D19" s="102" t="s">
+      <c r="D19" s="103" t="s">
         <v>1033</v>
       </c>
       <c r="E19" s="24" t="s">
@@ -18175,7 +18204,7 @@
       <c r="F19" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="103" t="s">
+      <c r="G19" s="104" t="s">
         <v>1027</v>
       </c>
       <c r="H19" s="21" t="s">
@@ -18184,7 +18213,7 @@
       <c r="I19" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J19" s="102" t="s">
+      <c r="J19" s="103" t="s">
         <v>1034</v>
       </c>
       <c r="K19" s="19" t="s">
@@ -18199,10 +18228,10 @@
       <c r="B20" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="C20" s="101" t="s">
+      <c r="C20" s="102" t="s">
         <v>1035</v>
       </c>
-      <c r="D20" s="102" t="s">
+      <c r="D20" s="103" t="s">
         <v>1036</v>
       </c>
       <c r="E20" s="24" t="s">
@@ -18211,7 +18240,7 @@
       <c r="F20" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G20" s="103" t="s">
+      <c r="G20" s="104" t="s">
         <v>1027</v>
       </c>
       <c r="H20" s="21" t="s">
@@ -18220,7 +18249,7 @@
       <c r="I20" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J20" s="102" t="s">
+      <c r="J20" s="103" t="s">
         <v>1036</v>
       </c>
       <c r="K20" s="19" t="s">
@@ -18235,10 +18264,10 @@
       <c r="B21" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="101" t="s">
+      <c r="C21" s="102" t="s">
         <v>1037</v>
       </c>
-      <c r="D21" s="102" t="s">
+      <c r="D21" s="103" t="s">
         <v>1038</v>
       </c>
       <c r="E21" s="24" t="s">
@@ -18247,7 +18276,7 @@
       <c r="F21" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="103" t="s">
+      <c r="G21" s="104" t="s">
         <v>1027</v>
       </c>
       <c r="H21" s="21" t="s">
@@ -18256,7 +18285,7 @@
       <c r="I21" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J21" s="102" t="s">
+      <c r="J21" s="103" t="s">
         <v>1038</v>
       </c>
       <c r="K21" s="19" t="s">
@@ -18271,10 +18300,10 @@
       <c r="B22" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="C22" s="101" t="s">
+      <c r="C22" s="102" t="s">
         <v>1039</v>
       </c>
-      <c r="D22" s="102" t="s">
+      <c r="D22" s="103" t="s">
         <v>1040</v>
       </c>
       <c r="E22" s="24" t="s">
@@ -18283,7 +18312,7 @@
       <c r="F22" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G22" s="103" t="s">
+      <c r="G22" s="104" t="s">
         <v>1041</v>
       </c>
       <c r="H22" s="21" t="s">
@@ -18292,7 +18321,7 @@
       <c r="I22" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J22" s="102" t="s">
+      <c r="J22" s="103" t="s">
         <v>1042</v>
       </c>
       <c r="K22" s="19" t="s">
@@ -18304,13 +18333,13 @@
         <f aca="false">A22+1</f>
         <v>16</v>
       </c>
-      <c r="B23" s="104" t="s">
+      <c r="B23" s="105" t="s">
         <v>125</v>
       </c>
-      <c r="C23" s="101" t="s">
+      <c r="C23" s="102" t="s">
         <v>1043</v>
       </c>
-      <c r="D23" s="102" t="s">
+      <c r="D23" s="103" t="s">
         <v>1044</v>
       </c>
       <c r="E23" s="18" t="s">
@@ -18319,7 +18348,7 @@
       <c r="F23" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G23" s="103" t="s">
+      <c r="G23" s="104" t="s">
         <v>17</v>
       </c>
       <c r="H23" s="21" t="s">
@@ -18328,7 +18357,7 @@
       <c r="I23" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J23" s="102" t="s">
+      <c r="J23" s="103" t="s">
         <v>1044</v>
       </c>
       <c r="K23" s="19" t="s">
@@ -18340,22 +18369,22 @@
         <f aca="false">A23+1</f>
         <v>17</v>
       </c>
-      <c r="B24" s="104" t="s">
+      <c r="B24" s="105" t="s">
         <v>128</v>
       </c>
-      <c r="C24" s="101" t="s">
+      <c r="C24" s="102" t="s">
         <v>1045</v>
       </c>
-      <c r="D24" s="102" t="s">
+      <c r="D24" s="103" t="s">
         <v>1046</v>
       </c>
       <c r="E24" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="103" t="s">
+      <c r="F24" s="104" t="s">
         <v>125</v>
       </c>
-      <c r="G24" s="103" t="s">
+      <c r="G24" s="104" t="s">
         <v>56</v>
       </c>
       <c r="H24" s="21" t="s">
@@ -18364,7 +18393,7 @@
       <c r="I24" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J24" s="102" t="s">
+      <c r="J24" s="103" t="s">
         <v>1046</v>
       </c>
       <c r="K24" s="19" t="s">
@@ -18376,22 +18405,22 @@
         <f aca="false">A24+1</f>
         <v>18</v>
       </c>
-      <c r="B25" s="104" t="s">
+      <c r="B25" s="105" t="s">
         <v>133</v>
       </c>
-      <c r="C25" s="101" t="s">
+      <c r="C25" s="102" t="s">
         <v>1047</v>
       </c>
-      <c r="D25" s="102" t="s">
+      <c r="D25" s="103" t="s">
         <v>1048</v>
       </c>
       <c r="E25" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="103" t="s">
+      <c r="F25" s="104" t="s">
         <v>125</v>
       </c>
-      <c r="G25" s="103" t="s">
+      <c r="G25" s="104" t="s">
         <v>1049</v>
       </c>
       <c r="H25" s="21" t="s">
@@ -18400,7 +18429,7 @@
       <c r="I25" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J25" s="102" t="s">
+      <c r="J25" s="103" t="s">
         <v>1048</v>
       </c>
       <c r="K25" s="19" t="s">
@@ -18412,13 +18441,13 @@
         <f aca="false">A25+1</f>
         <v>19</v>
       </c>
-      <c r="B26" s="105" t="s">
+      <c r="B26" s="106" t="s">
         <v>143</v>
       </c>
-      <c r="C26" s="106" t="s">
+      <c r="C26" s="107" t="s">
         <v>1050</v>
       </c>
-      <c r="D26" s="107" t="s">
+      <c r="D26" s="108" t="s">
         <v>1051</v>
       </c>
       <c r="E26" s="29" t="s">
@@ -18427,7 +18456,7 @@
       <c r="F26" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="G26" s="108" t="s">
+      <c r="G26" s="109" t="s">
         <v>17</v>
       </c>
       <c r="H26" s="32" t="s">
@@ -18436,7 +18465,7 @@
       <c r="I26" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="J26" s="107" t="s">
+      <c r="J26" s="108" t="s">
         <v>1051</v>
       </c>
       <c r="K26" s="30" t="s">
@@ -18448,31 +18477,31 @@
         <f aca="false">A26+1</f>
         <v>20</v>
       </c>
-      <c r="B27" s="109" t="s">
+      <c r="B27" s="110" t="s">
         <v>146</v>
       </c>
-      <c r="C27" s="109" t="s">
+      <c r="C27" s="110" t="s">
         <v>1052</v>
       </c>
-      <c r="D27" s="110" t="s">
+      <c r="D27" s="111" t="s">
         <v>1053</v>
       </c>
-      <c r="E27" s="111" t="s">
-        <v>23</v>
-      </c>
-      <c r="F27" s="108" t="s">
+      <c r="E27" s="112" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="109" t="s">
         <v>143</v>
       </c>
-      <c r="G27" s="111" t="s">
+      <c r="G27" s="112" t="s">
         <v>1054</v>
       </c>
-      <c r="H27" s="111" t="s">
+      <c r="H27" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="I27" s="111" t="s">
+      <c r="I27" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="J27" s="110" t="s">
+      <c r="J27" s="111" t="s">
         <v>1055</v>
       </c>
       <c r="K27" s="30" t="s">
@@ -18484,31 +18513,31 @@
         <f aca="false">A27+1</f>
         <v>21</v>
       </c>
-      <c r="B28" s="109" t="s">
+      <c r="B28" s="110" t="s">
         <v>150</v>
       </c>
-      <c r="C28" s="109" t="s">
+      <c r="C28" s="110" t="s">
         <v>1056</v>
       </c>
-      <c r="D28" s="110" t="s">
+      <c r="D28" s="111" t="s">
         <v>1057</v>
       </c>
-      <c r="E28" s="111" t="s">
-        <v>23</v>
-      </c>
-      <c r="F28" s="108" t="s">
+      <c r="E28" s="112" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="109" t="s">
         <v>143</v>
       </c>
-      <c r="G28" s="111" t="s">
+      <c r="G28" s="112" t="s">
         <v>1054</v>
       </c>
-      <c r="H28" s="111" t="s">
+      <c r="H28" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="I28" s="111" t="s">
+      <c r="I28" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="J28" s="110" t="s">
+      <c r="J28" s="111" t="s">
         <v>1058</v>
       </c>
       <c r="K28" s="30" t="s">

--- a/Emissão/Layouts/LAYOUT 3.0 MDFe.xlsx
+++ b/Emissão/Layouts/LAYOUT 3.0 MDFe.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3110" uniqueCount="1059">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3110" uniqueCount="1061">
   <si>
     <t xml:space="preserve">LAYOUT 3.0 - MDF-e</t>
   </si>
@@ -3232,10 +3232,16 @@
     <t xml:space="preserve">Link para download do PDF do documento</t>
   </si>
   <si>
+    <t xml:space="preserve">V(999))</t>
+  </si>
+  <si>
     <t xml:space="preserve"> DocXMLDownload</t>
   </si>
   <si>
     <t xml:space="preserve">Link para download do arquivo XML do documento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V(999)</t>
   </si>
   <si>
     <t xml:space="preserve">DocImpressora</t>
@@ -3308,7 +3314,7 @@
     <numFmt numFmtId="166" formatCode="General"/>
     <numFmt numFmtId="167" formatCode="d/mmm"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3381,6 +3387,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -3843,10 +3854,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3912,6 +3919,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4027,7 +4038,7 @@
   </sheetPr>
   <dimension ref="A1:S363"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J234" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J244" activeCellId="0" sqref="J244"/>
     </sheetView>
   </sheetViews>
@@ -13474,7 +13485,7 @@
       <c r="S244" s="7"/>
     </row>
     <row r="245" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="87" t="n">
+      <c r="A245" s="67" t="n">
         <f aca="false">A244+1</f>
         <v>203</v>
       </c>
@@ -13487,19 +13498,19 @@
       <c r="D245" s="69" t="s">
         <v>710</v>
       </c>
-      <c r="E245" s="87" t="s">
-        <v>23</v>
-      </c>
-      <c r="F245" s="87" t="s">
+      <c r="E245" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="F245" s="67" t="s">
         <v>701</v>
       </c>
-      <c r="G245" s="87" t="s">
+      <c r="G245" s="67" t="s">
         <v>711</v>
       </c>
       <c r="H245" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="I245" s="87" t="s">
+      <c r="I245" s="67" t="s">
         <v>35</v>
       </c>
       <c r="J245" s="69" t="s">
@@ -14709,19 +14720,19 @@
       <c r="S275" s="7"/>
     </row>
     <row r="276" s="7" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="88" t="s">
+      <c r="A276" s="87" t="s">
         <v>810</v>
       </c>
-      <c r="B276" s="88"/>
-      <c r="C276" s="88"/>
-      <c r="D276" s="88"/>
-      <c r="E276" s="88"/>
-      <c r="F276" s="88"/>
-      <c r="G276" s="88"/>
-      <c r="H276" s="88"/>
-      <c r="I276" s="88"/>
-      <c r="J276" s="88"/>
-      <c r="K276" s="88"/>
+      <c r="B276" s="87"/>
+      <c r="C276" s="87"/>
+      <c r="D276" s="87"/>
+      <c r="E276" s="87"/>
+      <c r="F276" s="87"/>
+      <c r="G276" s="87"/>
+      <c r="H276" s="87"/>
+      <c r="I276" s="87"/>
+      <c r="J276" s="87"/>
+      <c r="K276" s="87"/>
     </row>
     <row r="277" s="7" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="44" t="n">
@@ -15028,7 +15039,7 @@
       <c r="I285" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="J285" s="89" t="s">
+      <c r="J285" s="88" t="s">
         <v>164</v>
       </c>
       <c r="K285" s="45" t="s">
@@ -15064,7 +15075,7 @@
       <c r="I286" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="J286" s="89"/>
+      <c r="J286" s="88"/>
       <c r="K286" s="45" t="s">
         <v>76</v>
       </c>
@@ -15175,16 +15186,16 @@
     </row>
     <row r="290" s="7" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="9"/>
-      <c r="B290" s="90"/>
-      <c r="C290" s="91"/>
-      <c r="D290" s="91"/>
+      <c r="B290" s="89"/>
+      <c r="C290" s="90"/>
+      <c r="D290" s="90"/>
       <c r="E290" s="9"/>
       <c r="F290" s="9"/>
       <c r="G290" s="9"/>
-      <c r="H290" s="92"/>
+      <c r="H290" s="91"/>
       <c r="I290" s="9"/>
-      <c r="J290" s="90"/>
-      <c r="K290" s="90"/>
+      <c r="J290" s="89"/>
+      <c r="K290" s="89"/>
     </row>
     <row r="291" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="12" t="s">
@@ -15230,19 +15241,19 @@
       <c r="S291" s="7"/>
     </row>
     <row r="292" s="7" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="88" t="s">
+      <c r="A292" s="87" t="s">
         <v>852</v>
       </c>
-      <c r="B292" s="88"/>
-      <c r="C292" s="88"/>
-      <c r="D292" s="88"/>
-      <c r="E292" s="88"/>
-      <c r="F292" s="88"/>
-      <c r="G292" s="88"/>
-      <c r="H292" s="88"/>
-      <c r="I292" s="88"/>
-      <c r="J292" s="88"/>
-      <c r="K292" s="88"/>
+      <c r="B292" s="87"/>
+      <c r="C292" s="87"/>
+      <c r="D292" s="87"/>
+      <c r="E292" s="87"/>
+      <c r="F292" s="87"/>
+      <c r="G292" s="87"/>
+      <c r="H292" s="87"/>
+      <c r="I292" s="87"/>
+      <c r="J292" s="87"/>
+      <c r="K292" s="87"/>
     </row>
     <row r="293" s="7" customFormat="true" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="44" t="n">
@@ -15555,7 +15566,7 @@
       <c r="I301" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="J301" s="93" t="s">
+      <c r="J301" s="92" t="s">
         <v>886</v>
       </c>
       <c r="K301" s="45" t="s">
@@ -15591,7 +15602,7 @@
       <c r="I302" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="J302" s="93"/>
+      <c r="J302" s="92"/>
       <c r="K302" s="45" t="s">
         <v>76</v>
       </c>
@@ -15695,7 +15706,7 @@
       <c r="I305" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="J305" s="93" t="s">
+      <c r="J305" s="92" t="s">
         <v>886</v>
       </c>
       <c r="K305" s="45" t="s">
@@ -15731,23 +15742,23 @@
       <c r="I306" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="J306" s="93"/>
+      <c r="J306" s="92"/>
       <c r="K306" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="307" s="7" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="9"/>
-      <c r="B307" s="90"/>
-      <c r="C307" s="91"/>
-      <c r="D307" s="91"/>
+      <c r="B307" s="89"/>
+      <c r="C307" s="90"/>
+      <c r="D307" s="90"/>
       <c r="E307" s="9"/>
       <c r="F307" s="9"/>
       <c r="G307" s="9"/>
-      <c r="H307" s="92"/>
+      <c r="H307" s="91"/>
       <c r="I307" s="9"/>
-      <c r="J307" s="90"/>
-      <c r="K307" s="90"/>
+      <c r="J307" s="89"/>
+      <c r="K307" s="89"/>
     </row>
     <row r="308" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="12" t="s">
@@ -16825,19 +16836,19 @@
       <c r="S336" s="7"/>
     </row>
     <row r="337" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A337" s="88" t="s">
+      <c r="A337" s="87" t="s">
         <v>969</v>
       </c>
-      <c r="B337" s="88"/>
-      <c r="C337" s="88"/>
-      <c r="D337" s="88"/>
-      <c r="E337" s="88"/>
-      <c r="F337" s="88"/>
-      <c r="G337" s="88"/>
-      <c r="H337" s="88"/>
-      <c r="I337" s="88"/>
-      <c r="J337" s="88"/>
-      <c r="K337" s="88"/>
+      <c r="B337" s="87"/>
+      <c r="C337" s="87"/>
+      <c r="D337" s="87"/>
+      <c r="E337" s="87"/>
+      <c r="F337" s="87"/>
+      <c r="G337" s="87"/>
+      <c r="H337" s="87"/>
+      <c r="I337" s="87"/>
+      <c r="J337" s="87"/>
+      <c r="K337" s="87"/>
       <c r="L337" s="7"/>
       <c r="M337" s="7"/>
       <c r="N337" s="7"/>
@@ -16975,19 +16986,19 @@
       <c r="S340" s="7"/>
     </row>
     <row r="341" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A341" s="88" t="s">
+      <c r="A341" s="87" t="s">
         <v>977</v>
       </c>
-      <c r="B341" s="88"/>
-      <c r="C341" s="88"/>
-      <c r="D341" s="88"/>
-      <c r="E341" s="88"/>
-      <c r="F341" s="88"/>
-      <c r="G341" s="88"/>
-      <c r="H341" s="88"/>
-      <c r="I341" s="88"/>
-      <c r="J341" s="88"/>
-      <c r="K341" s="88"/>
+      <c r="B341" s="87"/>
+      <c r="C341" s="87"/>
+      <c r="D341" s="87"/>
+      <c r="E341" s="87"/>
+      <c r="F341" s="87"/>
+      <c r="G341" s="87"/>
+      <c r="H341" s="87"/>
+      <c r="I341" s="87"/>
+      <c r="J341" s="87"/>
+      <c r="K341" s="87"/>
       <c r="L341" s="7"/>
       <c r="M341" s="7"/>
       <c r="N341" s="7"/>
@@ -17296,15 +17307,15 @@
       <c r="S348" s="7"/>
     </row>
     <row r="349" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A349" s="94"/>
+      <c r="A349" s="93"/>
       <c r="B349" s="7"/>
-      <c r="C349" s="95"/>
-      <c r="D349" s="95"/>
-      <c r="E349" s="94"/>
-      <c r="F349" s="94"/>
-      <c r="G349" s="94"/>
-      <c r="H349" s="96"/>
-      <c r="I349" s="94"/>
+      <c r="C349" s="94"/>
+      <c r="D349" s="94"/>
+      <c r="E349" s="93"/>
+      <c r="F349" s="93"/>
+      <c r="G349" s="93"/>
+      <c r="H349" s="95"/>
+      <c r="I349" s="93"/>
       <c r="J349" s="7"/>
       <c r="K349" s="7"/>
       <c r="L349" s="7"/>
@@ -17317,15 +17328,15 @@
       <c r="S349" s="7"/>
     </row>
     <row r="350" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A350" s="94"/>
+      <c r="A350" s="93"/>
       <c r="B350" s="7"/>
-      <c r="C350" s="95"/>
-      <c r="D350" s="95"/>
-      <c r="E350" s="94"/>
-      <c r="F350" s="94"/>
-      <c r="G350" s="94"/>
-      <c r="H350" s="96"/>
-      <c r="I350" s="94"/>
+      <c r="C350" s="94"/>
+      <c r="D350" s="94"/>
+      <c r="E350" s="93"/>
+      <c r="F350" s="93"/>
+      <c r="G350" s="93"/>
+      <c r="H350" s="95"/>
+      <c r="I350" s="93"/>
       <c r="J350" s="7"/>
       <c r="K350" s="7"/>
       <c r="L350" s="7"/>
@@ -17338,15 +17349,15 @@
       <c r="S350" s="7"/>
     </row>
     <row r="351" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A351" s="94"/>
+      <c r="A351" s="93"/>
       <c r="B351" s="7"/>
-      <c r="C351" s="95"/>
-      <c r="D351" s="95"/>
-      <c r="E351" s="94"/>
-      <c r="F351" s="94"/>
-      <c r="G351" s="94"/>
-      <c r="H351" s="96"/>
-      <c r="I351" s="94"/>
+      <c r="C351" s="94"/>
+      <c r="D351" s="94"/>
+      <c r="E351" s="93"/>
+      <c r="F351" s="93"/>
+      <c r="G351" s="93"/>
+      <c r="H351" s="95"/>
+      <c r="I351" s="93"/>
       <c r="J351" s="7"/>
       <c r="K351" s="7"/>
       <c r="L351" s="7"/>
@@ -17359,15 +17370,15 @@
       <c r="S351" s="7"/>
     </row>
     <row r="352" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A352" s="94"/>
+      <c r="A352" s="93"/>
       <c r="B352" s="7"/>
-      <c r="C352" s="95"/>
-      <c r="D352" s="95"/>
-      <c r="E352" s="94"/>
-      <c r="F352" s="94"/>
-      <c r="G352" s="94"/>
-      <c r="H352" s="96"/>
-      <c r="I352" s="94"/>
+      <c r="C352" s="94"/>
+      <c r="D352" s="94"/>
+      <c r="E352" s="93"/>
+      <c r="F352" s="93"/>
+      <c r="G352" s="93"/>
+      <c r="H352" s="95"/>
+      <c r="I352" s="93"/>
       <c r="J352" s="7"/>
       <c r="K352" s="7"/>
       <c r="L352" s="7"/>
@@ -17380,15 +17391,15 @@
       <c r="S352" s="7"/>
     </row>
     <row r="353" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A353" s="94"/>
+      <c r="A353" s="93"/>
       <c r="B353" s="7"/>
-      <c r="C353" s="95"/>
-      <c r="D353" s="95"/>
-      <c r="E353" s="94"/>
-      <c r="F353" s="94"/>
-      <c r="G353" s="94"/>
-      <c r="H353" s="96"/>
-      <c r="I353" s="94"/>
+      <c r="C353" s="94"/>
+      <c r="D353" s="94"/>
+      <c r="E353" s="93"/>
+      <c r="F353" s="93"/>
+      <c r="G353" s="93"/>
+      <c r="H353" s="95"/>
+      <c r="I353" s="93"/>
       <c r="J353" s="7"/>
       <c r="K353" s="7"/>
       <c r="L353" s="7"/>
@@ -17401,15 +17412,15 @@
       <c r="S353" s="7"/>
     </row>
     <row r="354" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A354" s="94"/>
+      <c r="A354" s="93"/>
       <c r="B354" s="7"/>
-      <c r="C354" s="95"/>
-      <c r="D354" s="95"/>
-      <c r="E354" s="94"/>
-      <c r="F354" s="94"/>
-      <c r="G354" s="94"/>
-      <c r="H354" s="96"/>
-      <c r="I354" s="94"/>
+      <c r="C354" s="94"/>
+      <c r="D354" s="94"/>
+      <c r="E354" s="93"/>
+      <c r="F354" s="93"/>
+      <c r="G354" s="93"/>
+      <c r="H354" s="95"/>
+      <c r="I354" s="93"/>
       <c r="J354" s="7"/>
       <c r="K354" s="7"/>
       <c r="L354" s="7"/>
@@ -17422,15 +17433,15 @@
       <c r="S354" s="7"/>
     </row>
     <row r="355" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A355" s="94"/>
+      <c r="A355" s="93"/>
       <c r="B355" s="7"/>
-      <c r="C355" s="95"/>
-      <c r="D355" s="95"/>
-      <c r="E355" s="94"/>
-      <c r="F355" s="94"/>
-      <c r="G355" s="94"/>
-      <c r="H355" s="96"/>
-      <c r="I355" s="94"/>
+      <c r="C355" s="94"/>
+      <c r="D355" s="94"/>
+      <c r="E355" s="93"/>
+      <c r="F355" s="93"/>
+      <c r="G355" s="93"/>
+      <c r="H355" s="95"/>
+      <c r="I355" s="93"/>
       <c r="J355" s="7"/>
       <c r="K355" s="7"/>
       <c r="L355" s="7"/>
@@ -17443,15 +17454,15 @@
       <c r="S355" s="7"/>
     </row>
     <row r="356" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A356" s="94"/>
+      <c r="A356" s="93"/>
       <c r="B356" s="7"/>
-      <c r="C356" s="95"/>
-      <c r="D356" s="95"/>
-      <c r="E356" s="94"/>
-      <c r="F356" s="94"/>
-      <c r="G356" s="94"/>
-      <c r="H356" s="96"/>
-      <c r="I356" s="94"/>
+      <c r="C356" s="94"/>
+      <c r="D356" s="94"/>
+      <c r="E356" s="93"/>
+      <c r="F356" s="93"/>
+      <c r="G356" s="93"/>
+      <c r="H356" s="95"/>
+      <c r="I356" s="93"/>
       <c r="J356" s="7"/>
       <c r="K356" s="7"/>
       <c r="L356" s="7"/>
@@ -17464,15 +17475,15 @@
       <c r="S356" s="7"/>
     </row>
     <row r="357" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A357" s="94"/>
+      <c r="A357" s="93"/>
       <c r="B357" s="7"/>
-      <c r="C357" s="95"/>
-      <c r="D357" s="95"/>
-      <c r="E357" s="94"/>
-      <c r="F357" s="94"/>
-      <c r="G357" s="94"/>
-      <c r="H357" s="96"/>
-      <c r="I357" s="94"/>
+      <c r="C357" s="94"/>
+      <c r="D357" s="94"/>
+      <c r="E357" s="93"/>
+      <c r="F357" s="93"/>
+      <c r="G357" s="93"/>
+      <c r="H357" s="95"/>
+      <c r="I357" s="93"/>
       <c r="J357" s="7"/>
       <c r="K357" s="7"/>
       <c r="L357" s="7"/>
@@ -17485,15 +17496,15 @@
       <c r="S357" s="7"/>
     </row>
     <row r="358" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A358" s="94"/>
+      <c r="A358" s="93"/>
       <c r="B358" s="7"/>
-      <c r="C358" s="95"/>
-      <c r="D358" s="95"/>
-      <c r="E358" s="94"/>
-      <c r="F358" s="94"/>
-      <c r="G358" s="94"/>
-      <c r="H358" s="96"/>
-      <c r="I358" s="94"/>
+      <c r="C358" s="94"/>
+      <c r="D358" s="94"/>
+      <c r="E358" s="93"/>
+      <c r="F358" s="93"/>
+      <c r="G358" s="93"/>
+      <c r="H358" s="95"/>
+      <c r="I358" s="93"/>
       <c r="J358" s="7"/>
       <c r="K358" s="7"/>
       <c r="L358" s="7"/>
@@ -17506,15 +17517,15 @@
       <c r="S358" s="7"/>
     </row>
     <row r="359" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A359" s="94"/>
+      <c r="A359" s="93"/>
       <c r="B359" s="7"/>
-      <c r="C359" s="95"/>
-      <c r="D359" s="95"/>
-      <c r="E359" s="94"/>
-      <c r="F359" s="94"/>
-      <c r="G359" s="94"/>
-      <c r="H359" s="96"/>
-      <c r="I359" s="94"/>
+      <c r="C359" s="94"/>
+      <c r="D359" s="94"/>
+      <c r="E359" s="93"/>
+      <c r="F359" s="93"/>
+      <c r="G359" s="93"/>
+      <c r="H359" s="95"/>
+      <c r="I359" s="93"/>
       <c r="J359" s="7"/>
       <c r="K359" s="7"/>
       <c r="L359" s="7"/>
@@ -17527,15 +17538,15 @@
       <c r="S359" s="7"/>
     </row>
     <row r="360" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A360" s="94"/>
+      <c r="A360" s="93"/>
       <c r="B360" s="7"/>
-      <c r="C360" s="95"/>
-      <c r="D360" s="95"/>
-      <c r="E360" s="94"/>
-      <c r="F360" s="94"/>
-      <c r="G360" s="94"/>
-      <c r="H360" s="96"/>
-      <c r="I360" s="94"/>
+      <c r="C360" s="94"/>
+      <c r="D360" s="94"/>
+      <c r="E360" s="93"/>
+      <c r="F360" s="93"/>
+      <c r="G360" s="93"/>
+      <c r="H360" s="95"/>
+      <c r="I360" s="93"/>
       <c r="J360" s="7"/>
       <c r="K360" s="7"/>
       <c r="L360" s="7"/>
@@ -17548,15 +17559,15 @@
       <c r="S360" s="7"/>
     </row>
     <row r="361" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A361" s="94"/>
+      <c r="A361" s="93"/>
       <c r="B361" s="7"/>
-      <c r="C361" s="95"/>
-      <c r="D361" s="95"/>
-      <c r="E361" s="94"/>
-      <c r="F361" s="94"/>
-      <c r="G361" s="94"/>
-      <c r="H361" s="96"/>
-      <c r="I361" s="94"/>
+      <c r="C361" s="94"/>
+      <c r="D361" s="94"/>
+      <c r="E361" s="93"/>
+      <c r="F361" s="93"/>
+      <c r="G361" s="93"/>
+      <c r="H361" s="95"/>
+      <c r="I361" s="93"/>
       <c r="J361" s="7"/>
       <c r="K361" s="7"/>
       <c r="L361" s="7"/>
@@ -17569,15 +17580,15 @@
       <c r="S361" s="7"/>
     </row>
     <row r="362" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A362" s="94"/>
+      <c r="A362" s="93"/>
       <c r="B362" s="7"/>
-      <c r="C362" s="95"/>
-      <c r="D362" s="95"/>
-      <c r="E362" s="94"/>
-      <c r="F362" s="94"/>
-      <c r="G362" s="94"/>
-      <c r="H362" s="96"/>
-      <c r="I362" s="94"/>
+      <c r="C362" s="94"/>
+      <c r="D362" s="94"/>
+      <c r="E362" s="93"/>
+      <c r="F362" s="93"/>
+      <c r="G362" s="93"/>
+      <c r="H362" s="95"/>
+      <c r="I362" s="93"/>
       <c r="J362" s="7"/>
       <c r="K362" s="7"/>
       <c r="L362" s="7"/>
@@ -17660,16 +17671,16 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="97" width="6.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="97" width="17.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="97" width="40.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="97" width="36.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="97" width="7.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="96" width="6.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="96" width="17.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="96" width="40.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="96" width="36.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="96" width="7.49"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17716,28 +17727,28 @@
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="98"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="98"/>
-      <c r="H5" s="98"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="98"/>
-      <c r="K5" s="98"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="97"/>
+      <c r="J5" s="97"/>
+      <c r="K5" s="97"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="12" t="s">
@@ -17775,19 +17786,19 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="99" t="s">
+      <c r="A7" s="98" t="s">
         <v>1003</v>
       </c>
-      <c r="B7" s="99"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="98"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="98"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="18" t="n">
@@ -17796,7 +17807,7 @@
       <c r="B8" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="100" t="s">
+      <c r="C8" s="99" t="s">
         <v>1004</v>
       </c>
       <c r="D8" s="20" t="s">
@@ -17832,7 +17843,7 @@
       <c r="B9" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="101" t="s">
+      <c r="C9" s="100" t="s">
         <v>1006</v>
       </c>
       <c r="D9" s="25" t="s">
@@ -17868,7 +17879,7 @@
       <c r="B10" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="100" t="s">
+      <c r="C10" s="99" t="s">
         <v>1008</v>
       </c>
       <c r="D10" s="20" t="s">
@@ -17904,10 +17915,10 @@
       <c r="B11" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="102" t="s">
+      <c r="C11" s="101" t="s">
         <v>1010</v>
       </c>
-      <c r="D11" s="103" t="s">
+      <c r="D11" s="102" t="s">
         <v>1011</v>
       </c>
       <c r="E11" s="24" t="s">
@@ -17916,7 +17927,7 @@
       <c r="F11" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="104" t="s">
+      <c r="G11" s="103" t="s">
         <v>997</v>
       </c>
       <c r="H11" s="21" t="s">
@@ -17925,7 +17936,7 @@
       <c r="I11" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="103" t="s">
+      <c r="J11" s="102" t="s">
         <v>1011</v>
       </c>
       <c r="K11" s="19" t="s">
@@ -17940,10 +17951,10 @@
       <c r="B12" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="102" t="s">
+      <c r="C12" s="101" t="s">
         <v>1012</v>
       </c>
-      <c r="D12" s="103" t="s">
+      <c r="D12" s="102" t="s">
         <v>1013</v>
       </c>
       <c r="E12" s="24" t="s">
@@ -17952,7 +17963,7 @@
       <c r="F12" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="104" t="s">
+      <c r="G12" s="103" t="s">
         <v>711</v>
       </c>
       <c r="H12" s="21" t="s">
@@ -17961,7 +17972,7 @@
       <c r="I12" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="103" t="s">
+      <c r="J12" s="102" t="s">
         <v>1013</v>
       </c>
       <c r="K12" s="19" t="s">
@@ -17976,10 +17987,10 @@
       <c r="B13" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="102" t="s">
+      <c r="C13" s="101" t="s">
         <v>1014</v>
       </c>
-      <c r="D13" s="103" t="s">
+      <c r="D13" s="102" t="s">
         <v>1015</v>
       </c>
       <c r="E13" s="24" t="s">
@@ -17988,7 +17999,7 @@
       <c r="F13" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="104" t="s">
+      <c r="G13" s="103" t="s">
         <v>267</v>
       </c>
       <c r="H13" s="21" t="s">
@@ -17997,7 +18008,7 @@
       <c r="I13" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="103" t="s">
+      <c r="J13" s="102" t="s">
         <v>1015</v>
       </c>
       <c r="K13" s="19" t="s">
@@ -18012,10 +18023,10 @@
       <c r="B14" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="102" t="s">
+      <c r="C14" s="101" t="s">
         <v>1016</v>
       </c>
-      <c r="D14" s="103" t="s">
+      <c r="D14" s="102" t="s">
         <v>1017</v>
       </c>
       <c r="E14" s="24" t="s">
@@ -18024,7 +18035,7 @@
       <c r="F14" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="104" t="s">
+      <c r="G14" s="103" t="s">
         <v>61</v>
       </c>
       <c r="H14" s="21" t="s">
@@ -18033,7 +18044,7 @@
       <c r="I14" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J14" s="103" t="s">
+      <c r="J14" s="102" t="s">
         <v>1017</v>
       </c>
       <c r="K14" s="19" t="s">
@@ -18048,10 +18059,10 @@
       <c r="B15" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="102" t="s">
+      <c r="C15" s="101" t="s">
         <v>1018</v>
       </c>
-      <c r="D15" s="103" t="s">
+      <c r="D15" s="102" t="s">
         <v>1019</v>
       </c>
       <c r="E15" s="24" t="s">
@@ -18060,7 +18071,7 @@
       <c r="F15" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="104" t="s">
+      <c r="G15" s="103" t="s">
         <v>375</v>
       </c>
       <c r="H15" s="21" t="s">
@@ -18069,7 +18080,7 @@
       <c r="I15" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="103" t="s">
+      <c r="J15" s="102" t="s">
         <v>1020</v>
       </c>
       <c r="K15" s="19" t="s">
@@ -18084,10 +18095,10 @@
       <c r="B16" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="102" t="s">
+      <c r="C16" s="101" t="s">
         <v>1021</v>
       </c>
-      <c r="D16" s="103" t="s">
+      <c r="D16" s="102" t="s">
         <v>1022</v>
       </c>
       <c r="E16" s="24" t="s">
@@ -18096,7 +18107,7 @@
       <c r="F16" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="104" t="s">
+      <c r="G16" s="103" t="s">
         <v>1023</v>
       </c>
       <c r="H16" s="21" t="s">
@@ -18105,7 +18116,7 @@
       <c r="I16" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J16" s="103" t="s">
+      <c r="J16" s="102" t="s">
         <v>1024</v>
       </c>
       <c r="K16" s="19" t="s">
@@ -18120,10 +18131,10 @@
       <c r="B17" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="102" t="s">
+      <c r="C17" s="101" t="s">
         <v>1025</v>
       </c>
-      <c r="D17" s="103" t="s">
+      <c r="D17" s="102" t="s">
         <v>1026</v>
       </c>
       <c r="E17" s="24" t="s">
@@ -18132,7 +18143,7 @@
       <c r="F17" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="104" t="s">
+      <c r="G17" s="103" t="s">
         <v>1027</v>
       </c>
       <c r="H17" s="21" t="s">
@@ -18141,7 +18152,7 @@
       <c r="I17" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J17" s="103" t="s">
+      <c r="J17" s="102" t="s">
         <v>1028</v>
       </c>
       <c r="K17" s="19" t="s">
@@ -18156,10 +18167,10 @@
       <c r="B18" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="C18" s="102" t="s">
+      <c r="C18" s="101" t="s">
         <v>1029</v>
       </c>
-      <c r="D18" s="103" t="s">
+      <c r="D18" s="102" t="s">
         <v>1030</v>
       </c>
       <c r="E18" s="24" t="s">
@@ -18168,7 +18179,7 @@
       <c r="F18" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="104" t="s">
+      <c r="G18" s="103" t="s">
         <v>1027</v>
       </c>
       <c r="H18" s="21" t="s">
@@ -18177,14 +18188,14 @@
       <c r="I18" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="103" t="s">
+      <c r="J18" s="102" t="s">
         <v>1031</v>
       </c>
       <c r="K18" s="19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="18" t="n">
         <f aca="false">A18+1</f>
         <v>12</v>
@@ -18192,10 +18203,10 @@
       <c r="B19" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="C19" s="102" t="s">
+      <c r="C19" s="101" t="s">
         <v>1032</v>
       </c>
-      <c r="D19" s="103" t="s">
+      <c r="D19" s="102" t="s">
         <v>1033</v>
       </c>
       <c r="E19" s="24" t="s">
@@ -18213,7 +18224,7 @@
       <c r="I19" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J19" s="103" t="s">
+      <c r="J19" s="102" t="s">
         <v>1034</v>
       </c>
       <c r="K19" s="19" t="s">
@@ -18228,10 +18239,10 @@
       <c r="B20" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="C20" s="102" t="s">
+      <c r="C20" s="101" t="s">
         <v>1035</v>
       </c>
-      <c r="D20" s="103" t="s">
+      <c r="D20" s="102" t="s">
         <v>1036</v>
       </c>
       <c r="E20" s="24" t="s">
@@ -18240,8 +18251,8 @@
       <c r="F20" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G20" s="104" t="s">
-        <v>1027</v>
+      <c r="G20" s="103" t="s">
+        <v>1037</v>
       </c>
       <c r="H20" s="21" t="s">
         <v>17</v>
@@ -18249,7 +18260,7 @@
       <c r="I20" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J20" s="103" t="s">
+      <c r="J20" s="102" t="s">
         <v>1036</v>
       </c>
       <c r="K20" s="19" t="s">
@@ -18264,11 +18275,11 @@
       <c r="B21" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="102" t="s">
-        <v>1037</v>
-      </c>
-      <c r="D21" s="103" t="s">
+      <c r="C21" s="101" t="s">
         <v>1038</v>
+      </c>
+      <c r="D21" s="102" t="s">
+        <v>1039</v>
       </c>
       <c r="E21" s="24" t="s">
         <v>23</v>
@@ -18276,8 +18287,8 @@
       <c r="F21" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="104" t="s">
-        <v>1027</v>
+      <c r="G21" s="103" t="s">
+        <v>1040</v>
       </c>
       <c r="H21" s="21" t="s">
         <v>17</v>
@@ -18285,8 +18296,8 @@
       <c r="I21" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J21" s="103" t="s">
-        <v>1038</v>
+      <c r="J21" s="102" t="s">
+        <v>1039</v>
       </c>
       <c r="K21" s="19" t="s">
         <v>20</v>
@@ -18300,11 +18311,11 @@
       <c r="B22" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="C22" s="102" t="s">
-        <v>1039</v>
-      </c>
-      <c r="D22" s="103" t="s">
-        <v>1040</v>
+      <c r="C22" s="101" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D22" s="102" t="s">
+        <v>1042</v>
       </c>
       <c r="E22" s="24" t="s">
         <v>23</v>
@@ -18312,8 +18323,8 @@
       <c r="F22" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G22" s="104" t="s">
-        <v>1041</v>
+      <c r="G22" s="103" t="s">
+        <v>1043</v>
       </c>
       <c r="H22" s="21" t="s">
         <v>17</v>
@@ -18321,8 +18332,8 @@
       <c r="I22" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J22" s="103" t="s">
-        <v>1042</v>
+      <c r="J22" s="102" t="s">
+        <v>1044</v>
       </c>
       <c r="K22" s="19" t="s">
         <v>20</v>
@@ -18336,11 +18347,11 @@
       <c r="B23" s="105" t="s">
         <v>125</v>
       </c>
-      <c r="C23" s="102" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D23" s="103" t="s">
-        <v>1044</v>
+      <c r="C23" s="101" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D23" s="102" t="s">
+        <v>1046</v>
       </c>
       <c r="E23" s="18" t="s">
         <v>15</v>
@@ -18348,7 +18359,7 @@
       <c r="F23" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G23" s="104" t="s">
+      <c r="G23" s="103" t="s">
         <v>17</v>
       </c>
       <c r="H23" s="21" t="s">
@@ -18357,8 +18368,8 @@
       <c r="I23" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J23" s="103" t="s">
-        <v>1044</v>
+      <c r="J23" s="102" t="s">
+        <v>1046</v>
       </c>
       <c r="K23" s="19" t="s">
         <v>20</v>
@@ -18372,19 +18383,19 @@
       <c r="B24" s="105" t="s">
         <v>128</v>
       </c>
-      <c r="C24" s="102" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D24" s="103" t="s">
-        <v>1046</v>
+      <c r="C24" s="101" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D24" s="102" t="s">
+        <v>1048</v>
       </c>
       <c r="E24" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="104" t="s">
+      <c r="F24" s="103" t="s">
         <v>125</v>
       </c>
-      <c r="G24" s="104" t="s">
+      <c r="G24" s="103" t="s">
         <v>56</v>
       </c>
       <c r="H24" s="21" t="s">
@@ -18393,8 +18404,8 @@
       <c r="I24" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J24" s="103" t="s">
-        <v>1046</v>
+      <c r="J24" s="102" t="s">
+        <v>1048</v>
       </c>
       <c r="K24" s="19" t="s">
         <v>20</v>
@@ -18408,20 +18419,20 @@
       <c r="B25" s="105" t="s">
         <v>133</v>
       </c>
-      <c r="C25" s="102" t="s">
-        <v>1047</v>
-      </c>
-      <c r="D25" s="103" t="s">
-        <v>1048</v>
+      <c r="C25" s="101" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D25" s="102" t="s">
+        <v>1050</v>
       </c>
       <c r="E25" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="104" t="s">
+      <c r="F25" s="103" t="s">
         <v>125</v>
       </c>
-      <c r="G25" s="104" t="s">
-        <v>1049</v>
+      <c r="G25" s="103" t="s">
+        <v>1051</v>
       </c>
       <c r="H25" s="21" t="s">
         <v>17</v>
@@ -18429,8 +18440,8 @@
       <c r="I25" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J25" s="103" t="s">
-        <v>1048</v>
+      <c r="J25" s="102" t="s">
+        <v>1050</v>
       </c>
       <c r="K25" s="19" t="s">
         <v>20</v>
@@ -18445,10 +18456,10 @@
         <v>143</v>
       </c>
       <c r="C26" s="107" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="D26" s="108" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="E26" s="29" t="s">
         <v>15</v>
@@ -18466,7 +18477,7 @@
         <v>17</v>
       </c>
       <c r="J26" s="108" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="K26" s="30" t="s">
         <v>20</v>
@@ -18481,10 +18492,10 @@
         <v>146</v>
       </c>
       <c r="C27" s="110" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="D27" s="111" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="E27" s="112" t="s">
         <v>23</v>
@@ -18493,7 +18504,7 @@
         <v>143</v>
       </c>
       <c r="G27" s="112" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="H27" s="112" t="s">
         <v>17</v>
@@ -18502,7 +18513,7 @@
         <v>17</v>
       </c>
       <c r="J27" s="111" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="K27" s="30" t="s">
         <v>20</v>
@@ -18517,10 +18528,10 @@
         <v>150</v>
       </c>
       <c r="C28" s="110" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="D28" s="111" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="E28" s="112" t="s">
         <v>23</v>
@@ -18529,7 +18540,7 @@
         <v>143</v>
       </c>
       <c r="G28" s="112" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="H28" s="112" t="s">
         <v>17</v>
@@ -18538,7 +18549,7 @@
         <v>17</v>
       </c>
       <c r="J28" s="111" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="K28" s="30" t="s">
         <v>20</v>

--- a/Emissão/Layouts/LAYOUT 3.0 MDFe.xlsx
+++ b/Emissão/Layouts/LAYOUT 3.0 MDFe.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3110" uniqueCount="1061">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3110" uniqueCount="1062">
   <si>
     <t xml:space="preserve">LAYOUT 3.0 - MDF-e</t>
   </si>
@@ -911,7 +911,7 @@
     <t xml:space="preserve">  InfPagamento</t>
   </si>
   <si>
-    <t xml:space="preserve">Informações do Pagamento do Frete</t>
+    <t xml:space="preserve">Informações do Pagamento do Contrato</t>
   </si>
   <si>
     <t xml:space="preserve">   InfPagamentoItem</t>
@@ -1013,7 +1013,7 @@
     <t xml:space="preserve">    Componentes</t>
   </si>
   <si>
-    <t xml:space="preserve">Componentes do pagamento do frete</t>
+    <t xml:space="preserve">Componentes do pagamento do Contrato</t>
   </si>
   <si>
     <t xml:space="preserve">     ComponentesItem</t>
@@ -1038,7 +1038,8 @@
 01 - Vale pedágio
 02 - Impostos, taxas e contribuições
 03 - Despesas (bancárias, meios de pagamentos, outras)
-99 - Outros</t>
+04 - Frete
+99 – Outros</t>
   </si>
   <si>
     <t xml:space="preserve">       valor_comp</t>
@@ -1502,7 +1503,10 @@
     <t xml:space="preserve">C</t>
   </si>
   <si>
-    <t xml:space="preserve">Número do comprovante de compra do vale-pedágio</t>
+    <t xml:space="preserve">Identificador do vale pedagio obrigatório – IDVPO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88.0</t>
   </si>
   <si>
     <t xml:space="preserve">     vValePed</t>
@@ -1517,9 +1521,8 @@
     <t xml:space="preserve">Tipo do Vale Pedágio</t>
   </si>
   <si>
-    <t xml:space="preserve">01 - TAG;
-02 - Cupom;
-03 - Cartão</t>
+    <t xml:space="preserve">01 – TAG;
+04 – Leitura de Placa</t>
   </si>
   <si>
     <t xml:space="preserve">     categCombVeic</t>
@@ -2699,7 +2702,8 @@
 08 - Perigosa (granel líquido)
 09 - Perigosa (carga frigorificada)
 10 - Perigosa (conteinerizada)
-11 - Perigosa (carga geral)</t>
+11 - Perigosa (carga geral)
+12 – Granel Pressurizada</t>
   </si>
   <si>
     <t xml:space="preserve">F03</t>
@@ -3314,7 +3318,7 @@
     <numFmt numFmtId="166" formatCode="General"/>
     <numFmt numFmtId="167" formatCode="d/mmm"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3387,11 +3391,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -3505,7 +3504,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="117">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3770,15 +3769,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3786,15 +3777,39 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3814,15 +3829,19 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3834,7 +3853,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3919,10 +3938,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4038,8 +4053,8 @@
   </sheetPr>
   <dimension ref="A1:S363"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J244" activeCellId="0" sqref="J244"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J10" activeCellId="0" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7057,35 +7072,35 @@
         <f aca="false">A81+1</f>
         <v>56</v>
       </c>
-      <c r="B82" s="45" t="str">
+      <c r="B82" s="66" t="str">
         <f aca="false">CONCATENATE("Ca",TEXT(A82-$A$73, "00"))</f>
         <v>Ca06</v>
       </c>
-      <c r="C82" s="46" t="s">
+      <c r="C82" s="67" t="s">
         <v>247</v>
       </c>
-      <c r="D82" s="46" t="s">
+      <c r="D82" s="67" t="s">
         <v>248</v>
       </c>
-      <c r="E82" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="F82" s="44" t="s">
+      <c r="E82" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="F82" s="68" t="s">
         <v>249</v>
       </c>
-      <c r="G82" s="44" t="s">
+      <c r="G82" s="68" t="s">
         <v>250</v>
       </c>
-      <c r="H82" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="I82" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="J82" s="45" t="s">
+      <c r="H82" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="I82" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="J82" s="66" t="s">
         <v>251</v>
       </c>
-      <c r="K82" s="45" t="s">
+      <c r="K82" s="66" t="s">
         <v>76</v>
       </c>
     </row>
@@ -7259,7 +7274,7 @@
       <c r="I87" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="J87" s="66" t="s">
+      <c r="J87" s="70" t="s">
         <v>164</v>
       </c>
       <c r="K87" s="45" t="s">
@@ -7296,7 +7311,7 @@
       <c r="I88" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="J88" s="66"/>
+      <c r="J88" s="70"/>
       <c r="K88" s="45" t="s">
         <v>76</v>
       </c>
@@ -7331,7 +7346,7 @@
       <c r="I89" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="J89" s="66"/>
+      <c r="J89" s="70"/>
       <c r="K89" s="45" t="s">
         <v>76</v>
       </c>
@@ -7366,141 +7381,141 @@
       <c r="I90" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="J90" s="66"/>
+      <c r="J90" s="70"/>
       <c r="K90" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="91" s="7" customFormat="true" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="67" t="n">
+      <c r="A91" s="71" t="n">
         <v>65</v>
       </c>
-      <c r="B91" s="68" t="s">
+      <c r="B91" s="72" t="s">
         <v>270</v>
       </c>
-      <c r="C91" s="69" t="s">
+      <c r="C91" s="73" t="s">
         <v>271</v>
       </c>
-      <c r="D91" s="69" t="s">
+      <c r="D91" s="73" t="s">
         <v>272</v>
       </c>
-      <c r="E91" s="67" t="s">
+      <c r="E91" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="F91" s="67" t="s">
+      <c r="F91" s="71" t="s">
         <v>262</v>
       </c>
-      <c r="G91" s="67" t="s">
+      <c r="G91" s="71" t="s">
         <v>273</v>
       </c>
-      <c r="H91" s="70" t="s">
+      <c r="H91" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="I91" s="67" t="s">
+      <c r="I91" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="J91" s="71"/>
-      <c r="K91" s="68" t="s">
+      <c r="J91" s="75"/>
+      <c r="K91" s="72" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="92" s="7" customFormat="true" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="67" t="n">
+      <c r="A92" s="71" t="n">
         <v>66</v>
       </c>
-      <c r="B92" s="68" t="s">
+      <c r="B92" s="72" t="s">
         <v>275</v>
       </c>
-      <c r="C92" s="69" t="s">
+      <c r="C92" s="73" t="s">
         <v>276</v>
       </c>
-      <c r="D92" s="69" t="s">
+      <c r="D92" s="73" t="s">
         <v>277</v>
       </c>
-      <c r="E92" s="67" t="s">
-        <v>23</v>
-      </c>
-      <c r="F92" s="67" t="s">
+      <c r="E92" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="F92" s="71" t="s">
         <v>270</v>
       </c>
-      <c r="G92" s="67" t="s">
+      <c r="G92" s="71" t="s">
         <v>278</v>
       </c>
-      <c r="H92" s="70" t="s">
+      <c r="H92" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="I92" s="67" t="s">
-        <v>18</v>
-      </c>
-      <c r="J92" s="71"/>
-      <c r="K92" s="68" t="s">
+      <c r="I92" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="J92" s="75"/>
+      <c r="K92" s="72" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="93" s="7" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="67" t="n">
+      <c r="A93" s="71" t="n">
         <v>67</v>
       </c>
-      <c r="B93" s="68" t="s">
+      <c r="B93" s="72" t="s">
         <v>279</v>
       </c>
-      <c r="C93" s="69" t="s">
+      <c r="C93" s="73" t="s">
         <v>280</v>
       </c>
-      <c r="D93" s="69" t="s">
+      <c r="D93" s="73" t="s">
         <v>281</v>
       </c>
-      <c r="E93" s="67" t="s">
-        <v>23</v>
-      </c>
-      <c r="F93" s="67" t="s">
+      <c r="E93" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="F93" s="71" t="s">
         <v>270</v>
       </c>
-      <c r="G93" s="67" t="s">
+      <c r="G93" s="71" t="s">
         <v>273</v>
       </c>
-      <c r="H93" s="70" t="s">
+      <c r="H93" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="I93" s="67" t="s">
-        <v>18</v>
-      </c>
-      <c r="J93" s="71"/>
-      <c r="K93" s="68" t="s">
+      <c r="I93" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="J93" s="75"/>
+      <c r="K93" s="72" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="94" s="7" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="61" t="n">
+      <c r="A94" s="68" t="n">
         <f aca="false">A93+1</f>
         <v>68</v>
       </c>
-      <c r="B94" s="63" t="s">
+      <c r="B94" s="66" t="s">
         <v>282</v>
       </c>
-      <c r="C94" s="60" t="s">
+      <c r="C94" s="67" t="s">
         <v>283</v>
       </c>
-      <c r="D94" s="60" t="s">
+      <c r="D94" s="67" t="s">
         <v>284</v>
       </c>
-      <c r="E94" s="61" t="s">
+      <c r="E94" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="F94" s="61" t="s">
+      <c r="F94" s="68" t="s">
         <v>238</v>
       </c>
-      <c r="G94" s="61" t="s">
+      <c r="G94" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="H94" s="62" t="s">
+      <c r="H94" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="I94" s="61" t="s">
+      <c r="I94" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="J94" s="72"/>
-      <c r="K94" s="63" t="s">
+      <c r="J94" s="76"/>
+      <c r="K94" s="66" t="s">
         <v>76</v>
       </c>
     </row>
@@ -7533,7 +7548,7 @@
       <c r="I95" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="J95" s="73" t="s">
+      <c r="J95" s="77" t="s">
         <v>132</v>
       </c>
       <c r="K95" s="45" t="s">
@@ -7571,7 +7586,7 @@
       <c r="I96" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="J96" s="74"/>
+      <c r="J96" s="78"/>
       <c r="K96" s="45" t="s">
         <v>76</v>
       </c>
@@ -7607,7 +7622,7 @@
       <c r="I97" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="J97" s="66" t="s">
+      <c r="J97" s="70" t="s">
         <v>164</v>
       </c>
       <c r="K97" s="45" t="s">
@@ -7645,7 +7660,7 @@
       <c r="I98" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="J98" s="66"/>
+      <c r="J98" s="70"/>
       <c r="K98" s="45" t="s">
         <v>76</v>
       </c>
@@ -7681,7 +7696,7 @@
       <c r="I99" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="J99" s="66"/>
+      <c r="J99" s="70"/>
       <c r="K99" s="45" t="s">
         <v>76</v>
       </c>
@@ -7717,7 +7732,7 @@
       <c r="I100" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="J100" s="74"/>
+      <c r="J100" s="78"/>
       <c r="K100" s="45" t="s">
         <v>76</v>
       </c>
@@ -7753,7 +7768,7 @@
       <c r="I101" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="J101" s="75" t="s">
+      <c r="J101" s="79" t="s">
         <v>299</v>
       </c>
       <c r="K101" s="45" t="s">
@@ -7791,7 +7806,7 @@
       <c r="I102" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="J102" s="75" t="s">
+      <c r="J102" s="79" t="s">
         <v>304</v>
       </c>
       <c r="K102" s="45" t="s">
@@ -7829,7 +7844,7 @@
       <c r="I103" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="J103" s="76" t="s">
+      <c r="J103" s="80" t="s">
         <v>308</v>
       </c>
       <c r="K103" s="40" t="s">
@@ -7837,73 +7852,73 @@
       </c>
     </row>
     <row r="104" s="7" customFormat="true" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="67" t="n">
+      <c r="A104" s="71" t="n">
         <f aca="false">A103+1</f>
         <v>78</v>
       </c>
-      <c r="B104" s="68" t="s">
+      <c r="B104" s="72" t="s">
         <v>310</v>
       </c>
-      <c r="C104" s="69" t="s">
+      <c r="C104" s="73" t="s">
         <v>311</v>
       </c>
-      <c r="D104" s="69" t="s">
+      <c r="D104" s="73" t="s">
         <v>312</v>
       </c>
-      <c r="E104" s="67" t="s">
-        <v>23</v>
-      </c>
-      <c r="F104" s="67" t="s">
+      <c r="E104" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="F104" s="71" t="s">
         <v>313</v>
       </c>
-      <c r="G104" s="67" t="s">
+      <c r="G104" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="H104" s="70" t="s">
+      <c r="H104" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="I104" s="67" t="s">
+      <c r="I104" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="J104" s="77" t="s">
+      <c r="J104" s="81" t="s">
         <v>314</v>
       </c>
-      <c r="K104" s="68" t="s">
+      <c r="K104" s="72" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="105" s="7" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="61" t="n">
+      <c r="A105" s="68" t="n">
         <f aca="false">A103+1</f>
         <v>78</v>
       </c>
-      <c r="B105" s="63" t="str">
+      <c r="B105" s="66" t="str">
         <f aca="false">CONCATENATE("Ca",TEXT(A105-$A$73, "00"))</f>
         <v>Ca28</v>
       </c>
-      <c r="C105" s="60" t="s">
+      <c r="C105" s="67" t="s">
         <v>316</v>
       </c>
-      <c r="D105" s="60" t="s">
+      <c r="D105" s="67" t="s">
         <v>317</v>
       </c>
-      <c r="E105" s="61" t="s">
+      <c r="E105" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="F105" s="61" t="s">
+      <c r="F105" s="68" t="s">
         <v>313</v>
       </c>
-      <c r="G105" s="61" t="s">
+      <c r="G105" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="H105" s="62" t="s">
+      <c r="H105" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="I105" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="J105" s="78"/>
-      <c r="K105" s="63" t="s">
+      <c r="I105" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="J105" s="82"/>
+      <c r="K105" s="66" t="s">
         <v>76</v>
       </c>
     </row>
@@ -7935,47 +7950,47 @@
       <c r="I106" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="J106" s="79" t="s">
+      <c r="J106" s="83" t="s">
         <v>132</v>
       </c>
       <c r="K106" s="45" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="107" s="7" customFormat="true" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="44" t="n">
+    <row r="107" s="7" customFormat="true" ht="77.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="68" t="n">
         <f aca="false">A106+1</f>
         <v>80</v>
       </c>
-      <c r="B107" s="45" t="str">
+      <c r="B107" s="66" t="str">
         <f aca="false">CONCATENATE("Ca",TEXT(A107-$A$73, "00"))</f>
         <v>Ca30</v>
       </c>
-      <c r="C107" s="46" t="s">
+      <c r="C107" s="67" t="s">
         <v>320</v>
       </c>
-      <c r="D107" s="46" t="s">
+      <c r="D107" s="67" t="s">
         <v>321</v>
       </c>
-      <c r="E107" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="F107" s="44" t="s">
+      <c r="E107" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="F107" s="68" t="s">
         <v>322</v>
       </c>
-      <c r="G107" s="44" t="s">
+      <c r="G107" s="68" t="s">
         <v>323</v>
       </c>
-      <c r="H107" s="47" t="s">
+      <c r="H107" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="I107" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="J107" s="75" t="s">
+      <c r="I107" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="J107" s="82" t="s">
         <v>324</v>
       </c>
-      <c r="K107" s="45" t="s">
+      <c r="K107" s="66" t="s">
         <v>76</v>
       </c>
     </row>
@@ -8009,7 +8024,7 @@
       <c r="I108" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="J108" s="75"/>
+      <c r="J108" s="79"/>
       <c r="K108" s="45" t="s">
         <v>76</v>
       </c>
@@ -8044,7 +8059,7 @@
       <c r="I109" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="J109" s="75"/>
+      <c r="J109" s="79"/>
       <c r="K109" s="45" t="s">
         <v>76</v>
       </c>
@@ -8079,7 +8094,7 @@
       <c r="I110" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="J110" s="78" t="s">
+      <c r="J110" s="84" t="s">
         <v>331</v>
       </c>
       <c r="K110" s="63" t="s">
@@ -8114,7 +8129,7 @@
       <c r="I111" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="J111" s="79" t="s">
+      <c r="J111" s="83" t="s">
         <v>132</v>
       </c>
       <c r="K111" s="45" t="s">
@@ -8151,7 +8166,7 @@
       <c r="I112" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="J112" s="76" t="s">
+      <c r="J112" s="80" t="s">
         <v>337</v>
       </c>
       <c r="K112" s="40" t="s">
@@ -8225,7 +8240,7 @@
       <c r="I114" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="J114" s="75"/>
+      <c r="J114" s="79"/>
       <c r="K114" s="45" t="s">
         <v>76</v>
       </c>
@@ -8260,7 +8275,7 @@
       <c r="I115" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="J115" s="78"/>
+      <c r="J115" s="84"/>
       <c r="K115" s="63" t="s">
         <v>76</v>
       </c>
@@ -8295,7 +8310,7 @@
       <c r="I116" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="J116" s="80" t="s">
+      <c r="J116" s="85" t="s">
         <v>349</v>
       </c>
       <c r="K116" s="45" t="s">
@@ -8332,7 +8347,7 @@
       <c r="I117" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="J117" s="80"/>
+      <c r="J117" s="85"/>
       <c r="K117" s="45" t="s">
         <v>76</v>
       </c>
@@ -8367,7 +8382,7 @@
       <c r="I118" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="J118" s="81" t="s">
+      <c r="J118" s="86" t="s">
         <v>354</v>
       </c>
       <c r="K118" s="45" t="s">
@@ -8404,7 +8419,7 @@
       <c r="I119" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="J119" s="81" t="s">
+      <c r="J119" s="86" t="s">
         <v>357</v>
       </c>
       <c r="K119" s="45" t="s">
@@ -8412,35 +8427,35 @@
       </c>
     </row>
     <row r="120" s="7" customFormat="true" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="67" t="n">
+      <c r="A120" s="71" t="n">
         <v>90</v>
       </c>
-      <c r="B120" s="68" t="s">
+      <c r="B120" s="72" t="s">
         <v>358</v>
       </c>
-      <c r="C120" s="69" t="s">
+      <c r="C120" s="73" t="s">
         <v>359</v>
       </c>
-      <c r="D120" s="69" t="s">
+      <c r="D120" s="73" t="s">
         <v>360</v>
       </c>
-      <c r="E120" s="67" t="s">
-        <v>23</v>
-      </c>
-      <c r="F120" s="67" t="s">
+      <c r="E120" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="F120" s="71" t="s">
         <v>238</v>
       </c>
-      <c r="G120" s="67" t="s">
+      <c r="G120" s="71" t="s">
         <v>361</v>
       </c>
-      <c r="H120" s="70" t="s">
+      <c r="H120" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="I120" s="67"/>
-      <c r="J120" s="82" t="s">
+      <c r="I120" s="71"/>
+      <c r="J120" s="87" t="s">
         <v>362</v>
       </c>
-      <c r="K120" s="68" t="s">
+      <c r="K120" s="72" t="s">
         <v>315</v>
       </c>
     </row>
@@ -8904,7 +8919,7 @@
       <c r="I131" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="J131" s="83" t="s">
+      <c r="J131" s="88" t="s">
         <v>396</v>
       </c>
       <c r="K131" s="63" t="s">
@@ -9860,7 +9875,7 @@
       <c r="R152" s="7"/>
       <c r="S152" s="7"/>
     </row>
-    <row r="153" s="84" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" s="89" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="61" t="n">
         <f aca="false">A152+1</f>
         <v>123</v>
@@ -9935,7 +9950,7 @@
       <c r="I154" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="J154" s="85" t="s">
+      <c r="J154" s="90" t="s">
         <v>400</v>
       </c>
       <c r="K154" s="40" t="s">
@@ -9980,7 +9995,7 @@
       <c r="I155" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="J155" s="85"/>
+      <c r="J155" s="90"/>
       <c r="K155" s="40" t="s">
         <v>20</v>
       </c>
@@ -10391,40 +10406,40 @@
       <c r="S164" s="7"/>
     </row>
     <row r="165" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="44" t="n">
+      <c r="A165" s="68" t="n">
         <f aca="false">A164+1</f>
         <v>135</v>
       </c>
-      <c r="B165" s="45" t="str">
+      <c r="B165" s="66" t="str">
         <f aca="false">CONCATENATE("Ca",TEXT(A165-$A$73, "00"))</f>
         <v>Ca85</v>
       </c>
-      <c r="C165" s="45" t="s">
+      <c r="C165" s="66" t="s">
         <v>471</v>
       </c>
-      <c r="D165" s="45" t="s">
+      <c r="D165" s="66" t="s">
         <v>472</v>
       </c>
-      <c r="E165" s="44" t="s">
+      <c r="E165" s="68" t="s">
         <v>473</v>
       </c>
-      <c r="F165" s="44" t="s">
+      <c r="F165" s="68" t="s">
         <v>465</v>
       </c>
-      <c r="G165" s="44" t="s">
+      <c r="G165" s="68" t="s">
         <v>267</v>
       </c>
-      <c r="H165" s="47" t="s">
+      <c r="H165" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="I165" s="44" t="s">
+      <c r="I165" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="J165" s="45" t="s">
+      <c r="J165" s="66" t="s">
         <v>474</v>
       </c>
-      <c r="K165" s="45" t="s">
-        <v>300</v>
+      <c r="K165" s="66" t="s">
+        <v>475</v>
       </c>
       <c r="L165" s="7"/>
       <c r="M165" s="7"/>
@@ -10445,10 +10460,10 @@
         <v>Ca86</v>
       </c>
       <c r="C166" s="45" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D166" s="45" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E166" s="44" t="s">
         <v>23</v>
@@ -10470,7 +10485,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="167" s="7" customFormat="true" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" s="7" customFormat="true" ht="69.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="44" t="n">
         <f aca="false">A166+1</f>
         <v>137</v>
@@ -10480,10 +10495,10 @@
         <v>Ca87</v>
       </c>
       <c r="C167" s="45" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D167" s="45" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E167" s="44" t="s">
         <v>23</v>
@@ -10501,7 +10516,7 @@
         <v>35</v>
       </c>
       <c r="J167" s="46" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K167" s="45" t="s">
         <v>300</v>
@@ -10517,10 +10532,10 @@
         <v>Ca88</v>
       </c>
       <c r="C168" s="45" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D168" s="45" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E168" s="44" t="s">
         <v>23</v>
@@ -10538,7 +10553,7 @@
         <v>35</v>
       </c>
       <c r="J168" s="46" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K168" s="45" t="s">
         <v>300</v>
@@ -10554,10 +10569,10 @@
         <v>Ca89</v>
       </c>
       <c r="C169" s="63" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D169" s="63" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E169" s="61" t="s">
         <v>15</v>
@@ -10589,14 +10604,14 @@
         <v>Ca90</v>
       </c>
       <c r="C170" s="45" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D170" s="45"/>
       <c r="E170" s="44" t="s">
         <v>15</v>
       </c>
       <c r="F170" s="44" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="G170" s="44" t="s">
         <v>17</v>
@@ -10624,16 +10639,16 @@
         <v>Ca91</v>
       </c>
       <c r="C171" s="45" t="s">
+        <v>488</v>
+      </c>
+      <c r="D171" s="45" t="s">
+        <v>489</v>
+      </c>
+      <c r="E171" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="F171" s="44" t="s">
         <v>487</v>
-      </c>
-      <c r="D171" s="45" t="s">
-        <v>488</v>
-      </c>
-      <c r="E171" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="F171" s="44" t="s">
-        <v>486</v>
       </c>
       <c r="G171" s="44" t="s">
         <v>267</v>
@@ -10704,7 +10719,7 @@
     </row>
     <row r="174" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="17" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B174" s="17"/>
       <c r="C174" s="17"/>
@@ -10731,13 +10746,13 @@
         <v>142</v>
       </c>
       <c r="B175" s="63" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C175" s="60" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D175" s="60" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E175" s="61" t="s">
         <v>234</v>
@@ -10755,7 +10770,7 @@
         <v>18</v>
       </c>
       <c r="J175" s="63" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="K175" s="63" t="s">
         <v>20</v>
@@ -10775,22 +10790,22 @@
         <v>143</v>
       </c>
       <c r="B176" s="40" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C176" s="41" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D176" s="41" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E176" s="39" t="s">
         <v>23</v>
       </c>
       <c r="F176" s="39" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="G176" s="39" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H176" s="42" t="s">
         <v>26</v>
@@ -10799,7 +10814,7 @@
         <v>18</v>
       </c>
       <c r="J176" s="40" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="K176" s="40" t="s">
         <v>20</v>
@@ -10819,22 +10834,22 @@
         <v>144</v>
       </c>
       <c r="B177" s="40" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C177" s="41" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D177" s="41" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E177" s="39" t="s">
         <v>23</v>
       </c>
       <c r="F177" s="39" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="G177" s="39" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H177" s="42" t="s">
         <v>26</v>
@@ -10843,7 +10858,7 @@
         <v>18</v>
       </c>
       <c r="J177" s="40" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="K177" s="40" t="s">
         <v>20</v>
@@ -10863,22 +10878,22 @@
         <v>145</v>
       </c>
       <c r="B178" s="40" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C178" s="41" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D178" s="41" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E178" s="39" t="s">
         <v>23</v>
       </c>
       <c r="F178" s="39" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="G178" s="39" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H178" s="42" t="s">
         <v>26</v>
@@ -10887,7 +10902,7 @@
         <v>18</v>
       </c>
       <c r="J178" s="40" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="K178" s="40" t="s">
         <v>20</v>
@@ -10907,22 +10922,22 @@
         <v>146</v>
       </c>
       <c r="B179" s="40" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C179" s="41" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D179" s="41" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E179" s="39" t="s">
         <v>23</v>
       </c>
       <c r="F179" s="39" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="G179" s="39" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H179" s="42" t="s">
         <v>26</v>
@@ -10931,7 +10946,7 @@
         <v>18</v>
       </c>
       <c r="J179" s="40" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="K179" s="40" t="s">
         <v>20</v>
@@ -10951,22 +10966,22 @@
         <v>147</v>
       </c>
       <c r="B180" s="40" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C180" s="41" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D180" s="41" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E180" s="39" t="s">
         <v>23</v>
       </c>
       <c r="F180" s="39" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="G180" s="39" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H180" s="42" t="s">
         <v>26</v>
@@ -10975,7 +10990,7 @@
         <v>18</v>
       </c>
       <c r="J180" s="40" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="K180" s="40" t="s">
         <v>20</v>
@@ -10995,19 +11010,19 @@
         <v>148</v>
       </c>
       <c r="B181" s="40" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C181" s="41" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D181" s="41" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E181" s="39" t="s">
         <v>23</v>
       </c>
       <c r="F181" s="39" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="G181" s="39" t="s">
         <v>93</v>
@@ -11088,7 +11103,7 @@
     </row>
     <row r="184" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="17" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B184" s="17"/>
       <c r="C184" s="17"/>
@@ -11115,13 +11130,13 @@
         <v>149</v>
       </c>
       <c r="B185" s="63" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C185" s="60" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D185" s="60" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="E185" s="61" t="s">
         <v>234</v>
@@ -11139,7 +11154,7 @@
         <v>18</v>
       </c>
       <c r="J185" s="63" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="K185" s="63" t="s">
         <v>20</v>
@@ -11159,19 +11174,19 @@
         <v>150</v>
       </c>
       <c r="B186" s="45" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C186" s="46" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D186" s="46" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E186" s="44" t="s">
         <v>23</v>
       </c>
       <c r="F186" s="44" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G186" s="44" t="s">
         <v>25</v>
@@ -11193,19 +11208,19 @@
         <v>151</v>
       </c>
       <c r="B187" s="40" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C187" s="41" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D187" s="41" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E187" s="39" t="s">
         <v>23</v>
       </c>
       <c r="F187" s="39" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G187" s="39" t="s">
         <v>323</v>
@@ -11217,7 +11232,7 @@
         <v>18</v>
       </c>
       <c r="J187" s="41" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="K187" s="40" t="s">
         <v>20</v>
@@ -11237,19 +11252,19 @@
         <v>152</v>
       </c>
       <c r="B188" s="40" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C188" s="41" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D188" s="41" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E188" s="39" t="s">
         <v>23</v>
       </c>
       <c r="F188" s="39" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G188" s="39" t="s">
         <v>25</v>
@@ -11279,19 +11294,19 @@
         <v>153</v>
       </c>
       <c r="B189" s="40" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C189" s="41" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D189" s="41" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E189" s="39" t="s">
         <v>23</v>
       </c>
       <c r="F189" s="39" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G189" s="39" t="s">
         <v>140</v>
@@ -11319,19 +11334,19 @@
         <v>154</v>
       </c>
       <c r="B190" s="40" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C190" s="41" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D190" s="41" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E190" s="39" t="s">
         <v>23</v>
       </c>
       <c r="F190" s="39" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G190" s="39" t="s">
         <v>25</v>
@@ -11361,19 +11376,19 @@
         <v>155</v>
       </c>
       <c r="B191" s="40" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C191" s="41" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D191" s="41" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="E191" s="39" t="s">
         <v>23</v>
       </c>
       <c r="F191" s="39" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G191" s="39" t="s">
         <v>348</v>
@@ -11385,7 +11400,7 @@
         <v>18</v>
       </c>
       <c r="J191" s="40" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="K191" s="40" t="s">
         <v>20</v>
@@ -11405,19 +11420,19 @@
         <v>156</v>
       </c>
       <c r="B192" s="40" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C192" s="41" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D192" s="41" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="E192" s="39" t="s">
         <v>23</v>
       </c>
       <c r="F192" s="39" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G192" s="39" t="s">
         <v>348</v>
@@ -11429,7 +11444,7 @@
         <v>18</v>
       </c>
       <c r="J192" s="40" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="K192" s="40" t="s">
         <v>20</v>
@@ -11449,22 +11464,22 @@
         <v>157</v>
       </c>
       <c r="B193" s="45" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C193" s="46" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D193" s="46" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E193" s="44" t="s">
         <v>23</v>
       </c>
       <c r="F193" s="44" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G193" s="44" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H193" s="47" t="s">
         <v>34</v>
@@ -11483,19 +11498,19 @@
         <v>158</v>
       </c>
       <c r="B194" s="45" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C194" s="46" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D194" s="46" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E194" s="44" t="s">
         <v>23</v>
       </c>
       <c r="F194" s="44" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G194" s="44" t="s">
         <v>43</v>
@@ -11507,7 +11522,7 @@
         <v>35</v>
       </c>
       <c r="J194" s="46" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="K194" s="45" t="s">
         <v>76</v>
@@ -11519,19 +11534,19 @@
         <v>159</v>
       </c>
       <c r="B195" s="63" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C195" s="60" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D195" s="60" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="E195" s="61" t="s">
         <v>15</v>
       </c>
       <c r="F195" s="61" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G195" s="61" t="s">
         <v>17</v>
@@ -11561,25 +11576,25 @@
         <v>160</v>
       </c>
       <c r="B196" s="40" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C196" s="41" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D196" s="41" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E196" s="39" t="s">
         <v>15</v>
       </c>
       <c r="F196" s="39" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="G196" s="39" t="s">
         <v>17</v>
       </c>
       <c r="H196" s="42" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="I196" s="39" t="s">
         <v>18</v>
@@ -11605,19 +11620,19 @@
         <v>161</v>
       </c>
       <c r="B197" s="40" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C197" s="41" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D197" s="41" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E197" s="39" t="s">
         <v>23</v>
       </c>
       <c r="F197" s="39" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="G197" s="39" t="s">
         <v>210</v>
@@ -11629,7 +11644,7 @@
         <v>18</v>
       </c>
       <c r="J197" s="40" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="K197" s="40" t="s">
         <v>20</v>
@@ -11649,19 +11664,19 @@
         <v>162</v>
       </c>
       <c r="B198" s="40" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C198" s="41" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D198" s="41" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="E198" s="39" t="s">
         <v>23</v>
       </c>
       <c r="F198" s="39" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="G198" s="39" t="s">
         <v>140</v>
@@ -11689,19 +11704,19 @@
         <v>163</v>
       </c>
       <c r="B199" s="63" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C199" s="60" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D199" s="60" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="E199" s="61" t="s">
         <v>15</v>
       </c>
       <c r="F199" s="61" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G199" s="61" t="s">
         <v>17</v>
@@ -11731,25 +11746,25 @@
         <v>164</v>
       </c>
       <c r="B200" s="40" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C200" s="41" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D200" s="41" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="E200" s="39" t="s">
         <v>15</v>
       </c>
       <c r="F200" s="39" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="G200" s="39" t="s">
         <v>17</v>
       </c>
       <c r="H200" s="42" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="I200" s="39" t="s">
         <v>18</v>
@@ -11775,19 +11790,19 @@
         <v>165</v>
       </c>
       <c r="B201" s="40" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C201" s="41" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D201" s="41" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="E201" s="39" t="s">
         <v>23</v>
       </c>
       <c r="F201" s="39" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="G201" s="39" t="s">
         <v>210</v>
@@ -11799,7 +11814,7 @@
         <v>18</v>
       </c>
       <c r="J201" s="40" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="K201" s="40" t="s">
         <v>20</v>
@@ -11819,19 +11834,19 @@
         <v>166</v>
       </c>
       <c r="B202" s="40" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C202" s="41" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D202" s="41" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E202" s="39" t="s">
         <v>23</v>
       </c>
       <c r="F202" s="39" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="G202" s="39" t="s">
         <v>140</v>
@@ -11859,19 +11874,19 @@
         <v>167</v>
       </c>
       <c r="B203" s="63" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C203" s="63" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D203" s="63" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E203" s="61" t="s">
         <v>15</v>
       </c>
       <c r="F203" s="61" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G203" s="61" t="s">
         <v>17</v>
@@ -11901,25 +11916,25 @@
         <v>168</v>
       </c>
       <c r="B204" s="40" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C204" s="40" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D204" s="40" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E204" s="39" t="s">
         <v>15</v>
       </c>
       <c r="F204" s="39" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="G204" s="39" t="s">
         <v>17</v>
       </c>
       <c r="H204" s="42" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="I204" s="39" t="s">
         <v>18</v>
@@ -11945,19 +11960,19 @@
         <v>169</v>
       </c>
       <c r="B205" s="40" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C205" s="40" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D205" s="40" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="E205" s="39" t="s">
         <v>23</v>
       </c>
       <c r="F205" s="39" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="G205" s="39" t="s">
         <v>25</v>
@@ -11987,19 +12002,19 @@
         <v>170</v>
       </c>
       <c r="B206" s="45" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C206" s="45" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D206" s="45" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="E206" s="44" t="s">
         <v>23</v>
       </c>
       <c r="F206" s="44" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="G206" s="44" t="s">
         <v>140</v>
@@ -12021,19 +12036,19 @@
         <v>171</v>
       </c>
       <c r="B207" s="63" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C207" s="63" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D207" s="60" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="E207" s="61" t="s">
         <v>15</v>
       </c>
       <c r="F207" s="61" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G207" s="61" t="s">
         <v>17</v>
@@ -12063,13 +12078,13 @@
         <v>172</v>
       </c>
       <c r="B208" s="40" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C208" s="40" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D208" s="41" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E208" s="39" t="s">
         <v>15</v>
@@ -12082,7 +12097,7 @@
         <v>17</v>
       </c>
       <c r="H208" s="42" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="I208" s="39" t="s">
         <v>18</v>
@@ -12108,19 +12123,19 @@
         <v>173</v>
       </c>
       <c r="B209" s="40" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C209" s="40" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D209" s="40" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="E209" s="39" t="s">
         <v>23</v>
       </c>
       <c r="F209" s="39" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="G209" s="39" t="s">
         <v>267</v>
@@ -12132,7 +12147,7 @@
         <v>18</v>
       </c>
       <c r="J209" s="40" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="K209" s="40" t="s">
         <v>20</v>
@@ -12152,19 +12167,19 @@
         <v>174</v>
       </c>
       <c r="B210" s="40" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C210" s="40" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D210" s="40" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E210" s="39" t="s">
         <v>23</v>
       </c>
       <c r="F210" s="39" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="G210" s="39" t="s">
         <v>43</v>
@@ -12176,7 +12191,7 @@
         <v>18</v>
       </c>
       <c r="J210" s="40" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="K210" s="40" t="s">
         <v>20</v>
@@ -12196,19 +12211,19 @@
         <v>175</v>
       </c>
       <c r="B211" s="63" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C211" s="63" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D211" s="60" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="E211" s="61" t="s">
         <v>15</v>
       </c>
       <c r="F211" s="61" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G211" s="61" t="s">
         <v>17</v>
@@ -12230,17 +12245,17 @@
         <v>176</v>
       </c>
       <c r="B212" s="45" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C212" s="45" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D212" s="45"/>
       <c r="E212" s="44" t="s">
         <v>15</v>
       </c>
       <c r="F212" s="44" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="G212" s="44" t="s">
         <v>17</v>
@@ -12264,19 +12279,19 @@
         <v>177</v>
       </c>
       <c r="B213" s="45" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C213" s="45" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D213" s="45" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="E213" s="44" t="s">
         <v>23</v>
       </c>
       <c r="F213" s="44" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="G213" s="44" t="s">
         <v>267</v>
@@ -12298,19 +12313,19 @@
         <v>178</v>
       </c>
       <c r="B214" s="45" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C214" s="45" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D214" s="45" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E214" s="44" t="s">
         <v>23</v>
       </c>
       <c r="F214" s="44" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="G214" s="44" t="s">
         <v>66</v>
@@ -12322,7 +12337,7 @@
         <v>18</v>
       </c>
       <c r="J214" s="46" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="K214" s="45" t="s">
         <v>76</v>
@@ -12383,7 +12398,7 @@
     </row>
     <row r="217" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="17" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B217" s="17"/>
       <c r="C217" s="17"/>
@@ -12410,13 +12425,13 @@
         <v>179</v>
       </c>
       <c r="B218" s="40" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C218" s="41" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D218" s="41" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="E218" s="39" t="s">
         <v>234</v>
@@ -12434,7 +12449,7 @@
         <v>18</v>
       </c>
       <c r="J218" s="40" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="K218" s="40" t="s">
         <v>20</v>
@@ -12454,19 +12469,19 @@
         <v>180</v>
       </c>
       <c r="B219" s="63" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C219" s="60" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D219" s="60" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="E219" s="61" t="s">
         <v>15</v>
       </c>
       <c r="F219" s="61" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="G219" s="61" t="s">
         <v>17</v>
@@ -12496,19 +12511,19 @@
         <v>181</v>
       </c>
       <c r="B220" s="40" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C220" s="41" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D220" s="41" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="E220" s="39" t="s">
         <v>23</v>
       </c>
       <c r="F220" s="39" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="G220" s="39" t="s">
         <v>25</v>
@@ -12538,19 +12553,19 @@
         <v>182</v>
       </c>
       <c r="B221" s="40" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C221" s="41" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D221" s="41" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="E221" s="39" t="s">
         <v>23</v>
       </c>
       <c r="F221" s="39" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="G221" s="39" t="s">
         <v>93</v>
@@ -12562,7 +12577,7 @@
         <v>35</v>
       </c>
       <c r="J221" s="41" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="K221" s="40" t="s">
         <v>20</v>
@@ -12582,19 +12597,19 @@
         <v>183</v>
       </c>
       <c r="B222" s="40" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C222" s="41" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D222" s="41" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="E222" s="39" t="s">
         <v>23</v>
       </c>
       <c r="F222" s="39" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="G222" s="39" t="s">
         <v>80</v>
@@ -12606,7 +12621,7 @@
         <v>18</v>
       </c>
       <c r="J222" s="41" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="K222" s="40" t="s">
         <v>20</v>
@@ -12626,19 +12641,19 @@
         <v>184</v>
       </c>
       <c r="B223" s="40" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C223" s="41" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D223" s="41" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E223" s="39" t="s">
         <v>23</v>
       </c>
       <c r="F223" s="39" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="G223" s="39" t="s">
         <v>80</v>
@@ -12650,7 +12665,7 @@
         <v>18</v>
       </c>
       <c r="J223" s="41" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="K223" s="40" t="s">
         <v>20</v>
@@ -12670,19 +12685,19 @@
         <v>185</v>
       </c>
       <c r="B224" s="40" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C224" s="41" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D224" s="41" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E224" s="39" t="s">
         <v>23</v>
       </c>
       <c r="F224" s="39" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="G224" s="39" t="s">
         <v>381</v>
@@ -12694,7 +12709,7 @@
         <v>18</v>
       </c>
       <c r="J224" s="41" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="K224" s="40" t="s">
         <v>20</v>
@@ -12714,19 +12729,19 @@
         <v>186</v>
       </c>
       <c r="B225" s="63" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C225" s="60" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="D225" s="60" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="E225" s="61" t="s">
         <v>15</v>
       </c>
       <c r="F225" s="61" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="G225" s="61" t="s">
         <v>17</v>
@@ -12756,19 +12771,19 @@
         <v>187</v>
       </c>
       <c r="B226" s="40" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C226" s="41" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D226" s="41" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="E226" s="39" t="s">
         <v>15</v>
       </c>
       <c r="F226" s="39" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="G226" s="39" t="s">
         <v>17</v>
@@ -12800,22 +12815,22 @@
         <v>188</v>
       </c>
       <c r="B227" s="45" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C227" s="46" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D227" s="46" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="E227" s="44" t="s">
         <v>23</v>
       </c>
       <c r="F227" s="44" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="G227" s="44" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H227" s="47" t="s">
         <v>26</v>
@@ -12834,22 +12849,22 @@
         <v>189</v>
       </c>
       <c r="B228" s="45" t="s">
+        <v>660</v>
+      </c>
+      <c r="C228" s="46" t="s">
+        <v>661</v>
+      </c>
+      <c r="D228" s="46" t="s">
+        <v>662</v>
+      </c>
+      <c r="E228" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="F228" s="44" t="s">
+        <v>653</v>
+      </c>
+      <c r="G228" s="44" t="s">
         <v>659</v>
-      </c>
-      <c r="C228" s="46" t="s">
-        <v>660</v>
-      </c>
-      <c r="D228" s="46" t="s">
-        <v>661</v>
-      </c>
-      <c r="E228" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="F228" s="44" t="s">
-        <v>652</v>
-      </c>
-      <c r="G228" s="44" t="s">
-        <v>658</v>
       </c>
       <c r="H228" s="47" t="s">
         <v>26</v>
@@ -12868,19 +12883,19 @@
         <v>190</v>
       </c>
       <c r="B229" s="45" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C229" s="46" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D229" s="46" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E229" s="44" t="s">
         <v>23</v>
       </c>
       <c r="F229" s="44" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="G229" s="44" t="s">
         <v>80</v>
@@ -12902,19 +12917,19 @@
         <v>191</v>
       </c>
       <c r="B230" s="40" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C230" s="41" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D230" s="41" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="E230" s="39" t="s">
         <v>23</v>
       </c>
       <c r="F230" s="39" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="G230" s="39" t="s">
         <v>80</v>
@@ -12926,7 +12941,7 @@
         <v>18</v>
       </c>
       <c r="J230" s="40" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="K230" s="40" t="s">
         <v>20</v>
@@ -12946,19 +12961,19 @@
         <v>192</v>
       </c>
       <c r="B231" s="40" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C231" s="41" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D231" s="41" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="E231" s="39" t="s">
         <v>23</v>
       </c>
       <c r="F231" s="39" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="G231" s="39" t="s">
         <v>210</v>
@@ -12970,7 +12985,7 @@
         <v>18</v>
       </c>
       <c r="J231" s="41" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="K231" s="40" t="s">
         <v>20</v>
@@ -12990,19 +13005,19 @@
         <v>193</v>
       </c>
       <c r="B232" s="40" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C232" s="41" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D232" s="41" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="E232" s="39" t="s">
         <v>23</v>
       </c>
       <c r="F232" s="39" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="G232" s="39" t="s">
         <v>381</v>
@@ -13014,7 +13029,7 @@
         <v>35</v>
       </c>
       <c r="J232" s="41" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="K232" s="40" t="s">
         <v>20</v>
@@ -13034,22 +13049,22 @@
         <v>194</v>
       </c>
       <c r="B233" s="45" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C233" s="46" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="D233" s="46" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="E233" s="44" t="s">
         <v>23</v>
       </c>
       <c r="F233" s="44" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="G233" s="44" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H233" s="47" t="s">
         <v>26</v>
@@ -13058,7 +13073,7 @@
         <v>18</v>
       </c>
       <c r="J233" s="46" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="K233" s="45" t="s">
         <v>300</v>
@@ -13127,7 +13142,7 @@
     </row>
     <row r="236" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="17" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B236" s="17"/>
       <c r="C236" s="17"/>
@@ -13154,13 +13169,13 @@
         <v>195</v>
       </c>
       <c r="B237" s="40" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C237" s="41" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="D237" s="41" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="E237" s="39" t="s">
         <v>15</v>
@@ -13196,19 +13211,19 @@
         <v>196</v>
       </c>
       <c r="B238" s="63" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C238" s="60" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D238" s="60" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="E238" s="61" t="s">
         <v>15</v>
       </c>
       <c r="F238" s="61" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="G238" s="61" t="s">
         <v>17</v>
@@ -13238,30 +13253,30 @@
         <v>197</v>
       </c>
       <c r="B239" s="45" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C239" s="46" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="D239" s="46" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="E239" s="44" t="s">
         <v>15</v>
       </c>
       <c r="F239" s="44" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="G239" s="44" t="s">
         <v>17</v>
       </c>
       <c r="H239" s="47" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="I239" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="J239" s="86" t="s">
+      <c r="J239" s="91" t="s">
         <v>132</v>
       </c>
       <c r="K239" s="45" t="s">
@@ -13274,19 +13289,19 @@
         <v>198</v>
       </c>
       <c r="B240" s="40" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C240" s="41" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="D240" s="41" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="E240" s="39" t="s">
         <v>23</v>
       </c>
       <c r="F240" s="39" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="G240" s="39" t="s">
         <v>136</v>
@@ -13318,10 +13333,10 @@
         <v>199</v>
       </c>
       <c r="B241" s="40" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C241" s="41" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="D241" s="41" t="s">
         <v>139</v>
@@ -13330,7 +13345,7 @@
         <v>23</v>
       </c>
       <c r="F241" s="39" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="G241" s="39" t="s">
         <v>140</v>
@@ -13360,19 +13375,19 @@
         <v>200</v>
       </c>
       <c r="B242" s="63" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C242" s="60" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D242" s="60" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="E242" s="61" t="s">
         <v>15</v>
       </c>
       <c r="F242" s="61" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="G242" s="61" t="s">
         <v>17</v>
@@ -13402,19 +13417,19 @@
         <v>201</v>
       </c>
       <c r="B243" s="40" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C243" s="41" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="D243" s="41" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="E243" s="39" t="s">
         <v>15</v>
       </c>
       <c r="F243" s="39" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="G243" s="39" t="s">
         <v>17</v>
@@ -13446,19 +13461,19 @@
         <v>202</v>
       </c>
       <c r="B244" s="40" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C244" s="41" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="D244" s="41" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="E244" s="39" t="s">
         <v>23</v>
       </c>
       <c r="F244" s="39" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="G244" s="39" t="s">
         <v>66</v>
@@ -13470,7 +13485,7 @@
         <v>18</v>
       </c>
       <c r="J244" s="41" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="K244" s="40" t="s">
         <v>20</v>
@@ -13485,38 +13500,38 @@
       <c r="S244" s="7"/>
     </row>
     <row r="245" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="67" t="n">
+      <c r="A245" s="71" t="n">
         <f aca="false">A244+1</f>
         <v>203</v>
       </c>
-      <c r="B245" s="68" t="s">
-        <v>708</v>
-      </c>
-      <c r="C245" s="69" t="s">
+      <c r="B245" s="72" t="s">
         <v>709</v>
       </c>
-      <c r="D245" s="69" t="s">
+      <c r="C245" s="73" t="s">
         <v>710</v>
       </c>
-      <c r="E245" s="67" t="s">
-        <v>23</v>
-      </c>
-      <c r="F245" s="67" t="s">
-        <v>701</v>
-      </c>
-      <c r="G245" s="67" t="s">
+      <c r="D245" s="73" t="s">
         <v>711</v>
       </c>
-      <c r="H245" s="70" t="s">
+      <c r="E245" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="F245" s="71" t="s">
+        <v>702</v>
+      </c>
+      <c r="G245" s="71" t="s">
+        <v>712</v>
+      </c>
+      <c r="H245" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="I245" s="67" t="s">
+      <c r="I245" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="J245" s="69" t="s">
-        <v>712</v>
-      </c>
-      <c r="K245" s="68" t="s">
+      <c r="J245" s="73" t="s">
+        <v>713</v>
+      </c>
+      <c r="K245" s="72" t="s">
         <v>20</v>
       </c>
       <c r="L245" s="7"/>
@@ -13534,19 +13549,19 @@
         <v>204</v>
       </c>
       <c r="B246" s="40" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C246" s="41" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="D246" s="41" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="E246" s="39" t="s">
         <v>23</v>
       </c>
       <c r="F246" s="39" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="G246" s="39" t="s">
         <v>140</v>
@@ -13558,7 +13573,7 @@
         <v>35</v>
       </c>
       <c r="J246" s="41" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="K246" s="40" t="s">
         <v>20</v>
@@ -13578,19 +13593,19 @@
         <v>205</v>
       </c>
       <c r="B247" s="45" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C247" s="46" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="D247" s="46" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="E247" s="44" t="s">
         <v>23</v>
       </c>
       <c r="F247" s="44" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="G247" s="44" t="s">
         <v>66</v>
@@ -13602,7 +13617,7 @@
         <v>35</v>
       </c>
       <c r="J247" s="46" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="K247" s="45" t="s">
         <v>76</v>
@@ -13614,19 +13629,19 @@
         <v>206</v>
       </c>
       <c r="B248" s="63" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C248" s="60" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="D248" s="60" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="E248" s="61" t="s">
         <v>15</v>
       </c>
       <c r="F248" s="61" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="G248" s="61" t="s">
         <v>17</v>
@@ -13656,19 +13671,19 @@
         <v>207</v>
       </c>
       <c r="B249" s="40" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C249" s="41" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="D249" s="41" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="E249" s="39" t="s">
         <v>15</v>
       </c>
       <c r="F249" s="39" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G249" s="39" t="s">
         <v>17</v>
@@ -13700,19 +13715,19 @@
         <v>208</v>
       </c>
       <c r="B250" s="40" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C250" s="41" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D250" s="41" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="E250" s="39" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="F250" s="39" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G250" s="39" t="s">
         <v>66</v>
@@ -13724,7 +13739,7 @@
         <v>18</v>
       </c>
       <c r="J250" s="41" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="K250" s="40" t="s">
         <v>20</v>
@@ -13744,19 +13759,19 @@
         <v>209</v>
       </c>
       <c r="B251" s="40" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C251" s="41" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="D251" s="41" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="E251" s="39" t="s">
         <v>23</v>
       </c>
       <c r="F251" s="39" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G251" s="39" t="s">
         <v>267</v>
@@ -13768,7 +13783,7 @@
         <v>18</v>
       </c>
       <c r="J251" s="41" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="K251" s="40" t="s">
         <v>20</v>
@@ -13788,19 +13803,19 @@
         <v>210</v>
       </c>
       <c r="B252" s="63" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C252" s="60" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D252" s="60" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="E252" s="61" t="s">
         <v>15</v>
       </c>
       <c r="F252" s="61" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G252" s="61" t="s">
         <v>17</v>
@@ -13830,19 +13845,19 @@
         <v>211</v>
       </c>
       <c r="B253" s="40" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C253" s="41" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D253" s="41" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="E253" s="39" t="s">
         <v>15</v>
       </c>
       <c r="F253" s="39" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="G253" s="39" t="s">
         <v>17</v>
@@ -13874,19 +13889,19 @@
         <v>212</v>
       </c>
       <c r="B254" s="40" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C254" s="41" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="D254" s="41" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E254" s="39" t="s">
         <v>23</v>
       </c>
       <c r="F254" s="39" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G254" s="39" t="s">
         <v>267</v>
@@ -13898,7 +13913,7 @@
         <v>18</v>
       </c>
       <c r="J254" s="41" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="K254" s="40" t="s">
         <v>20</v>
@@ -13918,19 +13933,19 @@
         <v>213</v>
       </c>
       <c r="B255" s="63" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C255" s="60" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="D255" s="60" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="E255" s="61" t="s">
         <v>15</v>
       </c>
       <c r="F255" s="61" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G255" s="61" t="s">
         <v>17</v>
@@ -13942,7 +13957,7 @@
         <v>35</v>
       </c>
       <c r="J255" s="60" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="K255" s="63" t="s">
         <v>20</v>
@@ -13962,19 +13977,19 @@
         <v>214</v>
       </c>
       <c r="B256" s="40" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="C256" s="41" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="D256" s="41" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="E256" s="39" t="s">
         <v>15</v>
       </c>
       <c r="F256" s="39" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="G256" s="39" t="s">
         <v>17</v>
@@ -14006,19 +14021,19 @@
         <v>215</v>
       </c>
       <c r="B257" s="40" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C257" s="41" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="D257" s="41" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="E257" s="39" t="s">
         <v>23</v>
       </c>
       <c r="F257" s="39" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="G257" s="39" t="s">
         <v>66</v>
@@ -14030,7 +14045,7 @@
         <v>18</v>
       </c>
       <c r="J257" s="41" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="K257" s="40" t="s">
         <v>20</v>
@@ -14050,19 +14065,19 @@
         <v>216</v>
       </c>
       <c r="B258" s="40" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C258" s="41" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="D258" s="41" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="E258" s="39" t="s">
         <v>23</v>
       </c>
       <c r="F258" s="39" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="G258" s="39" t="s">
         <v>267</v>
@@ -14074,7 +14089,7 @@
         <v>18</v>
       </c>
       <c r="J258" s="41" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="K258" s="40" t="s">
         <v>20</v>
@@ -14094,22 +14109,22 @@
         <v>217</v>
       </c>
       <c r="B259" s="40" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C259" s="41" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="D259" s="41" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E259" s="39" t="s">
         <v>23</v>
       </c>
       <c r="F259" s="39" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="G259" s="39" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="H259" s="42" t="s">
         <v>34</v>
@@ -14118,7 +14133,7 @@
         <v>35</v>
       </c>
       <c r="J259" s="41" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="K259" s="40" t="s">
         <v>20</v>
@@ -14138,19 +14153,19 @@
         <v>218</v>
       </c>
       <c r="B260" s="63" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C260" s="60" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="D260" s="60" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="E260" s="61" t="s">
         <v>15</v>
       </c>
       <c r="F260" s="61" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="G260" s="61" t="s">
         <v>17</v>
@@ -14180,19 +14195,19 @@
         <v>219</v>
       </c>
       <c r="B261" s="40" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C261" s="41" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="D261" s="41" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="E261" s="39" t="s">
         <v>15</v>
       </c>
       <c r="F261" s="39" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="G261" s="39" t="s">
         <v>17</v>
@@ -14224,19 +14239,19 @@
         <v>220</v>
       </c>
       <c r="B262" s="40" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="C262" s="41" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="D262" s="41" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E262" s="39" t="s">
         <v>23</v>
       </c>
       <c r="F262" s="39" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="G262" s="39" t="s">
         <v>267</v>
@@ -14248,7 +14263,7 @@
         <v>18</v>
       </c>
       <c r="J262" s="41" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="K262" s="40" t="s">
         <v>20</v>
@@ -14268,19 +14283,19 @@
         <v>221</v>
       </c>
       <c r="B263" s="63" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="C263" s="60" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="D263" s="60" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="E263" s="61" t="s">
         <v>15</v>
       </c>
       <c r="F263" s="61" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="G263" s="61" t="s">
         <v>17</v>
@@ -14302,17 +14317,17 @@
         <v>222</v>
       </c>
       <c r="B264" s="45" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="C264" s="46" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="D264" s="46"/>
       <c r="E264" s="44" t="s">
         <v>15</v>
       </c>
       <c r="F264" s="44" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="G264" s="44" t="s">
         <v>17</v>
@@ -14323,7 +14338,7 @@
       <c r="I264" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="J264" s="86" t="s">
+      <c r="J264" s="91" t="s">
         <v>132</v>
       </c>
       <c r="K264" s="45" t="s">
@@ -14336,22 +14351,22 @@
         <v>223</v>
       </c>
       <c r="B265" s="45" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C265" s="46" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="D265" s="46" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="E265" s="44" t="s">
         <v>23</v>
       </c>
       <c r="F265" s="44" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="G265" s="44" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H265" s="47" t="s">
         <v>26</v>
@@ -14370,22 +14385,22 @@
         <v>224</v>
       </c>
       <c r="B266" s="45" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C266" s="46" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="D266" s="46" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="E266" s="44" t="s">
         <v>23</v>
       </c>
       <c r="F266" s="44" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="G266" s="44" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="H266" s="47" t="s">
         <v>34</v>
@@ -14404,22 +14419,22 @@
         <v>225</v>
       </c>
       <c r="B267" s="45" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="C267" s="46" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="D267" s="46" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="E267" s="44" t="s">
         <v>23</v>
       </c>
       <c r="F267" s="44" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="G267" s="44" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="H267" s="47" t="s">
         <v>34</v>
@@ -14438,22 +14453,22 @@
         <v>226</v>
       </c>
       <c r="B268" s="45" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="C268" s="46" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="D268" s="46" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="E268" s="44" t="s">
         <v>23</v>
       </c>
       <c r="F268" s="44" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="G268" s="44" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H268" s="47" t="s">
         <v>34</v>
@@ -14472,19 +14487,19 @@
         <v>227</v>
       </c>
       <c r="B269" s="45" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="C269" s="46" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="D269" s="46" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="E269" s="44" t="s">
         <v>23</v>
       </c>
       <c r="F269" s="44" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="G269" s="44" t="s">
         <v>267</v>
@@ -14506,19 +14521,19 @@
         <v>228</v>
       </c>
       <c r="B270" s="45" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="C270" s="46" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="D270" s="46" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="E270" s="44" t="s">
         <v>23</v>
       </c>
       <c r="F270" s="44" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="G270" s="44" t="s">
         <v>140</v>
@@ -14540,19 +14555,19 @@
         <v>229</v>
       </c>
       <c r="B271" s="63" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="C271" s="60" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="D271" s="60" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="E271" s="61" t="s">
         <v>15</v>
       </c>
       <c r="F271" s="61" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="G271" s="61" t="s">
         <v>17</v>
@@ -14564,7 +14579,7 @@
         <v>35</v>
       </c>
       <c r="J271" s="60" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="K271" s="63" t="s">
         <v>76</v>
@@ -14584,22 +14599,22 @@
         <v>230</v>
       </c>
       <c r="B272" s="45" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C272" s="46" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="D272" s="46" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="E272" s="44" t="s">
         <v>23</v>
       </c>
       <c r="F272" s="44" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="G272" s="44" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="H272" s="47" t="s">
         <v>26</v>
@@ -14608,7 +14623,7 @@
         <v>18</v>
       </c>
       <c r="J272" s="46" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="K272" s="45" t="s">
         <v>76</v>
@@ -14628,22 +14643,22 @@
         <v>231</v>
       </c>
       <c r="B273" s="45" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="C273" s="46" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="D273" s="46" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="E273" s="44" t="s">
         <v>23</v>
       </c>
       <c r="F273" s="44" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="G273" s="44" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="H273" s="47" t="s">
         <v>26</v>
@@ -14652,7 +14667,7 @@
         <v>18</v>
       </c>
       <c r="J273" s="46" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="K273" s="45" t="s">
         <v>76</v>
@@ -14720,19 +14735,19 @@
       <c r="S275" s="7"/>
     </row>
     <row r="276" s="7" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="87" t="s">
-        <v>810</v>
-      </c>
-      <c r="B276" s="87"/>
-      <c r="C276" s="87"/>
-      <c r="D276" s="87"/>
-      <c r="E276" s="87"/>
-      <c r="F276" s="87"/>
-      <c r="G276" s="87"/>
-      <c r="H276" s="87"/>
-      <c r="I276" s="87"/>
-      <c r="J276" s="87"/>
-      <c r="K276" s="87"/>
+      <c r="A276" s="92" t="s">
+        <v>811</v>
+      </c>
+      <c r="B276" s="92"/>
+      <c r="C276" s="92"/>
+      <c r="D276" s="92"/>
+      <c r="E276" s="92"/>
+      <c r="F276" s="92"/>
+      <c r="G276" s="92"/>
+      <c r="H276" s="92"/>
+      <c r="I276" s="92"/>
+      <c r="J276" s="92"/>
+      <c r="K276" s="92"/>
     </row>
     <row r="277" s="7" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="44" t="n">
@@ -14740,13 +14755,13 @@
         <v>232</v>
       </c>
       <c r="B277" s="45" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="C277" s="46" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="D277" s="46" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="E277" s="44" t="s">
         <v>15</v>
@@ -14774,17 +14789,17 @@
         <v>233</v>
       </c>
       <c r="B278" s="45" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C278" s="46" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="D278" s="46"/>
       <c r="E278" s="44" t="s">
         <v>15</v>
       </c>
       <c r="F278" s="44" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="G278" s="44" t="s">
         <v>17</v>
@@ -14808,19 +14823,19 @@
         <v>234</v>
       </c>
       <c r="B279" s="45" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="C279" s="46" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="D279" s="46" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="E279" s="44" t="s">
         <v>23</v>
       </c>
       <c r="F279" s="44" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="G279" s="44" t="s">
         <v>267</v>
@@ -14832,7 +14847,7 @@
         <v>35</v>
       </c>
       <c r="J279" s="45" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="K279" s="45" t="s">
         <v>76</v>
@@ -14844,19 +14859,19 @@
         <v>235</v>
       </c>
       <c r="B280" s="63" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="C280" s="60" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="D280" s="60" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="E280" s="61" t="s">
         <v>15</v>
       </c>
       <c r="F280" s="61" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="G280" s="61" t="s">
         <v>17</v>
@@ -14878,17 +14893,17 @@
         <v>236</v>
       </c>
       <c r="B281" s="45" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C281" s="46" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="D281" s="46"/>
       <c r="E281" s="44" t="s">
         <v>15</v>
       </c>
       <c r="F281" s="44" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="G281" s="44" t="s">
         <v>17</v>
@@ -14912,22 +14927,22 @@
         <v>237</v>
       </c>
       <c r="B282" s="45" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="C282" s="46" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="D282" s="46" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="E282" s="44" t="s">
         <v>23</v>
       </c>
       <c r="F282" s="44" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="G282" s="44" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="H282" s="47" t="s">
         <v>26</v>
@@ -14946,19 +14961,19 @@
         <v>238</v>
       </c>
       <c r="B283" s="63" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="C283" s="60" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="D283" s="60" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="E283" s="61" t="s">
         <v>15</v>
       </c>
       <c r="F283" s="61" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="G283" s="61" t="s">
         <v>17</v>
@@ -14980,19 +14995,19 @@
         <v>239</v>
       </c>
       <c r="B284" s="45" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C284" s="46" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="D284" s="46" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="E284" s="44" t="s">
         <v>23</v>
       </c>
       <c r="F284" s="44" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="G284" s="44" t="s">
         <v>66</v>
@@ -15004,7 +15019,7 @@
         <v>18</v>
       </c>
       <c r="J284" s="46" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="K284" s="45" t="s">
         <v>76</v>
@@ -15016,19 +15031,19 @@
         <v>240</v>
       </c>
       <c r="B285" s="45" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C285" s="46" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="D285" s="46" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="E285" s="44" t="s">
         <v>162</v>
       </c>
       <c r="F285" s="44" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="G285" s="44" t="s">
         <v>163</v>
@@ -15039,7 +15054,7 @@
       <c r="I285" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="J285" s="88" t="s">
+      <c r="J285" s="93" t="s">
         <v>164</v>
       </c>
       <c r="K285" s="45" t="s">
@@ -15052,19 +15067,19 @@
         <v>241</v>
       </c>
       <c r="B286" s="45" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="C286" s="46" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="D286" s="46" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="E286" s="44" t="s">
         <v>162</v>
       </c>
       <c r="F286" s="44" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="G286" s="44" t="s">
         <v>168</v>
@@ -15075,7 +15090,7 @@
       <c r="I286" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="J286" s="88"/>
+      <c r="J286" s="93"/>
       <c r="K286" s="45" t="s">
         <v>76</v>
       </c>
@@ -15086,19 +15101,19 @@
         <v>242</v>
       </c>
       <c r="B287" s="63" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="C287" s="60" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="D287" s="60" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="E287" s="61" t="s">
         <v>15</v>
       </c>
       <c r="F287" s="61" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="G287" s="61" t="s">
         <v>17</v>
@@ -15109,8 +15124,8 @@
       <c r="I287" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="J287" s="78" t="s">
-        <v>844</v>
+      <c r="J287" s="84" t="s">
+        <v>845</v>
       </c>
       <c r="K287" s="63" t="s">
         <v>76</v>
@@ -15122,22 +15137,22 @@
         <v>243</v>
       </c>
       <c r="B288" s="45" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C288" s="46" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="D288" s="46" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="E288" s="44" t="s">
         <v>23</v>
       </c>
       <c r="F288" s="44" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="G288" s="44" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="H288" s="47" t="s">
         <v>26</v>
@@ -15156,19 +15171,19 @@
         <v>244</v>
       </c>
       <c r="B289" s="45" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C289" s="46" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="D289" s="46" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="E289" s="44" t="s">
         <v>23</v>
       </c>
       <c r="F289" s="44" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="G289" s="44" t="s">
         <v>163</v>
@@ -15186,16 +15201,16 @@
     </row>
     <row r="290" s="7" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="9"/>
-      <c r="B290" s="89"/>
-      <c r="C290" s="90"/>
-      <c r="D290" s="90"/>
+      <c r="B290" s="94"/>
+      <c r="C290" s="95"/>
+      <c r="D290" s="95"/>
       <c r="E290" s="9"/>
       <c r="F290" s="9"/>
       <c r="G290" s="9"/>
-      <c r="H290" s="91"/>
+      <c r="H290" s="96"/>
       <c r="I290" s="9"/>
-      <c r="J290" s="89"/>
-      <c r="K290" s="89"/>
+      <c r="J290" s="94"/>
+      <c r="K290" s="94"/>
     </row>
     <row r="291" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="12" t="s">
@@ -15241,19 +15256,19 @@
       <c r="S291" s="7"/>
     </row>
     <row r="292" s="7" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="87" t="s">
-        <v>852</v>
-      </c>
-      <c r="B292" s="87"/>
-      <c r="C292" s="87"/>
-      <c r="D292" s="87"/>
-      <c r="E292" s="87"/>
-      <c r="F292" s="87"/>
-      <c r="G292" s="87"/>
-      <c r="H292" s="87"/>
-      <c r="I292" s="87"/>
-      <c r="J292" s="87"/>
-      <c r="K292" s="87"/>
+      <c r="A292" s="92" t="s">
+        <v>853</v>
+      </c>
+      <c r="B292" s="92"/>
+      <c r="C292" s="92"/>
+      <c r="D292" s="92"/>
+      <c r="E292" s="92"/>
+      <c r="F292" s="92"/>
+      <c r="G292" s="92"/>
+      <c r="H292" s="92"/>
+      <c r="I292" s="92"/>
+      <c r="J292" s="92"/>
+      <c r="K292" s="92"/>
     </row>
     <row r="293" s="7" customFormat="true" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="44" t="n">
@@ -15261,13 +15276,13 @@
         <v>245</v>
       </c>
       <c r="B293" s="45" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="C293" s="46" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="D293" s="46" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="E293" s="44" t="s">
         <v>15</v>
@@ -15285,45 +15300,45 @@
         <v>35</v>
       </c>
       <c r="J293" s="45" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="K293" s="45" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="294" s="7" customFormat="true" ht="168" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="44" t="n">
+    <row r="294" s="7" customFormat="true" ht="165.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="68" t="n">
         <f aca="false">A293+1</f>
         <v>246</v>
       </c>
-      <c r="B294" s="45" t="s">
-        <v>857</v>
-      </c>
-      <c r="C294" s="46" t="s">
+      <c r="B294" s="66" t="s">
         <v>858</v>
       </c>
-      <c r="D294" s="46" t="s">
+      <c r="C294" s="67" t="s">
         <v>859</v>
       </c>
-      <c r="E294" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="F294" s="44" t="s">
-        <v>853</v>
-      </c>
-      <c r="G294" s="44" t="s">
+      <c r="D294" s="67" t="s">
+        <v>860</v>
+      </c>
+      <c r="E294" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="F294" s="68" t="s">
+        <v>854</v>
+      </c>
+      <c r="G294" s="68" t="s">
         <v>323</v>
       </c>
-      <c r="H294" s="47" t="s">
+      <c r="H294" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="I294" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="J294" s="46" t="s">
-        <v>860</v>
-      </c>
-      <c r="K294" s="45" t="s">
+      <c r="I294" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="J294" s="67" t="s">
+        <v>861</v>
+      </c>
+      <c r="K294" s="66" t="s">
         <v>76</v>
       </c>
     </row>
@@ -15333,22 +15348,22 @@
         <v>247</v>
       </c>
       <c r="B295" s="45" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="C295" s="46" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="D295" s="46" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="E295" s="44" t="s">
         <v>23</v>
       </c>
       <c r="F295" s="44" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="G295" s="44" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="H295" s="47" t="s">
         <v>26</v>
@@ -15367,19 +15382,19 @@
         <v>248</v>
       </c>
       <c r="B296" s="45" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="C296" s="46" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="D296" s="46" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="E296" s="44" t="s">
         <v>23</v>
       </c>
       <c r="F296" s="44" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="G296" s="44" t="s">
         <v>163</v>
@@ -15391,7 +15406,7 @@
         <v>35</v>
       </c>
       <c r="J296" s="45" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="K296" s="45" t="s">
         <v>76</v>
@@ -15403,19 +15418,19 @@
         <v>249</v>
       </c>
       <c r="B297" s="45" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="C297" s="46" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="D297" s="46" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="E297" s="44" t="s">
         <v>23</v>
       </c>
       <c r="F297" s="44" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="G297" s="44" t="s">
         <v>210</v>
@@ -15437,19 +15452,19 @@
         <v>250</v>
       </c>
       <c r="B298" s="63" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C298" s="60" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="D298" s="60" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="E298" s="61" t="s">
         <v>15</v>
       </c>
       <c r="F298" s="61" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="G298" s="61" t="s">
         <v>17</v>
@@ -15461,7 +15476,7 @@
         <v>35</v>
       </c>
       <c r="J298" s="63" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="K298" s="63" t="s">
         <v>76</v>
@@ -15473,19 +15488,19 @@
         <v>251</v>
       </c>
       <c r="B299" s="45" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="C299" s="46" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="D299" s="46" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="E299" s="44" t="s">
         <v>15</v>
       </c>
       <c r="F299" s="44" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="G299" s="44" t="s">
         <v>17</v>
@@ -15507,19 +15522,19 @@
         <v>252</v>
       </c>
       <c r="B300" s="45" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="C300" s="46" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="D300" s="46" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="E300" s="44" t="s">
         <v>162</v>
       </c>
       <c r="F300" s="44" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="G300" s="44" t="s">
         <v>210</v>
@@ -15530,8 +15545,8 @@
       <c r="I300" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="J300" s="81" t="s">
-        <v>882</v>
+      <c r="J300" s="86" t="s">
+        <v>883</v>
       </c>
       <c r="K300" s="45" t="s">
         <v>76</v>
@@ -15543,19 +15558,19 @@
         <v>253</v>
       </c>
       <c r="B301" s="45" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="C301" s="46" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="D301" s="46" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="E301" s="44" t="s">
         <v>162</v>
       </c>
       <c r="F301" s="44" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="G301" s="44" t="s">
         <v>267</v>
@@ -15566,8 +15581,8 @@
       <c r="I301" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="J301" s="92" t="s">
-        <v>886</v>
+      <c r="J301" s="97" t="s">
+        <v>887</v>
       </c>
       <c r="K301" s="45" t="s">
         <v>76</v>
@@ -15579,19 +15594,19 @@
         <v>254</v>
       </c>
       <c r="B302" s="45" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="C302" s="46" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="D302" s="46" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="E302" s="44" t="s">
         <v>162</v>
       </c>
       <c r="F302" s="44" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="G302" s="44" t="s">
         <v>267</v>
@@ -15602,7 +15617,7 @@
       <c r="I302" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="J302" s="92"/>
+      <c r="J302" s="97"/>
       <c r="K302" s="45" t="s">
         <v>76</v>
       </c>
@@ -15613,19 +15628,19 @@
         <v>255</v>
       </c>
       <c r="B303" s="63" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C303" s="60" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="D303" s="60" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="E303" s="61" t="s">
         <v>15</v>
       </c>
       <c r="F303" s="61" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="G303" s="61" t="s">
         <v>17</v>
@@ -15647,19 +15662,19 @@
         <v>256</v>
       </c>
       <c r="B304" s="45" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="C304" s="46" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="D304" s="46" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="E304" s="44" t="s">
         <v>162</v>
       </c>
       <c r="F304" s="44" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="G304" s="44" t="s">
         <v>210</v>
@@ -15670,8 +15685,8 @@
       <c r="I304" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="J304" s="81" t="s">
-        <v>896</v>
+      <c r="J304" s="86" t="s">
+        <v>897</v>
       </c>
       <c r="K304" s="45" t="s">
         <v>76</v>
@@ -15683,19 +15698,19 @@
         <v>257</v>
       </c>
       <c r="B305" s="45" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="C305" s="46" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="D305" s="46" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="E305" s="44" t="s">
         <v>162</v>
       </c>
       <c r="F305" s="44" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="G305" s="44" t="s">
         <v>267</v>
@@ -15706,8 +15721,8 @@
       <c r="I305" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="J305" s="92" t="s">
-        <v>886</v>
+      <c r="J305" s="97" t="s">
+        <v>887</v>
       </c>
       <c r="K305" s="45" t="s">
         <v>76</v>
@@ -15719,19 +15734,19 @@
         <v>258</v>
       </c>
       <c r="B306" s="45" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="C306" s="46" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="D306" s="46" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="E306" s="44" t="s">
         <v>162</v>
       </c>
       <c r="F306" s="44" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="G306" s="44" t="s">
         <v>267</v>
@@ -15742,23 +15757,23 @@
       <c r="I306" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="J306" s="92"/>
+      <c r="J306" s="97"/>
       <c r="K306" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="307" s="7" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="9"/>
-      <c r="B307" s="89"/>
-      <c r="C307" s="90"/>
-      <c r="D307" s="90"/>
+      <c r="B307" s="94"/>
+      <c r="C307" s="95"/>
+      <c r="D307" s="95"/>
       <c r="E307" s="9"/>
       <c r="F307" s="9"/>
       <c r="G307" s="9"/>
-      <c r="H307" s="91"/>
+      <c r="H307" s="96"/>
       <c r="I307" s="9"/>
-      <c r="J307" s="89"/>
-      <c r="K307" s="89"/>
+      <c r="J307" s="94"/>
+      <c r="K307" s="94"/>
     </row>
     <row r="308" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="12" t="s">
@@ -15805,7 +15820,7 @@
     </row>
     <row r="309" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="17" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B309" s="17"/>
       <c r="C309" s="17"/>
@@ -15832,13 +15847,13 @@
         <v>259</v>
       </c>
       <c r="B310" s="40" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C310" s="41" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="D310" s="41" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="E310" s="39" t="s">
         <v>15</v>
@@ -15874,22 +15889,22 @@
         <v>260</v>
       </c>
       <c r="B311" s="40" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="C311" s="41" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="D311" s="41" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="E311" s="39" t="s">
         <v>23</v>
       </c>
       <c r="F311" s="39" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="G311" s="39" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="H311" s="42" t="s">
         <v>34</v>
@@ -15898,7 +15913,7 @@
         <v>35</v>
       </c>
       <c r="J311" s="40" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="K311" s="40" t="s">
         <v>20</v>
@@ -15918,22 +15933,22 @@
         <v>261</v>
       </c>
       <c r="B312" s="40" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="C312" s="41" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="D312" s="41" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="E312" s="39" t="s">
         <v>23</v>
       </c>
       <c r="F312" s="39" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="G312" s="39" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="H312" s="42" t="s">
         <v>34</v>
@@ -15942,7 +15957,7 @@
         <v>35</v>
       </c>
       <c r="J312" s="40" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="K312" s="40" t="s">
         <v>20</v>
@@ -15962,22 +15977,22 @@
         <v>262</v>
       </c>
       <c r="B313" s="40" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="C313" s="41" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="D313" s="41" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="E313" s="39" t="s">
         <v>23</v>
       </c>
       <c r="F313" s="39" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="G313" s="39" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="H313" s="42" t="s">
         <v>34</v>
@@ -15986,7 +16001,7 @@
         <v>35</v>
       </c>
       <c r="J313" s="41" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="K313" s="40" t="s">
         <v>20</v>
@@ -16006,19 +16021,19 @@
         <v>263</v>
       </c>
       <c r="B314" s="40" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="C314" s="41" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="D314" s="41" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="E314" s="39" t="s">
         <v>23</v>
       </c>
       <c r="F314" s="39" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="G314" s="39" t="s">
         <v>307</v>
@@ -16030,7 +16045,7 @@
         <v>18</v>
       </c>
       <c r="J314" s="40" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="K314" s="40" t="s">
         <v>20</v>
@@ -16050,19 +16065,19 @@
         <v>264</v>
       </c>
       <c r="B315" s="40" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="C315" s="41" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="D315" s="41" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="E315" s="39" t="s">
         <v>23</v>
       </c>
       <c r="F315" s="39" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="G315" s="39" t="s">
         <v>107</v>
@@ -16074,7 +16089,7 @@
         <v>18</v>
       </c>
       <c r="J315" s="41" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="K315" s="40" t="s">
         <v>20</v>
@@ -16094,22 +16109,22 @@
         <v>265</v>
       </c>
       <c r="B316" s="40" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="C316" s="41" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="D316" s="41" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="E316" s="39" t="s">
         <v>23</v>
       </c>
       <c r="F316" s="39" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="G316" s="39" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="H316" s="42" t="s">
         <v>26</v>
@@ -16118,7 +16133,7 @@
         <v>35</v>
       </c>
       <c r="J316" s="40" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="K316" s="40" t="s">
         <v>20</v>
@@ -16187,7 +16202,7 @@
     </row>
     <row r="319" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="17" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B319" s="17"/>
       <c r="C319" s="17"/>
@@ -16214,13 +16229,13 @@
         <v>266</v>
       </c>
       <c r="B320" s="40" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="C320" s="41" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="D320" s="41" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="E320" s="39" t="s">
         <v>15</v>
@@ -16256,19 +16271,19 @@
         <v>267</v>
       </c>
       <c r="B321" s="40" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="C321" s="41" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="D321" s="41" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="E321" s="39" t="s">
         <v>15</v>
       </c>
       <c r="F321" s="39" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="G321" s="39" t="s">
         <v>17</v>
@@ -16300,19 +16315,19 @@
         <v>268</v>
       </c>
       <c r="B322" s="40" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="C322" s="41" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="D322" s="41" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E322" s="39" t="s">
         <v>23</v>
       </c>
       <c r="F322" s="39" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="G322" s="39" t="s">
         <v>140</v>
@@ -16391,7 +16406,7 @@
     </row>
     <row r="325" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="17" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B325" s="17"/>
       <c r="C325" s="17"/>
@@ -16418,13 +16433,13 @@
         <v>269</v>
       </c>
       <c r="B326" s="40" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="C326" s="41" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="D326" s="41" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="E326" s="39" t="s">
         <v>15</v>
@@ -16442,7 +16457,7 @@
         <v>35</v>
       </c>
       <c r="J326" s="40" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="K326" s="40" t="s">
         <v>20</v>
@@ -16462,19 +16477,19 @@
         <v>270</v>
       </c>
       <c r="B327" s="40" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="C327" s="41" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="D327" s="41" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="E327" s="39" t="s">
         <v>15</v>
       </c>
       <c r="F327" s="39" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="G327" s="39" t="s">
         <v>17</v>
@@ -16506,10 +16521,10 @@
         <v>271</v>
       </c>
       <c r="B328" s="40" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="C328" s="41" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="D328" s="41" t="s">
         <v>467</v>
@@ -16518,7 +16533,7 @@
         <v>162</v>
       </c>
       <c r="F328" s="39" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="G328" s="39" t="s">
         <v>163</v>
@@ -16530,7 +16545,7 @@
         <v>18</v>
       </c>
       <c r="J328" s="41" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="K328" s="40" t="s">
         <v>20</v>
@@ -16550,19 +16565,19 @@
         <v>272</v>
       </c>
       <c r="B329" s="40" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="C329" s="41" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="D329" s="41" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="E329" s="39" t="s">
         <v>162</v>
       </c>
       <c r="F329" s="39" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="G329" s="39" t="s">
         <v>168</v>
@@ -16574,7 +16589,7 @@
         <v>18</v>
       </c>
       <c r="J329" s="40" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="K329" s="40" t="s">
         <v>20</v>
@@ -16643,7 +16658,7 @@
     </row>
     <row r="332" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="17" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B332" s="17"/>
       <c r="C332" s="17"/>
@@ -16670,13 +16685,13 @@
         <v>273</v>
       </c>
       <c r="B333" s="40" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C333" s="41" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="D333" s="41" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="E333" s="39" t="s">
         <v>15</v>
@@ -16712,22 +16727,22 @@
         <v>274</v>
       </c>
       <c r="B334" s="40" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="C334" s="41" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="D334" s="41" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="E334" s="39" t="s">
         <v>23</v>
       </c>
       <c r="F334" s="39" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="G334" s="39" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="H334" s="42" t="s">
         <v>34</v>
@@ -16736,7 +16751,7 @@
         <v>35</v>
       </c>
       <c r="J334" s="41" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="K334" s="40" t="s">
         <v>20</v>
@@ -16756,22 +16771,22 @@
         <v>275</v>
       </c>
       <c r="B335" s="40" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="C335" s="41" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="D335" s="41" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="E335" s="39" t="s">
         <v>23</v>
       </c>
       <c r="F335" s="39" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="G335" s="39" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H335" s="42" t="s">
         <v>34</v>
@@ -16836,19 +16851,19 @@
       <c r="S336" s="7"/>
     </row>
     <row r="337" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A337" s="87" t="s">
-        <v>969</v>
-      </c>
-      <c r="B337" s="87"/>
-      <c r="C337" s="87"/>
-      <c r="D337" s="87"/>
-      <c r="E337" s="87"/>
-      <c r="F337" s="87"/>
-      <c r="G337" s="87"/>
-      <c r="H337" s="87"/>
-      <c r="I337" s="87"/>
-      <c r="J337" s="87"/>
-      <c r="K337" s="87"/>
+      <c r="A337" s="92" t="s">
+        <v>970</v>
+      </c>
+      <c r="B337" s="92"/>
+      <c r="C337" s="92"/>
+      <c r="D337" s="92"/>
+      <c r="E337" s="92"/>
+      <c r="F337" s="92"/>
+      <c r="G337" s="92"/>
+      <c r="H337" s="92"/>
+      <c r="I337" s="92"/>
+      <c r="J337" s="92"/>
+      <c r="K337" s="92"/>
       <c r="L337" s="7"/>
       <c r="M337" s="7"/>
       <c r="N337" s="7"/>
@@ -16864,13 +16879,13 @@
         <v>276</v>
       </c>
       <c r="B338" s="45" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="C338" s="46" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="D338" s="46" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="E338" s="44" t="s">
         <v>15</v>
@@ -16906,22 +16921,22 @@
         <v>277</v>
       </c>
       <c r="B339" s="45" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="C339" s="46" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="D339" s="46" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="E339" s="44" t="s">
         <v>23</v>
       </c>
       <c r="F339" s="44" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="G339" s="44" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H339" s="47" t="s">
         <v>26</v>
@@ -16986,19 +17001,19 @@
       <c r="S340" s="7"/>
     </row>
     <row r="341" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A341" s="87" t="s">
-        <v>977</v>
-      </c>
-      <c r="B341" s="87"/>
-      <c r="C341" s="87"/>
-      <c r="D341" s="87"/>
-      <c r="E341" s="87"/>
-      <c r="F341" s="87"/>
-      <c r="G341" s="87"/>
-      <c r="H341" s="87"/>
-      <c r="I341" s="87"/>
-      <c r="J341" s="87"/>
-      <c r="K341" s="87"/>
+      <c r="A341" s="92" t="s">
+        <v>978</v>
+      </c>
+      <c r="B341" s="92"/>
+      <c r="C341" s="92"/>
+      <c r="D341" s="92"/>
+      <c r="E341" s="92"/>
+      <c r="F341" s="92"/>
+      <c r="G341" s="92"/>
+      <c r="H341" s="92"/>
+      <c r="I341" s="92"/>
+      <c r="J341" s="92"/>
+      <c r="K341" s="92"/>
       <c r="L341" s="7"/>
       <c r="M341" s="7"/>
       <c r="N341" s="7"/>
@@ -17014,13 +17029,13 @@
         <v>278</v>
       </c>
       <c r="B342" s="45" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="C342" s="46" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="D342" s="46" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="E342" s="44" t="s">
         <v>15</v>
@@ -17056,19 +17071,19 @@
         <v>279</v>
       </c>
       <c r="B343" s="45" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="C343" s="46" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="D343" s="46" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="E343" s="44" t="s">
         <v>23</v>
       </c>
       <c r="F343" s="44" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="G343" s="44" t="s">
         <v>163</v>
@@ -17100,19 +17115,19 @@
         <v>280</v>
       </c>
       <c r="B344" s="45" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="C344" s="46" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="D344" s="46" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E344" s="44" t="s">
         <v>23</v>
       </c>
       <c r="F344" s="44" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="G344" s="44" t="s">
         <v>140</v>
@@ -17142,19 +17157,19 @@
         <v>281</v>
       </c>
       <c r="B345" s="45" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="C345" s="46" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="D345" s="46" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="E345" s="44" t="s">
         <v>23</v>
       </c>
       <c r="F345" s="44" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="G345" s="44" t="s">
         <v>140</v>
@@ -17184,22 +17199,22 @@
         <v>282</v>
       </c>
       <c r="B346" s="45" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="C346" s="46" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="D346" s="46" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="E346" s="44" t="s">
         <v>23</v>
       </c>
       <c r="F346" s="44" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="G346" s="44" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="H346" s="47" t="s">
         <v>26</v>
@@ -17226,22 +17241,22 @@
         <v>283</v>
       </c>
       <c r="B347" s="45" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="C347" s="46" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="D347" s="46" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="E347" s="44" t="s">
         <v>23</v>
       </c>
       <c r="F347" s="44" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="G347" s="44" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="H347" s="47" t="s">
         <v>26</v>
@@ -17268,22 +17283,22 @@
         <v>284</v>
       </c>
       <c r="B348" s="45" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="C348" s="46" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="D348" s="46" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="E348" s="44" t="s">
         <v>23</v>
       </c>
       <c r="F348" s="44" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="G348" s="44" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="H348" s="47" t="s">
         <v>26</v>
@@ -17292,7 +17307,7 @@
         <v>18</v>
       </c>
       <c r="J348" s="46" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="K348" s="45" t="s">
         <v>76</v>
@@ -17307,15 +17322,15 @@
       <c r="S348" s="7"/>
     </row>
     <row r="349" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A349" s="93"/>
+      <c r="A349" s="98"/>
       <c r="B349" s="7"/>
-      <c r="C349" s="94"/>
-      <c r="D349" s="94"/>
-      <c r="E349" s="93"/>
-      <c r="F349" s="93"/>
-      <c r="G349" s="93"/>
-      <c r="H349" s="95"/>
-      <c r="I349" s="93"/>
+      <c r="C349" s="99"/>
+      <c r="D349" s="99"/>
+      <c r="E349" s="98"/>
+      <c r="F349" s="98"/>
+      <c r="G349" s="98"/>
+      <c r="H349" s="100"/>
+      <c r="I349" s="98"/>
       <c r="J349" s="7"/>
       <c r="K349" s="7"/>
       <c r="L349" s="7"/>
@@ -17328,15 +17343,15 @@
       <c r="S349" s="7"/>
     </row>
     <row r="350" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A350" s="93"/>
+      <c r="A350" s="98"/>
       <c r="B350" s="7"/>
-      <c r="C350" s="94"/>
-      <c r="D350" s="94"/>
-      <c r="E350" s="93"/>
-      <c r="F350" s="93"/>
-      <c r="G350" s="93"/>
-      <c r="H350" s="95"/>
-      <c r="I350" s="93"/>
+      <c r="C350" s="99"/>
+      <c r="D350" s="99"/>
+      <c r="E350" s="98"/>
+      <c r="F350" s="98"/>
+      <c r="G350" s="98"/>
+      <c r="H350" s="100"/>
+      <c r="I350" s="98"/>
       <c r="J350" s="7"/>
       <c r="K350" s="7"/>
       <c r="L350" s="7"/>
@@ -17349,15 +17364,15 @@
       <c r="S350" s="7"/>
     </row>
     <row r="351" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A351" s="93"/>
+      <c r="A351" s="98"/>
       <c r="B351" s="7"/>
-      <c r="C351" s="94"/>
-      <c r="D351" s="94"/>
-      <c r="E351" s="93"/>
-      <c r="F351" s="93"/>
-      <c r="G351" s="93"/>
-      <c r="H351" s="95"/>
-      <c r="I351" s="93"/>
+      <c r="C351" s="99"/>
+      <c r="D351" s="99"/>
+      <c r="E351" s="98"/>
+      <c r="F351" s="98"/>
+      <c r="G351" s="98"/>
+      <c r="H351" s="100"/>
+      <c r="I351" s="98"/>
       <c r="J351" s="7"/>
       <c r="K351" s="7"/>
       <c r="L351" s="7"/>
@@ -17370,15 +17385,15 @@
       <c r="S351" s="7"/>
     </row>
     <row r="352" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A352" s="93"/>
+      <c r="A352" s="98"/>
       <c r="B352" s="7"/>
-      <c r="C352" s="94"/>
-      <c r="D352" s="94"/>
-      <c r="E352" s="93"/>
-      <c r="F352" s="93"/>
-      <c r="G352" s="93"/>
-      <c r="H352" s="95"/>
-      <c r="I352" s="93"/>
+      <c r="C352" s="99"/>
+      <c r="D352" s="99"/>
+      <c r="E352" s="98"/>
+      <c r="F352" s="98"/>
+      <c r="G352" s="98"/>
+      <c r="H352" s="100"/>
+      <c r="I352" s="98"/>
       <c r="J352" s="7"/>
       <c r="K352" s="7"/>
       <c r="L352" s="7"/>
@@ -17391,15 +17406,15 @@
       <c r="S352" s="7"/>
     </row>
     <row r="353" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A353" s="93"/>
+      <c r="A353" s="98"/>
       <c r="B353" s="7"/>
-      <c r="C353" s="94"/>
-      <c r="D353" s="94"/>
-      <c r="E353" s="93"/>
-      <c r="F353" s="93"/>
-      <c r="G353" s="93"/>
-      <c r="H353" s="95"/>
-      <c r="I353" s="93"/>
+      <c r="C353" s="99"/>
+      <c r="D353" s="99"/>
+      <c r="E353" s="98"/>
+      <c r="F353" s="98"/>
+      <c r="G353" s="98"/>
+      <c r="H353" s="100"/>
+      <c r="I353" s="98"/>
       <c r="J353" s="7"/>
       <c r="K353" s="7"/>
       <c r="L353" s="7"/>
@@ -17412,15 +17427,15 @@
       <c r="S353" s="7"/>
     </row>
     <row r="354" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A354" s="93"/>
+      <c r="A354" s="98"/>
       <c r="B354" s="7"/>
-      <c r="C354" s="94"/>
-      <c r="D354" s="94"/>
-      <c r="E354" s="93"/>
-      <c r="F354" s="93"/>
-      <c r="G354" s="93"/>
-      <c r="H354" s="95"/>
-      <c r="I354" s="93"/>
+      <c r="C354" s="99"/>
+      <c r="D354" s="99"/>
+      <c r="E354" s="98"/>
+      <c r="F354" s="98"/>
+      <c r="G354" s="98"/>
+      <c r="H354" s="100"/>
+      <c r="I354" s="98"/>
       <c r="J354" s="7"/>
       <c r="K354" s="7"/>
       <c r="L354" s="7"/>
@@ -17433,15 +17448,15 @@
       <c r="S354" s="7"/>
     </row>
     <row r="355" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A355" s="93"/>
+      <c r="A355" s="98"/>
       <c r="B355" s="7"/>
-      <c r="C355" s="94"/>
-      <c r="D355" s="94"/>
-      <c r="E355" s="93"/>
-      <c r="F355" s="93"/>
-      <c r="G355" s="93"/>
-      <c r="H355" s="95"/>
-      <c r="I355" s="93"/>
+      <c r="C355" s="99"/>
+      <c r="D355" s="99"/>
+      <c r="E355" s="98"/>
+      <c r="F355" s="98"/>
+      <c r="G355" s="98"/>
+      <c r="H355" s="100"/>
+      <c r="I355" s="98"/>
       <c r="J355" s="7"/>
       <c r="K355" s="7"/>
       <c r="L355" s="7"/>
@@ -17454,15 +17469,15 @@
       <c r="S355" s="7"/>
     </row>
     <row r="356" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A356" s="93"/>
+      <c r="A356" s="98"/>
       <c r="B356" s="7"/>
-      <c r="C356" s="94"/>
-      <c r="D356" s="94"/>
-      <c r="E356" s="93"/>
-      <c r="F356" s="93"/>
-      <c r="G356" s="93"/>
-      <c r="H356" s="95"/>
-      <c r="I356" s="93"/>
+      <c r="C356" s="99"/>
+      <c r="D356" s="99"/>
+      <c r="E356" s="98"/>
+      <c r="F356" s="98"/>
+      <c r="G356" s="98"/>
+      <c r="H356" s="100"/>
+      <c r="I356" s="98"/>
       <c r="J356" s="7"/>
       <c r="K356" s="7"/>
       <c r="L356" s="7"/>
@@ -17475,15 +17490,15 @@
       <c r="S356" s="7"/>
     </row>
     <row r="357" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A357" s="93"/>
+      <c r="A357" s="98"/>
       <c r="B357" s="7"/>
-      <c r="C357" s="94"/>
-      <c r="D357" s="94"/>
-      <c r="E357" s="93"/>
-      <c r="F357" s="93"/>
-      <c r="G357" s="93"/>
-      <c r="H357" s="95"/>
-      <c r="I357" s="93"/>
+      <c r="C357" s="99"/>
+      <c r="D357" s="99"/>
+      <c r="E357" s="98"/>
+      <c r="F357" s="98"/>
+      <c r="G357" s="98"/>
+      <c r="H357" s="100"/>
+      <c r="I357" s="98"/>
       <c r="J357" s="7"/>
       <c r="K357" s="7"/>
       <c r="L357" s="7"/>
@@ -17496,15 +17511,15 @@
       <c r="S357" s="7"/>
     </row>
     <row r="358" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A358" s="93"/>
+      <c r="A358" s="98"/>
       <c r="B358" s="7"/>
-      <c r="C358" s="94"/>
-      <c r="D358" s="94"/>
-      <c r="E358" s="93"/>
-      <c r="F358" s="93"/>
-      <c r="G358" s="93"/>
-      <c r="H358" s="95"/>
-      <c r="I358" s="93"/>
+      <c r="C358" s="99"/>
+      <c r="D358" s="99"/>
+      <c r="E358" s="98"/>
+      <c r="F358" s="98"/>
+      <c r="G358" s="98"/>
+      <c r="H358" s="100"/>
+      <c r="I358" s="98"/>
       <c r="J358" s="7"/>
       <c r="K358" s="7"/>
       <c r="L358" s="7"/>
@@ -17517,15 +17532,15 @@
       <c r="S358" s="7"/>
     </row>
     <row r="359" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A359" s="93"/>
+      <c r="A359" s="98"/>
       <c r="B359" s="7"/>
-      <c r="C359" s="94"/>
-      <c r="D359" s="94"/>
-      <c r="E359" s="93"/>
-      <c r="F359" s="93"/>
-      <c r="G359" s="93"/>
-      <c r="H359" s="95"/>
-      <c r="I359" s="93"/>
+      <c r="C359" s="99"/>
+      <c r="D359" s="99"/>
+      <c r="E359" s="98"/>
+      <c r="F359" s="98"/>
+      <c r="G359" s="98"/>
+      <c r="H359" s="100"/>
+      <c r="I359" s="98"/>
       <c r="J359" s="7"/>
       <c r="K359" s="7"/>
       <c r="L359" s="7"/>
@@ -17538,15 +17553,15 @@
       <c r="S359" s="7"/>
     </row>
     <row r="360" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A360" s="93"/>
+      <c r="A360" s="98"/>
       <c r="B360" s="7"/>
-      <c r="C360" s="94"/>
-      <c r="D360" s="94"/>
-      <c r="E360" s="93"/>
-      <c r="F360" s="93"/>
-      <c r="G360" s="93"/>
-      <c r="H360" s="95"/>
-      <c r="I360" s="93"/>
+      <c r="C360" s="99"/>
+      <c r="D360" s="99"/>
+      <c r="E360" s="98"/>
+      <c r="F360" s="98"/>
+      <c r="G360" s="98"/>
+      <c r="H360" s="100"/>
+      <c r="I360" s="98"/>
       <c r="J360" s="7"/>
       <c r="K360" s="7"/>
       <c r="L360" s="7"/>
@@ -17559,15 +17574,15 @@
       <c r="S360" s="7"/>
     </row>
     <row r="361" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A361" s="93"/>
+      <c r="A361" s="98"/>
       <c r="B361" s="7"/>
-      <c r="C361" s="94"/>
-      <c r="D361" s="94"/>
-      <c r="E361" s="93"/>
-      <c r="F361" s="93"/>
-      <c r="G361" s="93"/>
-      <c r="H361" s="95"/>
-      <c r="I361" s="93"/>
+      <c r="C361" s="99"/>
+      <c r="D361" s="99"/>
+      <c r="E361" s="98"/>
+      <c r="F361" s="98"/>
+      <c r="G361" s="98"/>
+      <c r="H361" s="100"/>
+      <c r="I361" s="98"/>
       <c r="J361" s="7"/>
       <c r="K361" s="7"/>
       <c r="L361" s="7"/>
@@ -17580,15 +17595,15 @@
       <c r="S361" s="7"/>
     </row>
     <row r="362" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A362" s="93"/>
+      <c r="A362" s="98"/>
       <c r="B362" s="7"/>
-      <c r="C362" s="94"/>
-      <c r="D362" s="94"/>
-      <c r="E362" s="93"/>
-      <c r="F362" s="93"/>
-      <c r="G362" s="93"/>
-      <c r="H362" s="95"/>
-      <c r="I362" s="93"/>
+      <c r="C362" s="99"/>
+      <c r="D362" s="99"/>
+      <c r="E362" s="98"/>
+      <c r="F362" s="98"/>
+      <c r="G362" s="98"/>
+      <c r="H362" s="100"/>
+      <c r="I362" s="98"/>
       <c r="J362" s="7"/>
       <c r="K362" s="7"/>
       <c r="L362" s="7"/>
@@ -17676,11 +17691,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="96" width="6.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="96" width="17.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="96" width="40.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="96" width="36.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="96" width="7.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="101" width="6.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="101" width="17.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="101" width="40.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="101" width="36.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="101" width="7.49"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17711,7 +17726,7 @@
     </row>
     <row r="3" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -17727,28 +17742,28 @@
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="102"/>
+      <c r="K4" s="102"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="97"/>
-      <c r="I5" s="97"/>
-      <c r="J5" s="97"/>
-      <c r="K5" s="97"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="102"/>
+      <c r="H5" s="102"/>
+      <c r="I5" s="102"/>
+      <c r="J5" s="102"/>
+      <c r="K5" s="102"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="12" t="s">
@@ -17786,19 +17801,19 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="98" t="s">
-        <v>1003</v>
-      </c>
-      <c r="B7" s="98"/>
-      <c r="C7" s="98"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="98"/>
-      <c r="J7" s="98"/>
-      <c r="K7" s="98"/>
+      <c r="A7" s="103" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="18" t="n">
@@ -17807,11 +17822,11 @@
       <c r="B8" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="99" t="s">
-        <v>1004</v>
+      <c r="C8" s="104" t="s">
+        <v>1005</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>15</v>
@@ -17829,7 +17844,7 @@
         <v>17</v>
       </c>
       <c r="J8" s="20" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="K8" s="19" t="s">
         <v>20</v>
@@ -17843,8 +17858,8 @@
       <c r="B9" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="100" t="s">
-        <v>1006</v>
+      <c r="C9" s="105" t="s">
+        <v>1007</v>
       </c>
       <c r="D9" s="25" t="s">
         <v>22</v>
@@ -17865,7 +17880,7 @@
         <v>17</v>
       </c>
       <c r="J9" s="25" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="K9" s="27" t="s">
         <v>20</v>
@@ -17879,11 +17894,11 @@
       <c r="B10" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="99" t="s">
-        <v>1008</v>
+      <c r="C10" s="104" t="s">
+        <v>1009</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>23</v>
@@ -17901,7 +17916,7 @@
         <v>17</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="K10" s="19" t="s">
         <v>20</v>
@@ -17915,11 +17930,11 @@
       <c r="B11" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="101" t="s">
-        <v>1010</v>
-      </c>
-      <c r="D11" s="102" t="s">
+      <c r="C11" s="106" t="s">
         <v>1011</v>
+      </c>
+      <c r="D11" s="107" t="s">
+        <v>1012</v>
       </c>
       <c r="E11" s="24" t="s">
         <v>23</v>
@@ -17927,8 +17942,8 @@
       <c r="F11" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="103" t="s">
-        <v>997</v>
+      <c r="G11" s="108" t="s">
+        <v>998</v>
       </c>
       <c r="H11" s="21" t="s">
         <v>17</v>
@@ -17936,8 +17951,8 @@
       <c r="I11" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="102" t="s">
-        <v>1011</v>
+      <c r="J11" s="107" t="s">
+        <v>1012</v>
       </c>
       <c r="K11" s="19" t="s">
         <v>20</v>
@@ -17951,11 +17966,11 @@
       <c r="B12" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="101" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D12" s="102" t="s">
+      <c r="C12" s="106" t="s">
         <v>1013</v>
+      </c>
+      <c r="D12" s="107" t="s">
+        <v>1014</v>
       </c>
       <c r="E12" s="24" t="s">
         <v>23</v>
@@ -17963,8 +17978,8 @@
       <c r="F12" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="103" t="s">
-        <v>711</v>
+      <c r="G12" s="108" t="s">
+        <v>712</v>
       </c>
       <c r="H12" s="21" t="s">
         <v>17</v>
@@ -17972,8 +17987,8 @@
       <c r="I12" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="102" t="s">
-        <v>1013</v>
+      <c r="J12" s="107" t="s">
+        <v>1014</v>
       </c>
       <c r="K12" s="19" t="s">
         <v>20</v>
@@ -17987,11 +18002,11 @@
       <c r="B13" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="101" t="s">
-        <v>1014</v>
-      </c>
-      <c r="D13" s="102" t="s">
+      <c r="C13" s="106" t="s">
         <v>1015</v>
+      </c>
+      <c r="D13" s="107" t="s">
+        <v>1016</v>
       </c>
       <c r="E13" s="24" t="s">
         <v>23</v>
@@ -17999,7 +18014,7 @@
       <c r="F13" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="103" t="s">
+      <c r="G13" s="108" t="s">
         <v>267</v>
       </c>
       <c r="H13" s="21" t="s">
@@ -18008,8 +18023,8 @@
       <c r="I13" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="102" t="s">
-        <v>1015</v>
+      <c r="J13" s="107" t="s">
+        <v>1016</v>
       </c>
       <c r="K13" s="19" t="s">
         <v>20</v>
@@ -18023,11 +18038,11 @@
       <c r="B14" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="101" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D14" s="102" t="s">
+      <c r="C14" s="106" t="s">
         <v>1017</v>
+      </c>
+      <c r="D14" s="107" t="s">
+        <v>1018</v>
       </c>
       <c r="E14" s="24" t="s">
         <v>23</v>
@@ -18035,7 +18050,7 @@
       <c r="F14" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="103" t="s">
+      <c r="G14" s="108" t="s">
         <v>61</v>
       </c>
       <c r="H14" s="21" t="s">
@@ -18044,8 +18059,8 @@
       <c r="I14" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J14" s="102" t="s">
-        <v>1017</v>
+      <c r="J14" s="107" t="s">
+        <v>1018</v>
       </c>
       <c r="K14" s="19" t="s">
         <v>20</v>
@@ -18059,11 +18074,11 @@
       <c r="B15" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="101" t="s">
-        <v>1018</v>
-      </c>
-      <c r="D15" s="102" t="s">
+      <c r="C15" s="106" t="s">
         <v>1019</v>
+      </c>
+      <c r="D15" s="107" t="s">
+        <v>1020</v>
       </c>
       <c r="E15" s="24" t="s">
         <v>23</v>
@@ -18071,7 +18086,7 @@
       <c r="F15" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="103" t="s">
+      <c r="G15" s="108" t="s">
         <v>375</v>
       </c>
       <c r="H15" s="21" t="s">
@@ -18080,8 +18095,8 @@
       <c r="I15" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="102" t="s">
-        <v>1020</v>
+      <c r="J15" s="107" t="s">
+        <v>1021</v>
       </c>
       <c r="K15" s="19" t="s">
         <v>20</v>
@@ -18095,11 +18110,11 @@
       <c r="B16" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="101" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D16" s="102" t="s">
+      <c r="C16" s="106" t="s">
         <v>1022</v>
+      </c>
+      <c r="D16" s="107" t="s">
+        <v>1023</v>
       </c>
       <c r="E16" s="24" t="s">
         <v>23</v>
@@ -18107,8 +18122,8 @@
       <c r="F16" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="103" t="s">
-        <v>1023</v>
+      <c r="G16" s="108" t="s">
+        <v>1024</v>
       </c>
       <c r="H16" s="21" t="s">
         <v>17</v>
@@ -18116,8 +18131,8 @@
       <c r="I16" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J16" s="102" t="s">
-        <v>1024</v>
+      <c r="J16" s="107" t="s">
+        <v>1025</v>
       </c>
       <c r="K16" s="19" t="s">
         <v>20</v>
@@ -18131,11 +18146,11 @@
       <c r="B17" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="101" t="s">
-        <v>1025</v>
-      </c>
-      <c r="D17" s="102" t="s">
+      <c r="C17" s="106" t="s">
         <v>1026</v>
+      </c>
+      <c r="D17" s="107" t="s">
+        <v>1027</v>
       </c>
       <c r="E17" s="24" t="s">
         <v>23</v>
@@ -18143,8 +18158,8 @@
       <c r="F17" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="103" t="s">
-        <v>1027</v>
+      <c r="G17" s="108" t="s">
+        <v>1028</v>
       </c>
       <c r="H17" s="21" t="s">
         <v>17</v>
@@ -18152,8 +18167,8 @@
       <c r="I17" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J17" s="102" t="s">
-        <v>1028</v>
+      <c r="J17" s="107" t="s">
+        <v>1029</v>
       </c>
       <c r="K17" s="19" t="s">
         <v>20</v>
@@ -18167,11 +18182,11 @@
       <c r="B18" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="C18" s="101" t="s">
-        <v>1029</v>
-      </c>
-      <c r="D18" s="102" t="s">
+      <c r="C18" s="106" t="s">
         <v>1030</v>
+      </c>
+      <c r="D18" s="107" t="s">
+        <v>1031</v>
       </c>
       <c r="E18" s="24" t="s">
         <v>23</v>
@@ -18179,8 +18194,8 @@
       <c r="F18" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="103" t="s">
-        <v>1027</v>
+      <c r="G18" s="108" t="s">
+        <v>1028</v>
       </c>
       <c r="H18" s="21" t="s">
         <v>17</v>
@@ -18188,8 +18203,8 @@
       <c r="I18" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="102" t="s">
-        <v>1031</v>
+      <c r="J18" s="107" t="s">
+        <v>1032</v>
       </c>
       <c r="K18" s="19" t="s">
         <v>20</v>
@@ -18203,11 +18218,11 @@
       <c r="B19" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="C19" s="101" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D19" s="102" t="s">
+      <c r="C19" s="106" t="s">
         <v>1033</v>
+      </c>
+      <c r="D19" s="107" t="s">
+        <v>1034</v>
       </c>
       <c r="E19" s="24" t="s">
         <v>23</v>
@@ -18215,8 +18230,8 @@
       <c r="F19" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="104" t="s">
-        <v>1027</v>
+      <c r="G19" s="108" t="s">
+        <v>1028</v>
       </c>
       <c r="H19" s="21" t="s">
         <v>17</v>
@@ -18224,8 +18239,8 @@
       <c r="I19" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J19" s="102" t="s">
-        <v>1034</v>
+      <c r="J19" s="107" t="s">
+        <v>1035</v>
       </c>
       <c r="K19" s="19" t="s">
         <v>20</v>
@@ -18239,11 +18254,11 @@
       <c r="B20" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="C20" s="101" t="s">
-        <v>1035</v>
-      </c>
-      <c r="D20" s="102" t="s">
+      <c r="C20" s="106" t="s">
         <v>1036</v>
+      </c>
+      <c r="D20" s="107" t="s">
+        <v>1037</v>
       </c>
       <c r="E20" s="24" t="s">
         <v>23</v>
@@ -18251,8 +18266,8 @@
       <c r="F20" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G20" s="103" t="s">
-        <v>1037</v>
+      <c r="G20" s="108" t="s">
+        <v>1038</v>
       </c>
       <c r="H20" s="21" t="s">
         <v>17</v>
@@ -18260,8 +18275,8 @@
       <c r="I20" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J20" s="102" t="s">
-        <v>1036</v>
+      <c r="J20" s="107" t="s">
+        <v>1037</v>
       </c>
       <c r="K20" s="19" t="s">
         <v>20</v>
@@ -18275,11 +18290,11 @@
       <c r="B21" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="101" t="s">
-        <v>1038</v>
-      </c>
-      <c r="D21" s="102" t="s">
+      <c r="C21" s="106" t="s">
         <v>1039</v>
+      </c>
+      <c r="D21" s="107" t="s">
+        <v>1040</v>
       </c>
       <c r="E21" s="24" t="s">
         <v>23</v>
@@ -18287,8 +18302,8 @@
       <c r="F21" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="103" t="s">
-        <v>1040</v>
+      <c r="G21" s="108" t="s">
+        <v>1041</v>
       </c>
       <c r="H21" s="21" t="s">
         <v>17</v>
@@ -18296,8 +18311,8 @@
       <c r="I21" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J21" s="102" t="s">
-        <v>1039</v>
+      <c r="J21" s="107" t="s">
+        <v>1040</v>
       </c>
       <c r="K21" s="19" t="s">
         <v>20</v>
@@ -18311,11 +18326,11 @@
       <c r="B22" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="C22" s="101" t="s">
-        <v>1041</v>
-      </c>
-      <c r="D22" s="102" t="s">
+      <c r="C22" s="106" t="s">
         <v>1042</v>
+      </c>
+      <c r="D22" s="107" t="s">
+        <v>1043</v>
       </c>
       <c r="E22" s="24" t="s">
         <v>23</v>
@@ -18323,8 +18338,8 @@
       <c r="F22" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G22" s="103" t="s">
-        <v>1043</v>
+      <c r="G22" s="108" t="s">
+        <v>1044</v>
       </c>
       <c r="H22" s="21" t="s">
         <v>17</v>
@@ -18332,8 +18347,8 @@
       <c r="I22" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J22" s="102" t="s">
-        <v>1044</v>
+      <c r="J22" s="107" t="s">
+        <v>1045</v>
       </c>
       <c r="K22" s="19" t="s">
         <v>20</v>
@@ -18344,14 +18359,14 @@
         <f aca="false">A22+1</f>
         <v>16</v>
       </c>
-      <c r="B23" s="105" t="s">
+      <c r="B23" s="109" t="s">
         <v>125</v>
       </c>
-      <c r="C23" s="101" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D23" s="102" t="s">
+      <c r="C23" s="106" t="s">
         <v>1046</v>
+      </c>
+      <c r="D23" s="107" t="s">
+        <v>1047</v>
       </c>
       <c r="E23" s="18" t="s">
         <v>15</v>
@@ -18359,7 +18374,7 @@
       <c r="F23" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G23" s="103" t="s">
+      <c r="G23" s="108" t="s">
         <v>17</v>
       </c>
       <c r="H23" s="21" t="s">
@@ -18368,8 +18383,8 @@
       <c r="I23" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J23" s="102" t="s">
-        <v>1046</v>
+      <c r="J23" s="107" t="s">
+        <v>1047</v>
       </c>
       <c r="K23" s="19" t="s">
         <v>20</v>
@@ -18380,22 +18395,22 @@
         <f aca="false">A23+1</f>
         <v>17</v>
       </c>
-      <c r="B24" s="105" t="s">
+      <c r="B24" s="109" t="s">
         <v>128</v>
       </c>
-      <c r="C24" s="101" t="s">
-        <v>1047</v>
-      </c>
-      <c r="D24" s="102" t="s">
+      <c r="C24" s="106" t="s">
         <v>1048</v>
       </c>
+      <c r="D24" s="107" t="s">
+        <v>1049</v>
+      </c>
       <c r="E24" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="103" t="s">
+      <c r="F24" s="108" t="s">
         <v>125</v>
       </c>
-      <c r="G24" s="103" t="s">
+      <c r="G24" s="108" t="s">
         <v>56</v>
       </c>
       <c r="H24" s="21" t="s">
@@ -18404,8 +18419,8 @@
       <c r="I24" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J24" s="102" t="s">
-        <v>1048</v>
+      <c r="J24" s="107" t="s">
+        <v>1049</v>
       </c>
       <c r="K24" s="19" t="s">
         <v>20</v>
@@ -18416,23 +18431,23 @@
         <f aca="false">A24+1</f>
         <v>18</v>
       </c>
-      <c r="B25" s="105" t="s">
+      <c r="B25" s="109" t="s">
         <v>133</v>
       </c>
-      <c r="C25" s="101" t="s">
-        <v>1049</v>
-      </c>
-      <c r="D25" s="102" t="s">
+      <c r="C25" s="106" t="s">
         <v>1050</v>
       </c>
+      <c r="D25" s="107" t="s">
+        <v>1051</v>
+      </c>
       <c r="E25" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="103" t="s">
+      <c r="F25" s="108" t="s">
         <v>125</v>
       </c>
-      <c r="G25" s="103" t="s">
-        <v>1051</v>
+      <c r="G25" s="108" t="s">
+        <v>1052</v>
       </c>
       <c r="H25" s="21" t="s">
         <v>17</v>
@@ -18440,8 +18455,8 @@
       <c r="I25" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J25" s="102" t="s">
-        <v>1050</v>
+      <c r="J25" s="107" t="s">
+        <v>1051</v>
       </c>
       <c r="K25" s="19" t="s">
         <v>20</v>
@@ -18452,14 +18467,14 @@
         <f aca="false">A25+1</f>
         <v>19</v>
       </c>
-      <c r="B26" s="106" t="s">
+      <c r="B26" s="110" t="s">
         <v>143</v>
       </c>
-      <c r="C26" s="107" t="s">
-        <v>1052</v>
-      </c>
-      <c r="D26" s="108" t="s">
+      <c r="C26" s="111" t="s">
         <v>1053</v>
+      </c>
+      <c r="D26" s="112" t="s">
+        <v>1054</v>
       </c>
       <c r="E26" s="29" t="s">
         <v>15</v>
@@ -18467,7 +18482,7 @@
       <c r="F26" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="G26" s="109" t="s">
+      <c r="G26" s="113" t="s">
         <v>17</v>
       </c>
       <c r="H26" s="32" t="s">
@@ -18476,8 +18491,8 @@
       <c r="I26" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="J26" s="108" t="s">
-        <v>1053</v>
+      <c r="J26" s="112" t="s">
+        <v>1054</v>
       </c>
       <c r="K26" s="30" t="s">
         <v>20</v>
@@ -18488,32 +18503,32 @@
         <f aca="false">A26+1</f>
         <v>20</v>
       </c>
-      <c r="B27" s="110" t="s">
+      <c r="B27" s="114" t="s">
         <v>146</v>
       </c>
-      <c r="C27" s="110" t="s">
-        <v>1054</v>
-      </c>
-      <c r="D27" s="111" t="s">
+      <c r="C27" s="114" t="s">
         <v>1055</v>
       </c>
-      <c r="E27" s="112" t="s">
-        <v>23</v>
-      </c>
-      <c r="F27" s="109" t="s">
+      <c r="D27" s="115" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E27" s="116" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="113" t="s">
         <v>143</v>
       </c>
-      <c r="G27" s="112" t="s">
-        <v>1056</v>
-      </c>
-      <c r="H27" s="112" t="s">
+      <c r="G27" s="116" t="s">
+        <v>1057</v>
+      </c>
+      <c r="H27" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="I27" s="112" t="s">
+      <c r="I27" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="J27" s="111" t="s">
-        <v>1057</v>
+      <c r="J27" s="115" t="s">
+        <v>1058</v>
       </c>
       <c r="K27" s="30" t="s">
         <v>20</v>
@@ -18524,32 +18539,32 @@
         <f aca="false">A27+1</f>
         <v>21</v>
       </c>
-      <c r="B28" s="110" t="s">
+      <c r="B28" s="114" t="s">
         <v>150</v>
       </c>
-      <c r="C28" s="110" t="s">
-        <v>1058</v>
-      </c>
-      <c r="D28" s="111" t="s">
+      <c r="C28" s="114" t="s">
         <v>1059</v>
       </c>
-      <c r="E28" s="112" t="s">
-        <v>23</v>
-      </c>
-      <c r="F28" s="109" t="s">
+      <c r="D28" s="115" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E28" s="116" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="113" t="s">
         <v>143</v>
       </c>
-      <c r="G28" s="112" t="s">
-        <v>1056</v>
-      </c>
-      <c r="H28" s="112" t="s">
+      <c r="G28" s="116" t="s">
+        <v>1057</v>
+      </c>
+      <c r="H28" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="I28" s="112" t="s">
+      <c r="I28" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="J28" s="111" t="s">
-        <v>1060</v>
+      <c r="J28" s="115" t="s">
+        <v>1061</v>
       </c>
       <c r="K28" s="30" t="s">
         <v>20</v>
